--- a/result/201612.xlsx
+++ b/result/201612.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\kra\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="120" windowWidth="11652" windowHeight="6036" activeTab="2"/>
+    <workbookView xWindow="3855" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="5" r:id="rId1"/>
-    <sheet name="fi" sheetId="6" r:id="rId2"/>
-    <sheet name="20151205" sheetId="7" r:id="rId3"/>
+    <sheet name="4" sheetId="8" r:id="rId2"/>
+    <sheet name="feature_importance" sheetId="6" r:id="rId3"/>
+    <sheet name="20151205" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="76">
   <si>
     <t>seoul</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +252,12 @@
   </si>
   <si>
     <t>u'tr_y2'</t>
+  </si>
+  <si>
+    <t>u'score5'</t>
+  </si>
+  <si>
+    <t>'hr_dt'</t>
   </si>
 </sst>
 </file>
@@ -358,7 +370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,7 +405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,24 +614,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -630,8 +648,18 @@
         <f>SUM(F2:F300)</f>
         <v>-381.1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <f>SUM(N2:N300)</f>
+        <v>-51.341666666666669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -651,8 +679,27 @@
         <f>E2*10-10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>M2*10-10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>4</v>
       </c>
@@ -669,8 +716,24 @@
         <f>E3*10-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>M3*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>12</v>
       </c>
@@ -687,8 +750,24 @@
         <f>E4*10-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>M4*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>7</v>
       </c>
@@ -702,8 +781,21 @@
         <f>E5*10/2-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>M5*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>9</v>
       </c>
@@ -717,8 +809,21 @@
         <f>E6*10/10-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>M6*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -729,8 +834,18 @@
         <f>E7*10/24-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>M7*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -750,8 +865,27 @@
         <f t="shared" ref="F9:F11" si="0">E9*10-10</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>1.2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N11" si="1">M9*10-10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -768,8 +902,24 @@
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5</v>
       </c>
@@ -786,8 +936,24 @@
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -798,11 +964,24 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12" si="1">E12*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F12" si="2">E12*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12" si="3">M12*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>4</v>
       </c>
@@ -813,11 +992,24 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13" si="2">E13*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F13" si="4">E13*10/10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>35.1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13" si="5">M13*10/10-10</f>
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -825,11 +1017,21 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14" si="3">E14*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F14" si="6">E14*10/24-10</f>
+        <v>-10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14" si="7">M14*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -846,11 +1048,30 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F18" si="4">E16*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F16:F18" si="8">E16*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>1.6</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16:N18" si="9">M16*10-10</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>6</v>
       </c>
@@ -864,11 +1085,27 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>-10</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>10.5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>7</v>
       </c>
@@ -882,11 +1119,27 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="8"/>
+        <v>-10</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>4</v>
       </c>
@@ -897,11 +1150,24 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19" si="5">E19*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F19" si="10">E19*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>23.7</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19" si="11">M19*10/2-10</f>
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>3</v>
       </c>
@@ -912,11 +1178,24 @@
         <v>13.6</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20" si="6">E20*10/10-10</f>
+        <f t="shared" ref="F20" si="12">E20*10/10-10</f>
         <v>3.5999999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>13.6</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20" si="13">M20*10/10-10</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -924,11 +1203,21 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21" si="7">E21*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F21" si="14">E21*10/24-10</f>
+        <v>-10</v>
+      </c>
+      <c r="L21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>89.9</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ref="N21" si="15">M21*10/24-10</f>
+        <v>27.458333333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -945,11 +1234,30 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F25" si="8">E23*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F23:F25" si="16">E23*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:N25" si="17">M23*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>7</v>
       </c>
@@ -963,11 +1271,27 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="8"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>11</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="17"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
@@ -981,11 +1305,27 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="8"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="17"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>8</v>
       </c>
@@ -996,11 +1336,24 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26" si="9">E26*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F26" si="18">E26*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26" si="19">M26*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>10</v>
       </c>
@@ -1011,11 +1364,24 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27" si="10">E27*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F27" si="20">E27*10/10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="L27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27" si="21">M27*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -1023,11 +1389,21 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28" si="11">E28*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F28" si="22">E28*10/24-10</f>
+        <v>-10</v>
+      </c>
+      <c r="L28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28" si="23">M28*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1044,11 +1420,30 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F32" si="12">E30*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F30:F32" si="24">E30*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:N32" si="25">M30*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>2</v>
       </c>
@@ -1062,11 +1457,27 @@
         <v>6.8</v>
       </c>
       <c r="F31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="25"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>3</v>
       </c>
@@ -1080,11 +1491,27 @@
         <v>3.2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="25"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>5</v>
       </c>
@@ -1095,11 +1522,24 @@
         <v>19</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33" si="13">E33*10/2-10</f>
+        <f t="shared" ref="F33" si="26">E33*10/2-10</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="L33" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>19</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33" si="27">M33*10/2-10</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>7</v>
       </c>
@@ -1110,11 +1550,24 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34" si="14">E34*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F34" si="28">E34*10/10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34" si="29">M34*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -1122,11 +1575,21 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35" si="15">E35*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F35" si="30">E35*10/24-10</f>
+        <v>-10</v>
+      </c>
+      <c r="L35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35" si="31">M35*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -1143,11 +1606,30 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F39" si="16">E37*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F37:F39" si="32">E37*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="I37">
+        <v>6</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37:N39" si="33">M37*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>10</v>
       </c>
@@ -1161,11 +1643,27 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" si="16"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="32"/>
+        <v>-10</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>6</v>
+      </c>
+      <c r="L38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>4</v>
       </c>
@@ -1179,11 +1677,27 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <f t="shared" si="16"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="32"/>
+        <v>-10</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="33"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>5</v>
       </c>
@@ -1194,11 +1708,24 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" ref="F40" si="17">E40*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F40" si="34">E40*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J40">
+        <v>7</v>
+      </c>
+      <c r="L40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ref="N40" si="35">M40*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
@@ -1209,11 +1736,24 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <f t="shared" ref="F41" si="18">E41*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F41" si="36">E41*10/10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="L41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>123</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41" si="37">M41*10/10-10</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -1221,11 +1761,21 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F42" si="19">E42*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F42" si="38">E42*10/24-10</f>
+        <v>-10</v>
+      </c>
+      <c r="L42" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" ref="N42" si="39">M42*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1242,11 +1792,30 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <f t="shared" ref="F44:F46" si="20">E44*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F44:F46" si="40">E44*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+      <c r="L44" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44">
+        <v>1.2</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ref="N44:N46" si="41">M44*10-10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>9</v>
       </c>
@@ -1260,11 +1829,27 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" si="20"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="40"/>
+        <v>-10</v>
+      </c>
+      <c r="J45">
+        <v>7</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="41"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>4</v>
       </c>
@@ -1278,11 +1863,27 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <f t="shared" si="20"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="40"/>
+        <v>-10</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="41"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>3</v>
       </c>
@@ -1293,11 +1894,24 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47" si="21">E47*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F47" si="42">E47*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="L47" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" ref="N47" si="43">M47*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>5</v>
       </c>
@@ -1308,11 +1922,24 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <f t="shared" ref="F48" si="22">E48*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F48" si="44">E48*10/10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ref="N48" si="45">M48*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -1320,11 +1947,21 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49" si="23">E49*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F49" si="46">E49*10/24-10</f>
+        <v>-10</v>
+      </c>
+      <c r="L49" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" ref="N49" si="47">M49*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -1341,11 +1978,30 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <f t="shared" ref="F51:F53" si="24">E51*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F51:F53" si="48">E51*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51">
+        <v>1.2</v>
+      </c>
+      <c r="N51">
+        <f t="shared" ref="N51:N53" si="49">M51*10-10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>3</v>
       </c>
@@ -1359,11 +2015,27 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <f t="shared" si="24"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="48"/>
+        <v>-10</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="49"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>4</v>
       </c>
@@ -1377,11 +2049,27 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <f t="shared" si="24"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="48"/>
+        <v>-10</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53" t="s">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="49"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>6</v>
       </c>
@@ -1392,11 +2080,24 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54" si="25">E54*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F54" si="50">E54*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="L54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f t="shared" ref="N54" si="51">M54*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>2</v>
       </c>
@@ -1407,11 +2108,24 @@
         <v>13.8</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55" si="26">E55*10/10-10</f>
+        <f t="shared" ref="F55" si="52">E55*10/10-10</f>
         <v>3.8000000000000007</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J55">
+        <v>8</v>
+      </c>
+      <c r="L55" t="s">
+        <v>5</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f t="shared" ref="N55" si="53">M55*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -1419,11 +2133,21 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <f t="shared" ref="F56" si="27">E56*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F56" si="54">E56*10/24-10</f>
+        <v>-10</v>
+      </c>
+      <c r="L56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ref="N56" si="55">M56*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -1440,11 +2164,30 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <f t="shared" ref="F58:F60" si="28">E58*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F58:F60" si="56">E58*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="I58">
+        <v>9</v>
+      </c>
+      <c r="J58">
+        <v>7</v>
+      </c>
+      <c r="K58">
+        <v>7</v>
+      </c>
+      <c r="L58" t="s">
+        <v>7</v>
+      </c>
+      <c r="M58">
+        <v>2.7</v>
+      </c>
+      <c r="N58">
+        <f t="shared" ref="N58:N60" si="57">M58*10-10</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>1</v>
       </c>
@@ -1458,11 +2201,27 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="28"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="56"/>
+        <v>-10</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="57"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>6</v>
       </c>
@@ -1476,11 +2235,27 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <f t="shared" si="28"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="56"/>
+        <v>-10</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>9</v>
+      </c>
+      <c r="L60" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="57"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>2</v>
       </c>
@@ -1491,11 +2266,24 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61" si="29">E61*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F61" si="58">E61*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="L61" t="s">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f t="shared" ref="N61" si="59">M61*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>8</v>
       </c>
@@ -1506,11 +2294,24 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <f t="shared" ref="F62" si="30">E62*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F62" si="60">E62*10/10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J62">
+        <v>9</v>
+      </c>
+      <c r="L62" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" ref="N62" si="61">M62*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -1518,11 +2319,21 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <f t="shared" ref="F63" si="31">E63*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F63" si="62">E63*10/24-10</f>
+        <v>-10</v>
+      </c>
+      <c r="L63" t="s">
+        <v>6</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" ref="N63" si="63">M63*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -1539,11 +2350,30 @@
         <v>1.2</v>
       </c>
       <c r="F65">
-        <f t="shared" ref="F65:F67" si="32">E65*10-10</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F65:F67" si="64">E65*10-10</f>
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+      <c r="K65">
+        <v>6</v>
+      </c>
+      <c r="L65" t="s">
+        <v>7</v>
+      </c>
+      <c r="M65">
+        <v>1.2</v>
+      </c>
+      <c r="N65">
+        <f t="shared" ref="N65:N67" si="65">M65*10-10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>6</v>
       </c>
@@ -1557,11 +2387,27 @@
         <v>3.3</v>
       </c>
       <c r="F66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="64"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66" t="s">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="65"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>1</v>
       </c>
@@ -1575,11 +2421,27 @@
         <v>1.5</v>
       </c>
       <c r="F67">
-        <f t="shared" si="32"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="64"/>
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>7</v>
+      </c>
+      <c r="L67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="65"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>2</v>
       </c>
@@ -1590,11 +2452,24 @@
         <v>6.9</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68" si="33">E68*10/2-10</f>
+        <f t="shared" ref="F68" si="66">E68*10/2-10</f>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J68">
+        <v>4</v>
+      </c>
+      <c r="L68" t="s">
+        <v>4</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <f t="shared" ref="N68" si="67">M68*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>3</v>
       </c>
@@ -1605,11 +2480,24 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <f t="shared" ref="F69" si="34">E69*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F69" si="68">E69*10/10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="L69" t="s">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f t="shared" ref="N69" si="69">M69*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -1617,11 +2505,21 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" ref="F70" si="35">E70*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F70" si="70">E70*10/24-10</f>
+        <v>-10</v>
+      </c>
+      <c r="L70" t="s">
+        <v>6</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f t="shared" ref="N70" si="71">M70*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -1638,11 +2536,30 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F74" si="36">E72*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F72:F74" si="72">E72*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="I72">
+        <v>11</v>
+      </c>
+      <c r="J72">
+        <v>11</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72" t="s">
+        <v>7</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <f t="shared" ref="N72:N74" si="73">M72*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>4</v>
       </c>
@@ -1656,11 +2573,27 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" si="36"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="72"/>
+        <v>-10</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="73"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>5</v>
       </c>
@@ -1674,11 +2607,27 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="36"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="72"/>
+        <v>-10</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+      <c r="K74">
+        <v>7</v>
+      </c>
+      <c r="L74" t="s">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="73"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>2</v>
       </c>
@@ -1689,11 +2638,24 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <f t="shared" ref="F75" si="37">E75*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F75" si="74">E75*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J75">
+        <v>8</v>
+      </c>
+      <c r="L75" t="s">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" ref="N75" si="75">M75*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>10</v>
       </c>
@@ -1704,11 +2666,24 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" ref="F76" si="38">E76*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F76" si="76">E76*10/10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+      <c r="L76" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f t="shared" ref="N76" si="77">M76*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -1716,11 +2691,21 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77" si="39">E77*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F77" si="78">E77*10/24-10</f>
+        <v>-10</v>
+      </c>
+      <c r="L77" t="s">
+        <v>6</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" ref="N77" si="79">M77*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -1737,11 +2722,30 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79:F81" si="40">E79*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F79:F81" si="80">E79*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="I79">
+        <v>12</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>4</v>
+      </c>
+      <c r="L79" t="s">
+        <v>7</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f t="shared" ref="N79:N81" si="81">M79*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>10</v>
       </c>
@@ -1755,11 +2759,27 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="40"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="80"/>
+        <v>-10</v>
+      </c>
+      <c r="J80">
+        <v>12</v>
+      </c>
+      <c r="K80">
+        <v>9</v>
+      </c>
+      <c r="L80" t="s">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="81"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>12</v>
       </c>
@@ -1773,11 +2793,27 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" si="40"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+        <f t="shared" si="80"/>
+        <v>-10</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <v>12</v>
+      </c>
+      <c r="L81" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="81"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>8</v>
       </c>
@@ -1788,11 +2824,24 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82" si="41">E82*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F82" si="82">E82*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J82">
+        <v>9</v>
+      </c>
+      <c r="L82" t="s">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f t="shared" ref="N82" si="83">M82*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>9</v>
       </c>
@@ -1803,11 +2852,24 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" ref="F83" si="42">E83*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F83" si="84">E83*10/10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J83">
+        <v>8</v>
+      </c>
+      <c r="L83" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <f t="shared" ref="N83" si="85">M83*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>6</v>
       </c>
@@ -1815,7 +2877,17 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <f t="shared" ref="F84" si="43">E84*10/24-10</f>
+        <f t="shared" ref="F84" si="86">E84*10/24-10</f>
+        <v>-10</v>
+      </c>
+      <c r="L84" t="s">
+        <v>6</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <f t="shared" ref="N84" si="87">M84*10/24-10</f>
         <v>-10</v>
       </c>
     </row>
@@ -1827,546 +2899,1125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <f>SUM(F2:F300)</f>
+        <v>-458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>E2*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>E3*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>E4*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>E5*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>E6*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>E7*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F11" si="0">E9*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="B1" s="1">
-        <v>0.99212720799999998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.14537938E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9.2019385499999998E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7.6796121099999997E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6.2917843999999996E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12" si="1">E12*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="2">E13*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="3">E14*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F18" si="4">E16*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19" si="5">E19*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="6">E20*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="7">E21*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F25" si="8">E23*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="8"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="8"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26" si="9">E26*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27" si="10">E27*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28" si="11">E28*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:F32" si="12">E30*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="12"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="12"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33" si="13">E33*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34" si="14">E34*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35" si="15">E35*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37:F39" si="16">E37*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40" si="17">E40*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41" si="18">E41*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42" si="19">E42*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:F46" si="20">E44*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="20"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="20"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47" si="21">E47*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48" si="22">E48*10/10-10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49" si="23">E49*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>1.2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:F53" si="24">E51*10-10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="24"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="24"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54" si="25">E54*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55" si="26">E55*10/10-10</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>84</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56" si="27">E56*10/24-10</f>
         <v>25</v>
       </c>
-      <c r="B6" s="1">
-        <v>5.3895219099999998E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4.9674983000000004E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58:F60" si="28">E58*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="28"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="28"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61" si="29">E61*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62" si="30">E62*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63" si="31">E63*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>4.3400234299999999E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>6.5</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65:F67" si="32">E65*10-10</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="32"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="32"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68" si="33">E68*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>38</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69" si="34">E69*10/10-10</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ref="F70" si="35">E70*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>2.4</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:F74" si="36">E72*10-10</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B73">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>3.44204537E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.7374354600000001E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.3069646E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1.02785616E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1">
-        <v>9.1887699599999998E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="1">
-        <v>8.6850790400000004E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1">
-        <v>8.1392202099999993E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="1">
-        <v>8.0461629599999998E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1">
-        <v>7.2777659500000005E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1">
-        <v>6.7666840300000005E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1">
-        <v>6.2447225999999998E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="1">
-        <v>6.1337650599999993E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6.12218099E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1">
-        <v>6.0731939499999998E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="36"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B74">
         <v>12</v>
       </c>
-      <c r="B23" s="1">
-        <v>5.9813784800000002E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5.75827591E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5.49073364E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5.30300532E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5.2960549699999997E-5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="1">
-        <v>4.65790036E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="1">
-        <v>4.6203001899999998E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="1">
-        <v>4.6165575100000001E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="1">
-        <v>4.5644766300000002E-5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="1">
-        <v>4.4820377300000001E-5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="1">
-        <v>4.4714040299999997E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1">
-        <v>4.4355753100000003E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="1">
-        <v>4.3302497899999997E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="1">
-        <v>4.2672357299999999E-5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="1">
-        <v>4.2528090100000001E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="1">
-        <v>4.16855602E-5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3.8604005900000003E-5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="1">
-        <v>3.8391202500000003E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="1">
-        <v>3.8021212899999998E-5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3.6483326800000001E-5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="1">
-        <v>3.6036434899999997E-5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="1">
-        <v>3.5224563E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="1">
-        <v>3.5094483899999999E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="1">
-        <v>3.2244501800000002E-5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="1">
-        <v>3.1858169800000001E-5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="1">
-        <v>3.1795633899999999E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="1">
-        <v>3.08045687E-5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="1">
-        <v>3.0717826699999998E-5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="1">
-        <v>3.04959921E-5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2.5447494099999998E-5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2.4448880699999999E-5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="1">
-        <v>2.4399948000000001E-5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="1">
-        <v>2.3341920199999999E-5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1.96371009E-5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" s="1">
-        <v>1.7654901199999999E-5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="1">
-        <v>1.6545052499999999E-5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="1">
-        <v>1.5578098700000002E-5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1.48421243E-5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1.4076236500000001E-5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="1">
-        <v>1.2939708700000001E-5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" s="1">
-        <v>9.25280737E-6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="1">
-        <v>5.0870138999999998E-6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="1">
-        <v>4.9217709999999999E-6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="1">
-        <v>1.25832169E-6</v>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="36"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ref="F75" si="37">E75*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ref="F76" si="38">E76*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77" si="39">E77*10/24-10</f>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B69">
-    <sortCondition descending="1" ref="B1:B69"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2374,23 +4025,1362 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BS66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.99212720799999998</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.54146198700000003</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.14537938E-3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.22310089699999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.54146198700000003</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.4840193700000002E-4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4.31164581E-4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.5829192599999999E-5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5.80988197E-5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.0512141E-4</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4.8895480400000001E-6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.45815659E-5</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.21049991E-6</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3.1364851000000001E-5</v>
+      </c>
+      <c r="P2" s="1">
+        <v>6.02923872E-5</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>7.3776088500000005E-5</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>6.3138437300000005E-4</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1.17691275E-3</v>
+      </c>
+      <c r="U2" s="1">
+        <v>7.7921824800000002E-4</v>
+      </c>
+      <c r="V2" s="1">
+        <v>9.38465349E-4</v>
+      </c>
+      <c r="W2" s="1">
+        <v>5.4090985299999996E-4</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1.0474864E-4</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>4.4091964200000002E-5</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>2.3387187999999999E-5</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1.29454031E-5</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1.49501888E-5</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>4.32820334E-5</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>7.9076163499999997E-5</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>6.1964767600000006E-5</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>5.6378926599999997E-5</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>5.0313702299999999E-5</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1.32301862E-4</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>1.05908566E-4</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>5.8407195600000001E-5</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>2.3379147399999999E-5</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>1.7599810099999999E-5</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>4.0564482799999998E-5</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>3.3929059999999997E-5</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>4.11632073E-5</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>1.40281703E-5</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>8.8753749400000008E-6</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>2.8016067299999999E-5</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>2.4792090600000002E-5</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>7.7951664099999994E-5</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>1.44401707E-5</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>2.3084409100000002E-5</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0.219906714</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>0.22310089699999999</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>8.3708029500000006E-3</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>4.2926789300000002E-5</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>3.40546705E-5</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>3.2291219900000003E-5</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>4.7732361100000002E-5</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>3.25853599E-5</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>5.5043594099999998E-5</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>4.6202371900000002E-5</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>4.12520381E-5</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>4.8534978599999998E-5</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>3.5896603099999998E-5</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>3.6515363500000003E-5</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>3.7152589399999997E-5</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>3.1251535499999998E-5</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>2.4962130600000001E-5</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>2.0209731199999999E-5</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>5.99589741E-5</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>4.4475247499999997E-5</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>4.1365321899999997E-5</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>3.7723385200000001E-5</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>3.2263523699999998E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9.2019385499999998E-4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.219906714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.6796121099999997E-4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.3708029500000006E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.2917843999999996E-4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.17691275E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.3895219099999998E-4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9.38465349E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.9674983000000004E-4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7.7921824800000002E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.3400234299999999E-4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.3138437300000005E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.44204537E-4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.4090985299999996E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.7374354600000001E-4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.31164581E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.3069646E-4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.4840193700000002E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.02785616E-4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.32301862E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9.1887699599999998E-5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.05908566E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8.6850790400000004E-5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.0512141E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8.1392202099999993E-5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.0474864E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8.0461629599999998E-5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.9076163499999997E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.2777659500000005E-5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7.7951664099999994E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6.7666840300000005E-5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.3776088500000005E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6.2447225999999998E-5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6.1964767600000006E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6.1337650599999993E-5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6.02923872E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6.12218099E-5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.99589741E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6.0731939499999998E-5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5.8407195600000001E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5.9813784800000002E-5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.80988197E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5.75827591E-5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.6378926599999997E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5.49073364E-5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5.5043594099999998E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5.30300532E-5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5.0313702299999999E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5.2960549699999997E-5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.8534978599999998E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4.65790036E-5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.7732361100000002E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4.6203001899999998E-5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.6202371900000002E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4.6165575100000001E-5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.5829192599999999E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4.5644766300000002E-5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4.4475247499999997E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4.4820377300000001E-5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4.4091964200000002E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4.4714040299999997E-5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4.32820334E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4.4355753100000003E-5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.2926789300000002E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4.3302497899999997E-5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4.1365321899999997E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4.2672357299999999E-5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4.12520381E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4.2528090100000001E-5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4.11632073E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4.16855602E-5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4.0564482799999998E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3.8604005900000003E-5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.7723385200000001E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3.8391202500000003E-5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3.7152589399999997E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3.8021212899999998E-5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3.6515363500000003E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3.6483326800000001E-5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.5896603099999998E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3.6036434899999997E-5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.40546705E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3.5224563E-5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.3929059999999997E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3.5094483899999999E-5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3.25853599E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3.2244501800000002E-5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.2291219900000003E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3.1858169800000001E-5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.2263523699999998E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3.1795633899999999E-5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3.1364851000000001E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3.08045687E-5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3.1251535499999998E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3.0717826699999998E-5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2.8016067299999999E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3.04959921E-5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2.4962130600000001E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2.5447494099999998E-5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2.4792090600000002E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.4448880699999999E-5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2.3387187999999999E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2.4399948000000001E-5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2.3379147399999999E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2.3341920199999999E-5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2.3084409100000002E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.96371009E-5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2.0209731199999999E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.7654901199999999E-5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.7599810099999999E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1.6545052499999999E-5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.49501888E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.5578098700000002E-5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1.45815659E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1.48421243E-5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1.44401707E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1.4076236500000001E-5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1.40281703E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.2939708700000001E-5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1.29454031E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="1">
+        <v>9.25280737E-6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="1">
+        <v>8.8753749400000008E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="1">
+        <v>5.0870138999999998E-6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="1">
+        <v>4.8895480400000001E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4.9217709999999999E-6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1.21049991E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1.25832169E-6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C1:D66">
+    <sortCondition descending="1" ref="D1:D66"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2402,7 +5392,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2423,7 +5413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>6</v>
       </c>
@@ -2441,7 +5431,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2459,7 +5449,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -2477,7 +5467,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>8</v>
       </c>
@@ -2495,7 +5485,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -2507,7 +5497,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2528,7 +5518,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>13</v>
       </c>
@@ -2546,7 +5536,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>11</v>
       </c>
@@ -2564,7 +5554,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -2582,7 +5572,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>3</v>
       </c>
@@ -2600,7 +5590,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -2612,7 +5602,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2633,7 +5623,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>7</v>
       </c>
@@ -2651,7 +5641,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>13</v>
       </c>
@@ -2669,7 +5659,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>4</v>
       </c>
@@ -2687,7 +5677,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>9</v>
       </c>
@@ -2705,7 +5695,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -2717,7 +5707,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -2738,7 +5728,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
@@ -2756,7 +5746,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>12</v>
       </c>
@@ -2774,7 +5764,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>7</v>
       </c>
@@ -2792,7 +5782,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>11</v>
       </c>
@@ -2810,7 +5800,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -2822,7 +5812,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2843,7 +5833,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -2861,7 +5851,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>12</v>
       </c>
@@ -2879,7 +5869,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>2</v>
       </c>
@@ -2897,7 +5887,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>5</v>
       </c>
@@ -2915,7 +5905,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -2927,7 +5917,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -2948,7 +5938,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>7</v>
       </c>
@@ -2966,7 +5956,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>6</v>
       </c>
@@ -2984,7 +5974,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>3</v>
       </c>
@@ -3002,7 +5992,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>2</v>
       </c>
@@ -3020,7 +6010,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -3032,7 +6022,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -3053,7 +6043,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>1</v>
       </c>
@@ -3071,7 +6061,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>6</v>
       </c>
@@ -3089,7 +6079,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>3</v>
       </c>
@@ -3107,7 +6097,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>5</v>
       </c>
@@ -3125,7 +6115,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -3137,7 +6127,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -3158,7 +6148,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>4</v>
       </c>
@@ -3176,7 +6166,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>9</v>
       </c>
@@ -3194,7 +6184,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>7</v>
       </c>
@@ -3212,7 +6202,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>1</v>
       </c>
@@ -3230,7 +6220,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -3242,7 +6232,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -3263,7 +6253,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>7</v>
       </c>
@@ -3281,7 +6271,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>10</v>
       </c>
@@ -3299,7 +6289,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>9</v>
       </c>
@@ -3317,7 +6307,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>6</v>
       </c>
@@ -3335,7 +6325,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -3347,7 +6337,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -3368,7 +6358,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>9</v>
       </c>
@@ -3386,7 +6376,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>10</v>
       </c>
@@ -3404,7 +6394,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>3</v>
       </c>
@@ -3422,7 +6412,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>8</v>
       </c>
@@ -3440,7 +6430,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -3452,7 +6442,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -3473,7 +6463,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>7</v>
       </c>
@@ -3491,7 +6481,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>6</v>
       </c>
@@ -3509,7 +6499,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>1</v>
       </c>
@@ -3527,7 +6517,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>11</v>
       </c>
@@ -3545,7 +6535,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -3557,7 +6547,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -3578,7 +6568,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>8</v>
       </c>
@@ -3596,7 +6586,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>5</v>
       </c>
@@ -3614,7 +6604,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>9</v>
       </c>
@@ -3632,7 +6622,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>1</v>
       </c>
@@ -3650,7 +6640,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>6</v>
       </c>

--- a/result/201612.xlsx
+++ b/result/201612.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="1"/>
+    <workbookView xWindow="7425" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="5" r:id="rId1"/>
     <sheet name="4" sheetId="8" r:id="rId2"/>
-    <sheet name="feature_importance" sheetId="6" r:id="rId3"/>
-    <sheet name="20151205" sheetId="7" r:id="rId4"/>
+    <sheet name="3 (2)" sheetId="9" r:id="rId3"/>
+    <sheet name="4 (2)" sheetId="10" r:id="rId4"/>
+    <sheet name="feature_importance" sheetId="6" r:id="rId5"/>
+    <sheet name="20151205" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="78">
   <si>
     <t>seoul</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +260,13 @@
   </si>
   <si>
     <t>'hr_dt'</t>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'tr_t2'</t>
   </si>
 </sst>
 </file>
@@ -617,8 +626,8 @@
   <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q80" sqref="Q80"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2901,9 +2910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q59" sqref="Q59"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4025,15 +4034,1032 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS66"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <f>SUM(F2:F300)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>E2*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>1.9</v>
+      </c>
+      <c r="F3">
+        <f>E3*10-10</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9">
+        <v>2.8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F10" si="0">E9*10-10</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1.2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F17" si="1">E16*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1.6</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F24" si="2">E23*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:F31" si="3">E30*10-10</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>2.1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37:F38" si="4">E37*10-10</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44">
+        <v>2.1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:F45" si="5">E44*10-10</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>1.2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51">
+        <v>1.7</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:F52" si="6">E51*10-10</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>1.2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58:F59" si="7">E58*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>1.7</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65:F66" si="8">E65*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>1.2</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:F73" si="9">E72*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="9"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ref="F79:F80" si="10">E79*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="10"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <f>SUM(F2:F300)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>E2*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>1.4</v>
+      </c>
+      <c r="F3">
+        <f>E3*10-10</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F10" si="0">E9*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F17" si="1">E16*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F24" si="2">E23*10-10</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>1.5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30">
+        <v>7.2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:F31" si="3">E30*10-10</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37:F38" si="4">E37*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>1.7</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:F45" si="5">E44*10-10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>1.4</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51">
+        <v>5.2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:F52" si="6">E51*10-10</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>1.8</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58:F59" si="7">E58*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65:F66" si="8">E65*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="8"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:F73" si="9">E72*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>2.4</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BU66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4046,206 +5072,213 @@
       <c r="D1" s="1">
         <v>0.54146198700000003</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1">
+        <v>0.54938339599999997</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>74</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>75</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>49</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>54</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>55</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>56</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>57</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>58</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>59</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>61</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>63</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>64</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>65</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>66</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>67</v>
       </c>
-      <c r="BN1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>69</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>70</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>71</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>72</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4258,206 +5291,213 @@
       <c r="D2" s="1">
         <v>0.22310089699999999</v>
       </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
       <c r="F2" s="1">
-        <v>0.54146198700000003</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.4840193700000002E-4</v>
-      </c>
+        <v>0.22003381299999999</v>
+      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <v>4.31164581E-4</v>
+        <v>0.54938339599999997</v>
       </c>
       <c r="I2" s="1">
-        <v>4.5829192599999999E-5</v>
+        <v>2.43540635E-4</v>
       </c>
       <c r="J2" s="1">
-        <v>5.80988197E-5</v>
+        <v>6.0771437200000001E-4</v>
       </c>
       <c r="K2" s="1">
-        <v>1.0512141E-4</v>
+        <v>5.0566306300000002E-5</v>
       </c>
       <c r="L2" s="1">
-        <v>4.8895480400000001E-6</v>
+        <v>5.8912564299999999E-5</v>
       </c>
       <c r="M2" s="1">
-        <v>1.45815659E-5</v>
+        <v>1.18840425E-4</v>
       </c>
       <c r="N2" s="1">
-        <v>1.21049991E-6</v>
+        <v>9.7996793200000008E-6</v>
       </c>
       <c r="O2" s="1">
-        <v>3.1364851000000001E-5</v>
+        <v>2.40717339E-5</v>
       </c>
       <c r="P2" s="1">
-        <v>6.02923872E-5</v>
+        <v>9.5738467600000004E-7</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.3776088500000005E-5</v>
+        <v>5.5765329499999997E-5</v>
       </c>
       <c r="R2" s="1">
-        <v>0</v>
+        <v>5.9926148300000002E-5</v>
       </c>
       <c r="S2" s="1">
-        <v>6.3138437300000005E-4</v>
+        <v>9.4382175100000002E-5</v>
       </c>
       <c r="T2" s="1">
-        <v>1.17691275E-3</v>
+        <v>9.0544627400000001E-5</v>
       </c>
       <c r="U2" s="1">
-        <v>7.7921824800000002E-4</v>
+        <v>6.9011528999999997E-4</v>
       </c>
       <c r="V2" s="1">
-        <v>9.38465349E-4</v>
+        <v>1.56213665E-3</v>
       </c>
       <c r="W2" s="1">
-        <v>5.4090985299999996E-4</v>
+        <v>1.08019049E-3</v>
       </c>
       <c r="X2" s="1">
-        <v>1.0474864E-4</v>
+        <v>1.1655728E-3</v>
       </c>
       <c r="Y2" s="1">
-        <v>4.4091964200000002E-5</v>
+        <v>5.5019819599999998E-4</v>
       </c>
       <c r="Z2" s="1">
-        <v>2.3387187999999999E-5</v>
+        <v>1.4509702000000001E-4</v>
       </c>
       <c r="AA2" s="1">
-        <v>1.29454031E-5</v>
+        <v>4.9693550799999997E-5</v>
       </c>
       <c r="AB2" s="1">
-        <v>1.49501888E-5</v>
+        <v>2.4039781499999999E-5</v>
       </c>
       <c r="AC2" s="1">
-        <v>4.32820334E-5</v>
+        <v>1.56631633E-5</v>
       </c>
       <c r="AD2" s="1">
-        <v>7.9076163499999997E-5</v>
+        <v>1.45253268E-5</v>
       </c>
       <c r="AE2" s="1">
-        <v>6.1964767600000006E-5</v>
+        <v>5.0133445E-5</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.6378926599999997E-5</v>
+        <v>8.1746918099999996E-5</v>
       </c>
       <c r="AG2" s="1">
-        <v>5.0313702299999999E-5</v>
+        <v>6.1805754399999998E-5</v>
       </c>
       <c r="AH2" s="1">
-        <v>1.32301862E-4</v>
+        <v>7.3001510599999999E-5</v>
       </c>
       <c r="AI2" s="1">
-        <v>1.05908566E-4</v>
+        <v>6.5831892499999998E-5</v>
       </c>
       <c r="AJ2" s="1">
-        <v>5.8407195600000001E-5</v>
+        <v>1.47040563E-4</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.3379147399999999E-5</v>
+        <v>9.4060624599999994E-5</v>
       </c>
       <c r="AL2" s="1">
-        <v>1.7599810099999999E-5</v>
+        <v>6.8606438700000006E-5</v>
       </c>
       <c r="AM2" s="1">
-        <v>4.0564482799999998E-5</v>
+        <v>3.3830230800000002E-5</v>
       </c>
       <c r="AN2" s="1">
-        <v>3.3929059999999997E-5</v>
+        <v>1.9726864299999999E-5</v>
       </c>
       <c r="AO2" s="1">
-        <v>4.11632073E-5</v>
+        <v>4.2483343799999997E-5</v>
       </c>
       <c r="AP2" s="1">
-        <v>1.40281703E-5</v>
+        <v>3.9385476500000003E-5</v>
       </c>
       <c r="AQ2" s="1">
-        <v>8.8753749400000008E-6</v>
+        <v>4.3408560199999997E-5</v>
       </c>
       <c r="AR2" s="1">
-        <v>2.8016067299999999E-5</v>
+        <v>2.31255294E-5</v>
       </c>
       <c r="AS2" s="1">
-        <v>2.4792090600000002E-5</v>
+        <v>1.39353899E-5</v>
       </c>
       <c r="AT2" s="1">
-        <v>7.7951664099999994E-5</v>
+        <v>4.3343314899999998E-5</v>
       </c>
       <c r="AU2" s="1">
-        <v>1.44401707E-5</v>
+        <v>3.41608606E-5</v>
       </c>
       <c r="AV2" s="1">
-        <v>2.3084409100000002E-5</v>
+        <v>6.3697660199999999E-5</v>
       </c>
       <c r="AW2" s="1">
-        <v>0.219906714</v>
+        <v>1.7358550500000001E-5</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.22310089699999999</v>
+        <v>2.57804269E-5</v>
       </c>
       <c r="AY2" s="1">
-        <v>8.3708029500000006E-3</v>
+        <v>0.21319627999999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.2926789300000002E-5</v>
+        <v>0.22003381299999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>3.40546705E-5</v>
+        <v>8.7319901100000007E-3</v>
       </c>
       <c r="BB2" s="1">
-        <v>3.2291219900000003E-5</v>
+        <v>4.83547139E-5</v>
       </c>
       <c r="BC2" s="1">
-        <v>4.7732361100000002E-5</v>
+        <v>3.8505051399999997E-5</v>
       </c>
       <c r="BD2" s="1">
-        <v>3.25853599E-5</v>
+        <v>3.4447341299999998E-5</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.5043594099999998E-5</v>
+        <v>4.63934279E-5</v>
       </c>
       <c r="BF2" s="1">
-        <v>4.6202371900000002E-5</v>
+        <v>3.4373897900000003E-5</v>
       </c>
       <c r="BG2" s="1">
-        <v>4.12520381E-5</v>
+        <v>5.8429806500000002E-5</v>
       </c>
       <c r="BH2" s="1">
-        <v>4.8534978599999998E-5</v>
+        <v>6.9421875700000006E-5</v>
       </c>
       <c r="BI2" s="1">
-        <v>3.5896603099999998E-5</v>
+        <v>4.84607955E-5</v>
       </c>
       <c r="BJ2" s="1">
-        <v>3.6515363500000003E-5</v>
+        <v>6.1219248100000001E-5</v>
       </c>
       <c r="BK2" s="1">
-        <v>3.7152589399999997E-5</v>
+        <v>3.8537809300000002E-5</v>
       </c>
       <c r="BL2" s="1">
-        <v>3.1251535499999998E-5</v>
+        <v>4.26534989E-5</v>
       </c>
       <c r="BM2" s="1">
-        <v>2.4962130600000001E-5</v>
+        <v>3.9195051399999999E-5</v>
       </c>
       <c r="BN2" s="1">
-        <v>2.0209731199999999E-5</v>
+        <v>3.76653757E-5</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.99589741E-5</v>
+        <v>2.8701250399999999E-5</v>
       </c>
       <c r="BP2" s="1">
-        <v>4.4475247499999997E-5</v>
+        <v>2.2837824199999999E-5</v>
       </c>
       <c r="BQ2" s="1">
-        <v>4.1365321899999997E-5</v>
+        <v>7.5286846500000003E-5</v>
       </c>
       <c r="BR2" s="1">
-        <v>3.7723385200000001E-5</v>
+        <v>5.1677692099999998E-5</v>
       </c>
       <c r="BS2" s="1">
-        <v>3.2263523699999998E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.3">
+        <v>4.6145279000000003E-5</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>3.9591654100000002E-5</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>3.7904723200000003E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4470,8 +5510,15 @@
       <c r="D3" s="1">
         <v>0.219906714</v>
       </c>
-    </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.21319627999999999</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -4484,8 +5531,15 @@
       <c r="D4" s="1">
         <v>8.3708029500000006E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8.7319901100000007E-3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -4498,8 +5552,15 @@
       <c r="D5" s="1">
         <v>1.17691275E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.56213665E-3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4512,8 +5573,15 @@
       <c r="D6" s="1">
         <v>9.38465349E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.1655728E-3</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -4526,8 +5594,15 @@
       <c r="D7" s="1">
         <v>7.7921824800000002E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.08019049E-3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4540,8 +5615,15 @@
       <c r="D8" s="1">
         <v>6.3138437300000005E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6.9011528999999997E-4</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4554,8 +5636,15 @@
       <c r="D9" s="1">
         <v>5.4090985299999996E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6.0771437200000001E-4</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4568,8 +5657,15 @@
       <c r="D10" s="1">
         <v>4.31164581E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.5019819599999998E-4</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -4582,8 +5678,15 @@
       <c r="D11" s="1">
         <v>3.4840193700000002E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.43540635E-4</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4596,8 +5699,15 @@
       <c r="D12" s="1">
         <v>1.32301862E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.47040563E-4</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -4610,8 +5720,15 @@
       <c r="D13" s="1">
         <v>1.05908566E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.4509702000000001E-4</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -4624,8 +5741,15 @@
       <c r="D14" s="1">
         <v>1.0512141E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.18840425E-4</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -4638,8 +5762,15 @@
       <c r="D15" s="1">
         <v>1.0474864E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9.4382175100000002E-5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -4652,8 +5783,15 @@
       <c r="D16" s="1">
         <v>7.9076163499999997E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9.4060624599999994E-5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4666,8 +5804,15 @@
       <c r="D17" s="1">
         <v>7.7951664099999994E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9.0544627400000001E-5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4680,8 +5825,15 @@
       <c r="D18" s="1">
         <v>7.3776088500000005E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8.1746918099999996E-5</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4694,8 +5846,15 @@
       <c r="D19" s="1">
         <v>6.1964767600000006E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7.5286846500000003E-5</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -4708,8 +5867,15 @@
       <c r="D20" s="1">
         <v>6.02923872E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7.3001510599999999E-5</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4722,8 +5888,15 @@
       <c r="D21" s="1">
         <v>5.99589741E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6.9421875700000006E-5</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -4736,8 +5909,15 @@
       <c r="D22" s="1">
         <v>5.8407195600000001E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6.8606438700000006E-5</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4750,8 +5930,15 @@
       <c r="D23" s="1">
         <v>5.80988197E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6.5831892499999998E-5</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -4764,8 +5951,15 @@
       <c r="D24" s="1">
         <v>5.6378926599999997E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6.3697660199999999E-5</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -4778,8 +5972,15 @@
       <c r="D25" s="1">
         <v>5.5043594099999998E-5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="1">
+        <v>6.1805754399999998E-5</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -4792,8 +5993,15 @@
       <c r="D26" s="1">
         <v>5.0313702299999999E-5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="1">
+        <v>6.1219248100000001E-5</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -4806,8 +6014,15 @@
       <c r="D27" s="1">
         <v>4.8534978599999998E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5.9926148300000002E-5</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -4820,8 +6035,15 @@
       <c r="D28" s="1">
         <v>4.7732361100000002E-5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5.8912564299999999E-5</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -4834,8 +6056,15 @@
       <c r="D29" s="1">
         <v>4.6202371900000002E-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5.8429806500000002E-5</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -4848,8 +6077,15 @@
       <c r="D30" s="1">
         <v>4.5829192599999999E-5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5.5765329499999997E-5</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -4862,8 +6098,15 @@
       <c r="D31" s="1">
         <v>4.4475247499999997E-5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5.1677692099999998E-5</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -4876,8 +6119,15 @@
       <c r="D32" s="1">
         <v>4.4091964200000002E-5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5.0566306300000002E-5</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -4890,8 +6140,15 @@
       <c r="D33" s="1">
         <v>4.32820334E-5</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5.0133445E-5</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -4904,8 +6161,15 @@
       <c r="D34" s="1">
         <v>4.2926789300000002E-5</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4.9693550799999997E-5</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -4918,8 +6182,15 @@
       <c r="D35" s="1">
         <v>4.1365321899999997E-5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4.84607955E-5</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -4932,8 +6203,15 @@
       <c r="D36" s="1">
         <v>4.12520381E-5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4.83547139E-5</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -4946,8 +6224,15 @@
       <c r="D37" s="1">
         <v>4.11632073E-5</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4.63934279E-5</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -4960,8 +6245,15 @@
       <c r="D38" s="1">
         <v>4.0564482799999998E-5</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4.6145279000000003E-5</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -4974,8 +6266,15 @@
       <c r="D39" s="1">
         <v>3.7723385200000001E-5</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4.3408560199999997E-5</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -4988,8 +6287,15 @@
       <c r="D40" s="1">
         <v>3.7152589399999997E-5</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.3343314899999998E-5</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -5002,8 +6308,15 @@
       <c r="D41" s="1">
         <v>3.6515363500000003E-5</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4.26534989E-5</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -5016,8 +6329,15 @@
       <c r="D42" s="1">
         <v>3.5896603099999998E-5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1">
+        <v>4.2483343799999997E-5</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -5030,8 +6350,15 @@
       <c r="D43" s="1">
         <v>3.40546705E-5</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3.9591654100000002E-5</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -5044,8 +6371,15 @@
       <c r="D44" s="1">
         <v>3.3929059999999997E-5</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3.9385476500000003E-5</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -5058,8 +6392,15 @@
       <c r="D45" s="1">
         <v>3.25853599E-5</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3.9195051399999999E-5</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -5072,8 +6413,15 @@
       <c r="D46" s="1">
         <v>3.2291219900000003E-5</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3.8537809300000002E-5</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -5086,8 +6434,15 @@
       <c r="D47" s="1">
         <v>3.2263523699999998E-5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3.8505051399999997E-5</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -5100,8 +6455,15 @@
       <c r="D48" s="1">
         <v>3.1364851000000001E-5</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3.7904723200000003E-5</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -5114,8 +6476,15 @@
       <c r="D49" s="1">
         <v>3.1251535499999998E-5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3.76653757E-5</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -5128,8 +6497,15 @@
       <c r="D50" s="1">
         <v>2.8016067299999999E-5</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3.4447341299999998E-5</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -5142,8 +6518,15 @@
       <c r="D51" s="1">
         <v>2.4962130600000001E-5</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3.4373897900000003E-5</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -5156,8 +6539,15 @@
       <c r="D52" s="1">
         <v>2.4792090600000002E-5</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3.41608606E-5</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -5170,8 +6560,15 @@
       <c r="D53" s="1">
         <v>2.3387187999999999E-5</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3.3830230800000002E-5</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -5184,8 +6581,15 @@
       <c r="D54" s="1">
         <v>2.3379147399999999E-5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2.8701250399999999E-5</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -5198,8 +6602,15 @@
       <c r="D55" s="1">
         <v>2.3084409100000002E-5</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2.57804269E-5</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -5212,8 +6623,15 @@
       <c r="D56" s="1">
         <v>2.0209731199999999E-5</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2.40717339E-5</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -5226,8 +6644,15 @@
       <c r="D57" s="1">
         <v>1.7599810099999999E-5</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2.4039781499999999E-5</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -5240,8 +6665,15 @@
       <c r="D58" s="1">
         <v>1.49501888E-5</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2.31255294E-5</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -5254,8 +6686,15 @@
       <c r="D59" s="1">
         <v>1.45815659E-5</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2.2837824199999999E-5</v>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -5268,8 +6707,15 @@
       <c r="D60" s="1">
         <v>1.44401707E-5</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.9726864299999999E-5</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -5282,8 +6728,15 @@
       <c r="D61" s="1">
         <v>1.40281703E-5</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1.7358550500000001E-5</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -5296,8 +6749,15 @@
       <c r="D62" s="1">
         <v>1.29454031E-5</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1.56631633E-5</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -5310,8 +6770,15 @@
       <c r="D63" s="1">
         <v>8.8753749400000008E-6</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1.45253268E-5</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -5324,8 +6791,15 @@
       <c r="D64" s="1">
         <v>4.8895480400000001E-6</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.39353899E-5</v>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -5338,8 +6812,15 @@
       <c r="D65" s="1">
         <v>1.21049991E-6</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1">
+        <v>9.7996793200000008E-6</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -5352,17 +6833,24 @@
       <c r="D66" s="1">
         <v>0</v>
       </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="1">
+        <v>9.5738467600000004E-7</v>
+      </c>
+      <c r="G66" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="C1:D66">
-    <sortCondition descending="1" ref="D1:D66"/>
+  <sortState ref="E1:F66">
+    <sortCondition descending="1" ref="F1:F66"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>

--- a/result/201612.xlsx
+++ b/result/201612.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\kra\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7428" yWindow="120" windowWidth="11652" windowHeight="6036" activeTab="2"/>
+    <workbookView xWindow="9210" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="5" r:id="rId1"/>
@@ -13,13 +18,12 @@
     <sheet name="feature_importance" sheetId="6" r:id="rId4"/>
     <sheet name="20151205" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="79">
   <si>
     <t>seoul</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +331,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -374,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,7 +416,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -625,23 +632,23 @@
       <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
-    <col min="9" max="9" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.59765625" customWidth="1"/>
+    <col min="14" max="14" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +670,7 @@
         <v>-51.341666666666669</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -703,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>4</v>
       </c>
@@ -737,7 +744,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>12</v>
       </c>
@@ -771,7 +778,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>7</v>
       </c>
@@ -799,7 +806,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>9</v>
       </c>
@@ -827,7 +834,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -849,7 +856,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -889,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -923,7 +930,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5</v>
       </c>
@@ -957,7 +964,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -985,7 +992,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>4</v>
       </c>
@@ -1013,7 +1020,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1042,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>6</v>
       </c>
@@ -1109,7 +1116,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>7</v>
       </c>
@@ -1143,7 +1150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>4</v>
       </c>
@@ -1171,7 +1178,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>3</v>
       </c>
@@ -1199,7 +1206,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -1221,7 +1228,7 @@
         <v>27.458333333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1261,7 +1268,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>7</v>
       </c>
@@ -1295,7 +1302,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
@@ -1329,7 +1336,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>8</v>
       </c>
@@ -1357,7 +1364,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>10</v>
       </c>
@@ -1385,7 +1392,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1414,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1447,7 +1454,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>2</v>
       </c>
@@ -1481,7 +1488,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>3</v>
       </c>
@@ -1515,7 +1522,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>5</v>
       </c>
@@ -1543,7 +1550,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>7</v>
       </c>
@@ -1571,7 +1578,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -1593,7 +1600,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -1633,7 +1640,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>10</v>
       </c>
@@ -1667,7 +1674,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>4</v>
       </c>
@@ -1701,7 +1708,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>5</v>
       </c>
@@ -1729,7 +1736,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
@@ -1757,7 +1764,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -1779,7 +1786,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1819,7 +1826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>9</v>
       </c>
@@ -1853,7 +1860,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>4</v>
       </c>
@@ -1887,7 +1894,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>3</v>
       </c>
@@ -1915,7 +1922,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>5</v>
       </c>
@@ -1943,7 +1950,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -1965,7 +1972,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -2005,7 +2012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>3</v>
       </c>
@@ -2039,7 +2046,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>4</v>
       </c>
@@ -2073,7 +2080,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>6</v>
       </c>
@@ -2101,7 +2108,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>2</v>
       </c>
@@ -2129,7 +2136,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -2151,7 +2158,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -2191,7 +2198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>1</v>
       </c>
@@ -2225,7 +2232,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>6</v>
       </c>
@@ -2259,7 +2266,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>2</v>
       </c>
@@ -2287,7 +2294,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>8</v>
       </c>
@@ -2315,7 +2322,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -2337,7 +2344,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -2377,7 +2384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>6</v>
       </c>
@@ -2411,7 +2418,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>1</v>
       </c>
@@ -2445,7 +2452,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>2</v>
       </c>
@@ -2473,7 +2480,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>3</v>
       </c>
@@ -2501,7 +2508,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -2523,7 +2530,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -2563,7 +2570,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>4</v>
       </c>
@@ -2597,7 +2604,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>5</v>
       </c>
@@ -2631,7 +2638,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>2</v>
       </c>
@@ -2659,7 +2666,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>10</v>
       </c>
@@ -2687,7 +2694,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -2709,7 +2716,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -2749,7 +2756,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>10</v>
       </c>
@@ -2783,7 +2790,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>12</v>
       </c>
@@ -2817,7 +2824,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>8</v>
       </c>
@@ -2845,7 +2852,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>9</v>
       </c>
@@ -2873,7 +2880,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>6</v>
       </c>
@@ -2910,17 +2917,17 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2932,7 +2939,7 @@
         <v>-458</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2953,7 +2960,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>11</v>
       </c>
@@ -2971,7 +2978,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10</v>
       </c>
@@ -2989,7 +2996,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -3004,7 +3011,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -3019,7 +3026,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -3031,7 +3038,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3052,7 +3059,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -3070,7 +3077,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -3088,7 +3095,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>5</v>
       </c>
@@ -3103,7 +3110,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>6</v>
       </c>
@@ -3118,7 +3125,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -3130,7 +3137,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3151,7 +3158,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1</v>
       </c>
@@ -3169,7 +3176,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>7</v>
       </c>
@@ -3187,7 +3194,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>6</v>
       </c>
@@ -3202,7 +3209,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
@@ -3217,7 +3224,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -3229,7 +3236,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -3250,7 +3257,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>3</v>
       </c>
@@ -3268,7 +3275,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>11</v>
       </c>
@@ -3286,7 +3293,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>2</v>
       </c>
@@ -3301,7 +3308,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>4</v>
       </c>
@@ -3316,7 +3323,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -3328,7 +3335,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -3349,7 +3356,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>7</v>
       </c>
@@ -3367,7 +3374,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>8</v>
       </c>
@@ -3385,7 +3392,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>10</v>
       </c>
@@ -3400,7 +3407,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>3</v>
       </c>
@@ -3415,7 +3422,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -3427,7 +3434,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -3448,7 +3455,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>7</v>
       </c>
@@ -3466,7 +3473,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>5</v>
       </c>
@@ -3484,7 +3491,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>9</v>
       </c>
@@ -3499,7 +3506,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
@@ -3514,7 +3521,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -3526,7 +3533,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -3547,7 +3554,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>10</v>
       </c>
@@ -3565,7 +3572,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>4</v>
       </c>
@@ -3583,7 +3590,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>5</v>
       </c>
@@ -3598,7 +3605,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>7</v>
       </c>
@@ -3613,7 +3620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -3625,7 +3632,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -3646,7 +3653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>2</v>
       </c>
@@ -3664,7 +3671,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>1</v>
       </c>
@@ -3682,7 +3689,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>7</v>
       </c>
@@ -3697,7 +3704,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>4</v>
       </c>
@@ -3712,7 +3719,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -3724,7 +3731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -3745,7 +3752,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>2</v>
       </c>
@@ -3763,7 +3770,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>16</v>
       </c>
@@ -3781,7 +3788,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>12</v>
       </c>
@@ -3796,7 +3803,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>3</v>
       </c>
@@ -3811,7 +3818,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -3823,7 +3830,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -3844,7 +3851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>4</v>
       </c>
@@ -3862,7 +3869,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>6</v>
       </c>
@@ -3880,7 +3887,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>5</v>
       </c>
@@ -3895,7 +3902,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>3</v>
       </c>
@@ -3910,7 +3917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -3922,7 +3929,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -3943,7 +3950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>9</v>
       </c>
@@ -3961,7 +3968,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>12</v>
       </c>
@@ -3979,7 +3986,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>6</v>
       </c>
@@ -3994,7 +4001,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>2</v>
       </c>
@@ -4009,7 +4016,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -4029,36 +4036,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:AB84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q75" sqref="Q75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
-    <col min="8" max="8" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.5" customWidth="1"/>
-    <col min="11" max="11" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.59765625" customWidth="1"/>
-    <col min="15" max="15" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1"/>
+    <col min="15" max="15" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.5" customWidth="1"/>
-    <col min="18" max="18" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.59765625" customWidth="1"/>
+    <col min="20" max="20" width="6.625" customWidth="1"/>
+    <col min="22" max="22" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5" customWidth="1"/>
+    <col min="25" max="25" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4067,7 +4080,7 @@
       </c>
       <c r="F1">
         <f>SUM(F2:F300)</f>
-        <v>-220.72826086956522</v>
+        <v>-202.97826086956522</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -4077,7 +4090,7 @@
       </c>
       <c r="M1">
         <f>SUM(M2:M300)</f>
-        <v>-311.97826086956525</v>
+        <v>-325.06521739130437</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
@@ -4087,10 +4100,20 @@
       </c>
       <c r="T1">
         <f>SUM(T2:T300)</f>
+        <v>-294.22826086956525</v>
+      </c>
+      <c r="W1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1">
+        <f>SUM(AA2:AA300)</f>
         <v>-365.47826086956525</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4110,11 +4133,15 @@
         <f>E2*10-10</f>
         <v>-10</v>
       </c>
+      <c r="G2">
+        <f>F2+F9+F16+F23+F30+F37+F44+F51+F58+F65+F72+F79</f>
+        <v>66</v>
+      </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -4129,6 +4156,10 @@
         <f>L2*10-10</f>
         <v>-10</v>
       </c>
+      <c r="N2">
+        <f>M2+M9+M16+M23+M30+M37+M44+M51+M58+M65+M72+M79</f>
+        <v>66</v>
+      </c>
       <c r="O2">
         <v>1</v>
       </c>
@@ -4148,12 +4179,35 @@
         <f>S2*10-10</f>
         <v>-10</v>
       </c>
-      <c r="V2">
+      <c r="U2">
         <f>T2+T9+T16+T23+T30+T37+T44+T51+T58+T65+T72+T79</f>
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>Z2*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="AB2">
+        <f>AA2+AA9+AA16+AA23+AA30+AA37+AA44+AA51+AA58+AA65+AA72+AA79</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>8</v>
       </c>
@@ -4170,8 +4224,12 @@
         <f>E3*10-10</f>
         <v>-10</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="0">F3+F10+F17+F24+F31+F38+F45+F52+F59+F66+F73+F80</f>
+        <v>-68</v>
+      </c>
       <c r="I3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -4186,6 +4244,10 @@
         <f>L3*10-10</f>
         <v>-10</v>
       </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N7" si="1">M3+M10+M17+M24+M31+M38+M45+M52+M59+M66+M73+M80</f>
+        <v>-120</v>
+      </c>
       <c r="P3">
         <v>4</v>
       </c>
@@ -4202,12 +4264,32 @@
         <f>S3*10-10</f>
         <v>-10</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V7" si="0">T3+T10+T17+T24+T31+T38+T45+T52+T59+T66+T73+T80</f>
+      <c r="U3">
+        <f t="shared" ref="U3:U7" si="2">T3+T10+T17+T24+T31+T38+T45+T52+T59+T66+T73+T80</f>
         <v>-120</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f>Z3*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB7" si="3">AA3+AA10+AA17+AA24+AA31+AA38+AA45+AA52+AA59+AA66+AA73+AA80</f>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10</v>
       </c>
@@ -4224,8 +4306,12 @@
         <f>E4*10-10</f>
         <v>-10</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="I4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -4240,6 +4326,10 @@
         <f>L4*10-10</f>
         <v>-10</v>
       </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>-75</v>
+      </c>
       <c r="P4">
         <v>6</v>
       </c>
@@ -4256,12 +4346,32 @@
         <f>S4*10-10</f>
         <v>-10</v>
       </c>
-      <c r="V4">
-        <f t="shared" si="0"/>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="W4">
+        <v>6</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>Z4*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="3"/>
         <v>-31</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6</v>
       </c>
@@ -4275,8 +4385,12 @@
         <f>E5*10/4-10</f>
         <v>-10</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-21.5</v>
+      </c>
       <c r="I5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
@@ -4288,6 +4402,10 @@
         <f>L5*10/2-10</f>
         <v>-10</v>
       </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>-21.5</v>
+      </c>
       <c r="P5">
         <v>8</v>
       </c>
@@ -4301,12 +4419,29 @@
         <f>S5*10/2-10</f>
         <v>-10</v>
       </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>-102.25</v>
+      </c>
+      <c r="W5">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f>Z5*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="3"/>
         <v>-120</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>9</v>
       </c>
@@ -4320,6 +4455,10 @@
         <f>E6*10/2-10</f>
         <v>-10</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-92</v>
+      </c>
       <c r="I6">
         <v>2</v>
       </c>
@@ -4333,6 +4472,10 @@
         <f>L6*10/10-10</f>
         <v>-10</v>
       </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>-92</v>
+      </c>
       <c r="P6">
         <v>2</v>
       </c>
@@ -4346,12 +4489,29 @@
         <f>S6*10/10-10</f>
         <v>-10</v>
       </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>-58.5</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f>Z6*10/10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="3"/>
         <v>-92</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -4362,6 +4522,10 @@
         <f>E7*10/23-10</f>
         <v>-10</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-93.478260869565219</v>
+      </c>
       <c r="K7" t="s">
         <v>6</v>
       </c>
@@ -4372,6 +4536,10 @@
         <f>L7*10/24-10</f>
         <v>-10</v>
       </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>-82.565217391304344</v>
+      </c>
       <c r="R7" t="s">
         <v>6</v>
       </c>
@@ -4382,12 +4550,26 @@
         <f>S7*10/24-10</f>
         <v>-10</v>
       </c>
-      <c r="V7">
-        <f t="shared" si="0"/>
+      <c r="U7">
+        <f t="shared" si="2"/>
         <v>-93.478260869565219</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="Y7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f>Z7*10/24-10</f>
+        <v>-10</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="3"/>
+        <v>-93.478260869565219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4404,7 +4586,7 @@
         <v>2.9</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F11" si="1">E9*10-10</f>
+        <f t="shared" ref="F9:F11" si="4">E9*10-10</f>
         <v>19</v>
       </c>
       <c r="H9">
@@ -4423,7 +4605,7 @@
         <v>2.9</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9:M11" si="2">L9*10-10</f>
+        <f t="shared" ref="M9:M11" si="5">L9*10-10</f>
         <v>19</v>
       </c>
       <c r="O9">
@@ -4442,11 +4624,30 @@
         <v>2.9</v>
       </c>
       <c r="T9">
-        <f t="shared" ref="T9:T11" si="3">S9*10-10</f>
+        <f t="shared" ref="T9:T11" si="6">S9*10-10</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z9">
+        <v>2.9</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" ref="AA9:AA11" si="7">Z9*10-10</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5</v>
       </c>
@@ -4460,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="I10">
@@ -4476,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-10</v>
       </c>
       <c r="P10">
@@ -4492,11 +4693,27 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -4510,11 +4727,11 @@
         <v>3.1</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -4526,11 +4743,11 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-10</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -4542,11 +4759,27 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3</v>
       </c>
@@ -4557,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12" si="4">E12*10/4-10</f>
+        <f t="shared" ref="F12" si="8">E12*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>4</v>
@@ -4570,11 +4803,11 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12" si="5">L12*10/4-10</f>
+        <f t="shared" ref="M12" si="9">L12*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R12" t="s">
         <v>4</v>
@@ -4583,11 +4816,24 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" ref="T12" si="6">S12*10/4-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T12" si="10">S12*10/4-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" ref="AA12" si="11">Z12*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -4598,11 +4844,11 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13" si="7">E13*10/2-10</f>
+        <f t="shared" ref="F13" si="12">E13*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13" t="s">
         <v>5</v>
@@ -4611,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13" si="8">L13*10/2-10</f>
+        <f t="shared" ref="M13" si="13">L13*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="P13">
@@ -4624,11 +4870,24 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13" si="9">S13*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T13" si="14">S13*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" ref="AA13" si="15">Z13*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -4636,18 +4895,18 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14" si="10">E14*10/23-10</f>
+        <f t="shared" ref="F14" si="16">E14*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="K14" t="s">
         <v>6</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>25.1</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14" si="11">L14*10/23-10</f>
-        <v>-10</v>
+        <f t="shared" ref="M14" si="17">L14*10/23-10</f>
+        <v>0.91304347826086918</v>
       </c>
       <c r="R14" t="s">
         <v>6</v>
@@ -4656,11 +4915,21 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" ref="T14" si="12">S14*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T14" si="18">S14*10/23-10</f>
+        <v>-10</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" ref="AA14" si="19">Z14*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4677,7 +4946,7 @@
         <v>5.4</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F18" si="13">E16*10-10</f>
+        <f t="shared" ref="F16:F18" si="20">E16*10-10</f>
         <v>44</v>
       </c>
       <c r="H16">
@@ -4696,7 +4965,7 @@
         <v>5.4</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:M18" si="14">L16*10-10</f>
+        <f t="shared" ref="M16:M18" si="21">L16*10-10</f>
         <v>44</v>
       </c>
       <c r="O16">
@@ -4715,11 +4984,30 @@
         <v>5.4</v>
       </c>
       <c r="T16">
-        <f t="shared" ref="T16:T18" si="15">S16*10-10</f>
+        <f t="shared" ref="T16:T18" si="22">S16*10-10</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>6</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16">
+        <v>5.4</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" ref="AA16:AA18" si="23">Z16*10-10</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>4</v>
       </c>
@@ -4733,11 +5021,11 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-10</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4749,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-10</v>
       </c>
       <c r="P17">
@@ -4765,11 +5053,27 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <f t="shared" si="15"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" si="22"/>
+        <v>-10</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1</v>
       </c>
@@ -4783,27 +5087,27 @@
         <v>2.7</v>
       </c>
       <c r="F18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="P18">
         <v>1</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>2.7</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-      <c r="P18">
-        <v>8</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4815,11 +5119,27 @@
         <v>2.7</v>
       </c>
       <c r="T18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="W18">
+        <v>8</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18">
+        <v>2.7</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>8</v>
       </c>
@@ -4830,11 +5150,11 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19" si="16">E19*10/4-10</f>
+        <f t="shared" ref="F19" si="24">E19*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
         <v>4</v>
@@ -4843,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <f t="shared" ref="M19" si="17">L19*10/4-10</f>
+        <f t="shared" ref="M19" si="25">L19*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="P19">
@@ -4856,11 +5176,24 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <f t="shared" ref="T19" si="18">S19*10/4-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T19" si="26">S19*10/4-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" ref="AA19" si="27">Z19*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
@@ -4871,37 +5204,50 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20" si="19">E20*10/2-10</f>
+        <f t="shared" ref="F20" si="28">E20*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20" si="29">L20*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="P20">
         <v>8</v>
       </c>
-      <c r="K20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ref="M20" si="20">L20*10/2-10</f>
-        <v>-10</v>
-      </c>
-      <c r="P20">
+      <c r="R20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20" si="30">S20*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W20">
         <v>1</v>
       </c>
-      <c r="R20" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f t="shared" ref="T20" si="21">S20*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Y20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" ref="AA20" si="31">Z20*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -4909,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21" si="22">E21*10/23-10</f>
+        <f t="shared" ref="F21" si="32">E21*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="K21" t="s">
@@ -4919,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <f t="shared" ref="M21" si="23">L21*10/23-10</f>
+        <f t="shared" ref="M21" si="33">L21*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="R21" t="s">
@@ -4929,11 +5275,21 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <f t="shared" ref="T21" si="24">S21*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T21" si="34">S21*10/23-10</f>
+        <v>-10</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" ref="AA21" si="35">Z21*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -4950,14 +5306,14 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F25" si="25">E23*10-10</f>
+        <f t="shared" ref="F23:F25" si="36">E23*10-10</f>
         <v>-10</v>
       </c>
       <c r="H23">
         <v>4</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>10</v>
@@ -4969,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23:M25" si="26">L23*10-10</f>
+        <f t="shared" ref="M23:M25" si="37">L23*10-10</f>
         <v>-10</v>
       </c>
       <c r="O23">
@@ -4988,11 +5344,30 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:T25" si="27">S23*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T23:T25" si="38">S23*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>10</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" ref="AA23:AA25" si="39">Z23*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>8</v>
       </c>
@@ -5006,11 +5381,11 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>-10</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -5022,27 +5397,43 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>-10</v>
       </c>
       <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="38"/>
+        <v>-10</v>
+      </c>
+      <c r="W24">
         <v>1</v>
       </c>
-      <c r="Q24">
-        <v>4</v>
-      </c>
-      <c r="R24" t="s">
-        <v>2</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="27"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="39"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2</v>
       </c>
@@ -5056,28 +5447,28 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>-10</v>
       </c>
       <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="37"/>
+        <v>-10</v>
+      </c>
+      <c r="P25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="26"/>
-        <v>-10</v>
-      </c>
-      <c r="P25">
-        <v>5</v>
-      </c>
       <c r="Q25">
         <v>5</v>
       </c>
@@ -5088,11 +5479,27 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <f t="shared" si="27"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" si="38"/>
+        <v>-10</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="39"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>5</v>
       </c>
@@ -5103,11 +5510,11 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26" si="28">E26*10/4-10</f>
+        <f t="shared" ref="F26" si="40">E26*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K26" t="s">
         <v>4</v>
@@ -5116,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26" si="29">L26*10/4-10</f>
+        <f t="shared" ref="M26" si="41">L26*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="P26">
@@ -5129,11 +5536,24 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <f t="shared" ref="T26" si="30">S26*10/4-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T26" si="42">S26*10/4-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W26">
+        <v>8</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" ref="AA26" si="43">Z26*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>4</v>
       </c>
@@ -5144,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27" si="31">E27*10/2-10</f>
+        <f t="shared" ref="F27" si="44">E27*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="I27">
@@ -5157,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27" si="32">L27*10/2-10</f>
+        <f t="shared" ref="M27" si="45">L27*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="P27">
@@ -5170,11 +5590,24 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <f t="shared" ref="T27" si="33">S27*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T27" si="46">S27*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W27">
+        <v>4</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" ref="AA27" si="47">Z27*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -5182,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28" si="34">E28*10/23-10</f>
+        <f t="shared" ref="F28" si="48">E28*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="K28" t="s">
@@ -5192,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28" si="35">L28*10/23-10</f>
+        <f t="shared" ref="M28" si="49">L28*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="R28" t="s">
@@ -5202,11 +5635,21 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <f t="shared" ref="T28" si="36">S28*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T28" si="50">S28*10/23-10</f>
+        <v>-10</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" ref="AA28" si="51">Z28*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5223,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F32" si="37">E30*10-10</f>
+        <f t="shared" ref="F30:F32" si="52">E30*10-10</f>
         <v>-10</v>
       </c>
       <c r="H30">
@@ -5242,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" ref="M30:M32" si="38">L30*10-10</f>
+        <f t="shared" ref="M30:M32" si="53">L30*10-10</f>
         <v>-10</v>
       </c>
       <c r="O30">
@@ -5261,11 +5704,30 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <f t="shared" ref="T30:T32" si="39">S30*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T30:T32" si="54">S30*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" ref="AA30:AA32" si="55">Z30*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>6</v>
       </c>
@@ -5279,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-10</v>
       </c>
       <c r="I31">
@@ -5295,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>-10</v>
       </c>
       <c r="P31">
@@ -5311,11 +5773,27 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <f t="shared" si="39"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" si="54"/>
+        <v>-10</v>
+      </c>
+      <c r="W31">
+        <v>6</v>
+      </c>
+      <c r="X31">
+        <v>2</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="55"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>10</v>
       </c>
@@ -5329,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-10</v>
       </c>
       <c r="I32">
@@ -5345,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>-10</v>
       </c>
       <c r="P32">
@@ -5361,11 +5839,27 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <f t="shared" si="39"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" si="54"/>
+        <v>-10</v>
+      </c>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <v>6</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="55"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>9</v>
       </c>
@@ -5376,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33" si="40">E33*10/4-10</f>
+        <f t="shared" ref="F33" si="56">E33*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="I33">
@@ -5389,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <f t="shared" ref="M33" si="41">L33*10/4-10</f>
+        <f t="shared" ref="M33" si="57">L33*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="P33">
@@ -5402,11 +5896,24 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <f t="shared" ref="T33" si="42">S33*10/4-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T33" si="58">S33*10/4-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W33">
+        <v>9</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" ref="AA33" si="59">Z33*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>4</v>
       </c>
@@ -5417,11 +5924,11 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34" si="43">E34*10/2-10</f>
+        <f t="shared" ref="F34" si="60">E34*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="I34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K34" t="s">
         <v>5</v>
@@ -5430,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34" si="44">L34*10/2-10</f>
+        <f t="shared" ref="M34" si="61">L34*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="P34">
@@ -5443,11 +5950,24 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <f t="shared" ref="T34" si="45">S34*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T34" si="62">S34*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W34">
+        <v>8</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" ref="AA34" si="63">Z34*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -5455,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35" si="46">E35*10/23-10</f>
+        <f t="shared" ref="F35" si="64">E35*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="K35" t="s">
@@ -5465,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <f t="shared" ref="M35" si="47">L35*10/23-10</f>
+        <f t="shared" ref="M35" si="65">L35*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="R35" t="s">
@@ -5475,11 +5995,21 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <f t="shared" ref="T35" si="48">S35*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T35" si="66">S35*10/23-10</f>
+        <v>-10</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" ref="AA35" si="67">Z35*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -5496,14 +6026,14 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F39" si="49">E37*10-10</f>
+        <f t="shared" ref="F37:F39" si="68">E37*10-10</f>
         <v>-10</v>
       </c>
       <c r="H37">
         <v>6</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -5512,11 +6042,11 @@
         <v>75</v>
       </c>
       <c r="L37">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37:M39" si="50">L37*10-10</f>
-        <v>15</v>
+        <f t="shared" ref="M37:M39" si="69">L37*10-10</f>
+        <v>-10</v>
       </c>
       <c r="O37">
         <v>6</v>
@@ -5534,11 +6064,30 @@
         <v>2.5</v>
       </c>
       <c r="T37">
-        <f t="shared" ref="T37:T39" si="51">S37*10-10</f>
+        <f t="shared" ref="T37:T39" si="70">S37*10-10</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="V37">
+        <v>6</v>
+      </c>
+      <c r="W37">
+        <v>2</v>
+      </c>
+      <c r="X37">
+        <v>2</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z37">
+        <v>2.5</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" ref="AA37:AA39" si="71">Z37*10-10</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>2</v>
       </c>
@@ -5552,11 +6101,11 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" si="49"/>
+        <f t="shared" si="68"/>
         <v>-10</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38">
         <v>7</v>
@@ -5568,27 +6117,43 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <f t="shared" si="50"/>
+        <f t="shared" si="69"/>
         <v>-10</v>
       </c>
       <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="Q38">
+        <v>7</v>
+      </c>
+      <c r="R38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="70"/>
+        <v>-10</v>
+      </c>
+      <c r="W38">
         <v>10</v>
       </c>
-      <c r="Q38">
-        <v>7</v>
-      </c>
-      <c r="R38" t="s">
-        <v>2</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="51"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="X38">
+        <v>7</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="71"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>10</v>
       </c>
@@ -5602,7 +6167,7 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="49"/>
+        <f t="shared" si="68"/>
         <v>10</v>
       </c>
       <c r="I39">
@@ -5618,11 +6183,11 @@
         <v>2</v>
       </c>
       <c r="M39">
-        <f t="shared" si="50"/>
+        <f t="shared" si="69"/>
         <v>10</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -5631,14 +6196,30 @@
         <v>3</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <f t="shared" si="51"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" si="70"/>
+        <v>10</v>
+      </c>
+      <c r="W39">
+        <v>3</v>
+      </c>
+      <c r="X39">
+        <v>3</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="71"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>1</v>
       </c>
@@ -5649,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" ref="F40" si="52">E40*10/4-10</f>
+        <f t="shared" ref="F40" si="72">E40*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="I40">
@@ -5662,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <f t="shared" ref="M40" si="53">L40*10/4-10</f>
+        <f t="shared" ref="M40" si="73">L40*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="P40">
@@ -5675,11 +6256,24 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <f t="shared" ref="T40" si="54">S40*10/4-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T40" si="74">S40*10/4-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" ref="AA40" si="75">Z40*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>4</v>
       </c>
@@ -5690,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <f t="shared" ref="F41" si="55">E41*10/2-10</f>
+        <f t="shared" ref="F41" si="76">E41*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="I41">
@@ -5703,24 +6297,37 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <f t="shared" ref="M41" si="56">L41*10/2-10</f>
+        <f t="shared" ref="M41" si="77">L41*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" ref="T41" si="78">S41*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W41">
         <v>9</v>
       </c>
-      <c r="R41" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <f t="shared" ref="T41" si="57">S41*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Y41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" ref="AA41" si="79">Z41*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -5728,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F42" si="58">E42*10/23-10</f>
+        <f t="shared" ref="F42" si="80">E42*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="K42" t="s">
@@ -5738,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <f t="shared" ref="M42" si="59">L42*10/23-10</f>
+        <f t="shared" ref="M42" si="81">L42*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="R42" t="s">
@@ -5748,11 +6355,21 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="shared" ref="T42" si="60">S42*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T42" si="82">S42*10/23-10</f>
+        <v>-10</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" ref="AA42" si="83">Z42*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -5769,7 +6386,7 @@
         <v>1.3</v>
       </c>
       <c r="F44">
-        <f t="shared" ref="F44:F46" si="61">E44*10-10</f>
+        <f t="shared" ref="F44:F46" si="84">E44*10-10</f>
         <v>3</v>
       </c>
       <c r="H44">
@@ -5788,7 +6405,7 @@
         <v>1.3</v>
       </c>
       <c r="M44">
-        <f t="shared" ref="M44:M46" si="62">L44*10-10</f>
+        <f t="shared" ref="M44:M46" si="85">L44*10-10</f>
         <v>3</v>
       </c>
       <c r="O44">
@@ -5807,11 +6424,30 @@
         <v>1.3</v>
       </c>
       <c r="T44">
-        <f t="shared" ref="T44:T46" si="63">S44*10-10</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T44:T46" si="86">S44*10-10</f>
+        <v>3</v>
+      </c>
+      <c r="V44">
+        <v>7</v>
+      </c>
+      <c r="W44">
+        <v>7</v>
+      </c>
+      <c r="X44">
+        <v>7</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z44">
+        <v>1.3</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" ref="AA44:AA46" si="87">Z44*10-10</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>7</v>
       </c>
@@ -5825,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" si="61"/>
+        <f t="shared" si="84"/>
         <v>-10</v>
       </c>
       <c r="I45">
@@ -5841,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>-10</v>
       </c>
       <c r="P45">
@@ -5857,11 +6493,27 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <f t="shared" si="63"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" si="86"/>
+        <v>-10</v>
+      </c>
+      <c r="W45">
+        <v>11</v>
+      </c>
+      <c r="X45">
+        <v>2</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="87"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>1</v>
       </c>
@@ -5875,28 +6527,28 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <f t="shared" si="61"/>
+        <f t="shared" si="84"/>
         <v>-10</v>
       </c>
       <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="K46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="85"/>
+        <v>-10</v>
+      </c>
+      <c r="P46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>6</v>
-      </c>
-      <c r="K46" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="62"/>
-        <v>-10</v>
-      </c>
-      <c r="P46">
-        <v>5</v>
-      </c>
       <c r="Q46">
         <v>6</v>
       </c>
@@ -5907,11 +6559,27 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <f t="shared" si="63"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" si="86"/>
+        <v>-10</v>
+      </c>
+      <c r="W46">
+        <v>5</v>
+      </c>
+      <c r="X46">
+        <v>6</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="87"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>6</v>
       </c>
@@ -5922,11 +6590,11 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47" si="64">E47*10/4-10</f>
+        <f t="shared" ref="F47" si="88">E47*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K47" t="s">
         <v>4</v>
@@ -5935,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" ref="M47" si="65">L47*10/4-10</f>
+        <f t="shared" ref="M47" si="89">L47*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="P47">
@@ -5948,11 +6616,24 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <f t="shared" ref="T47" si="66">S47*10/4-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T47" si="90">S47*10/4-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W47">
+        <v>6</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" ref="AA47" si="91">Z47*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>5</v>
       </c>
@@ -5963,11 +6644,11 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <f t="shared" ref="F48" si="67">E48*10/2-10</f>
+        <f t="shared" ref="F48" si="92">E48*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K48" t="s">
         <v>5</v>
@@ -5976,24 +6657,37 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="shared" ref="M48" si="68">L48*10/2-10</f>
+        <f t="shared" ref="M48" si="93">L48*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="P48">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f t="shared" ref="T48" si="94">S48*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W48">
         <v>1</v>
       </c>
-      <c r="R48" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <f t="shared" ref="T48" si="69">S48*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Y48" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" ref="AA48" si="95">Z48*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -6001,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49" si="70">E49*10/23-10</f>
+        <f t="shared" ref="F49" si="96">E49*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="K49" t="s">
@@ -6011,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <f t="shared" ref="M49" si="71">L49*10/23-10</f>
+        <f t="shared" ref="M49" si="97">L49*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="R49" t="s">
@@ -6021,11 +6715,21 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <f t="shared" ref="T49" si="72">S49*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T49" si="98">S49*10/23-10</f>
+        <v>-10</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" ref="AA49" si="99">Z49*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -6042,7 +6746,7 @@
         <v>1.9</v>
       </c>
       <c r="F51">
-        <f t="shared" ref="F51:F53" si="73">E51*10-10</f>
+        <f t="shared" ref="F51:F53" si="100">E51*10-10</f>
         <v>9</v>
       </c>
       <c r="H51">
@@ -6061,7 +6765,7 @@
         <v>1.9</v>
       </c>
       <c r="M51">
-        <f t="shared" ref="M51:M53" si="74">L51*10-10</f>
+        <f t="shared" ref="M51:M53" si="101">L51*10-10</f>
         <v>9</v>
       </c>
       <c r="O51">
@@ -6080,11 +6784,30 @@
         <v>1.9</v>
       </c>
       <c r="T51">
-        <f t="shared" ref="T51:T53" si="75">S51*10-10</f>
+        <f t="shared" ref="T51:T53" si="102">S51*10-10</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="V51">
+        <v>8</v>
+      </c>
+      <c r="W51">
+        <v>2</v>
+      </c>
+      <c r="X51">
+        <v>2</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z51">
+        <v>1.9</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" ref="AA51:AA53" si="103">Z51*10-10</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>5</v>
       </c>
@@ -6098,7 +6821,7 @@
         <v>5.2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="73"/>
+        <f t="shared" si="100"/>
         <v>42</v>
       </c>
       <c r="I52">
@@ -6114,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <f t="shared" si="74"/>
+        <f t="shared" si="101"/>
         <v>-10</v>
       </c>
       <c r="P52">
@@ -6130,11 +6853,27 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <f t="shared" si="75"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" si="102"/>
+        <v>-10</v>
+      </c>
+      <c r="W52">
+        <v>4</v>
+      </c>
+      <c r="X52">
+        <v>5</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="103"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>4</v>
       </c>
@@ -6148,7 +6887,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F53">
-        <f t="shared" si="73"/>
+        <f t="shared" si="100"/>
         <v>13</v>
       </c>
       <c r="I53">
@@ -6164,27 +6903,43 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <f t="shared" si="74"/>
+        <f t="shared" si="101"/>
         <v>-10</v>
       </c>
       <c r="P53">
+        <v>5</v>
+      </c>
+      <c r="Q53">
+        <v>7</v>
+      </c>
+      <c r="R53" t="s">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="102"/>
+        <v>-10</v>
+      </c>
+      <c r="W53">
         <v>10</v>
       </c>
-      <c r="Q53">
-        <v>7</v>
-      </c>
-      <c r="R53" t="s">
-        <v>3</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="75"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="X53">
+        <v>7</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="103"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>10</v>
       </c>
@@ -6192,11 +6947,11 @@
         <v>4</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54" si="76">E54*10/4-10</f>
-        <v>-10</v>
+        <f t="shared" ref="F54" si="104">E54*10/4-10</f>
+        <v>7.75</v>
       </c>
       <c r="I54">
         <v>10</v>
@@ -6205,27 +6960,40 @@
         <v>4</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="M54">
-        <f t="shared" ref="M54" si="77">L54*10/4-10</f>
-        <v>-10</v>
+        <f t="shared" ref="M54" si="105">L54*10/4-10</f>
+        <v>7.75</v>
       </c>
       <c r="P54">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R54" t="s">
         <v>4</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="T54">
-        <f t="shared" ref="T54" si="78">S54*10/4-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T54" si="106">S54*10/4-10</f>
+        <v>7.75</v>
+      </c>
+      <c r="W54">
+        <v>5</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" ref="AA54" si="107">Z54*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>11</v>
       </c>
@@ -6236,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55" si="79">E55*10/2-10</f>
+        <f t="shared" ref="F55" si="108">E55*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="I55">
@@ -6249,11 +7017,11 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="shared" ref="M55" si="80">L55*10/2-10</f>
+        <f t="shared" ref="M55" si="109">L55*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R55" t="s">
         <v>5</v>
@@ -6262,11 +7030,24 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <f t="shared" ref="T55" si="81">S55*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T55" si="110">S55*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W55">
+        <v>3</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" ref="AA55" si="111">Z55*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -6274,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <f t="shared" ref="F56" si="82">E56*10/23-10</f>
+        <f t="shared" ref="F56" si="112">E56*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="K56" t="s">
@@ -6284,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <f t="shared" ref="M56" si="83">L56*10/23-10</f>
+        <f t="shared" ref="M56" si="113">L56*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="R56" t="s">
@@ -6294,11 +7075,21 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <f t="shared" ref="T56" si="84">S56*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T56" si="114">S56*10/23-10</f>
+        <v>-10</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" ref="AA56" si="115">Z56*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -6315,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <f t="shared" ref="F58:F60" si="85">E58*10-10</f>
+        <f t="shared" ref="F58:F60" si="116">E58*10-10</f>
         <v>-10</v>
       </c>
       <c r="H58">
@@ -6334,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="shared" ref="M58:M60" si="86">L58*10-10</f>
+        <f t="shared" ref="M58:M60" si="117">L58*10-10</f>
         <v>-10</v>
       </c>
       <c r="O58">
@@ -6353,11 +7144,30 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <f t="shared" ref="T58:T60" si="87">S58*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T58:T60" si="118">S58*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="V58">
+        <v>9</v>
+      </c>
+      <c r="W58">
+        <v>5</v>
+      </c>
+      <c r="X58">
+        <v>3</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" ref="AA58:AA60" si="119">Z58*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>6</v>
       </c>
@@ -6371,11 +7181,11 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="85"/>
+        <f t="shared" si="116"/>
         <v>-10</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J59">
         <v>5</v>
@@ -6387,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" si="86"/>
+        <f t="shared" si="117"/>
         <v>-10</v>
       </c>
       <c r="P59">
@@ -6403,11 +7213,27 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <f t="shared" si="87"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" si="118"/>
+        <v>-10</v>
+      </c>
+      <c r="W59">
+        <v>4</v>
+      </c>
+      <c r="X59">
+        <v>5</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="119"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>4</v>
       </c>
@@ -6421,11 +7247,11 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="116"/>
         <v>-10</v>
       </c>
       <c r="I60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J60">
         <v>4</v>
@@ -6434,14 +7260,14 @@
         <v>3</v>
       </c>
       <c r="L60">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" si="86"/>
-        <v>27</v>
+        <f t="shared" si="117"/>
+        <v>-10</v>
       </c>
       <c r="P60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -6453,11 +7279,27 @@
         <v>3.7</v>
       </c>
       <c r="T60">
-        <f t="shared" si="87"/>
+        <f t="shared" si="118"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="W60">
+        <v>9</v>
+      </c>
+      <c r="X60">
+        <v>4</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z60">
+        <v>3.7</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="119"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>3</v>
       </c>
@@ -6468,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <f t="shared" ref="F61" si="88">E61*10/4-10</f>
+        <f t="shared" ref="F61" si="120">E61*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="I61">
@@ -6481,11 +7323,11 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" ref="M61" si="89">L61*10/4-10</f>
+        <f t="shared" ref="M61" si="121">L61*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="P61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R61" t="s">
         <v>4</v>
@@ -6494,11 +7336,24 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <f t="shared" ref="T61" si="90">S61*10/4-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T61" si="122">S61*10/4-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W61">
+        <v>6</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" ref="AA61" si="123">Z61*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>9</v>
       </c>
@@ -6509,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <f t="shared" ref="F62" si="91">E62*10/2-10</f>
+        <f t="shared" ref="F62" si="124">E62*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="I62">
@@ -6519,27 +7374,40 @@
         <v>5</v>
       </c>
       <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="shared" ref="M62" si="125">L62*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="P62">
+        <v>9</v>
+      </c>
+      <c r="R62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62">
         <v>6.7</v>
       </c>
-      <c r="M62">
-        <f t="shared" ref="M62" si="92">L62*10/2-10</f>
+      <c r="T62">
+        <f t="shared" ref="T62" si="126">S62*10/2-10</f>
         <v>23.5</v>
       </c>
-      <c r="P62">
-        <v>3</v>
-      </c>
-      <c r="R62" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <f t="shared" ref="T62" si="93">S62*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="W62">
+        <v>3</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" ref="AA62" si="127">Z62*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -6547,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <f t="shared" ref="F63" si="94">E63*10/23-10</f>
+        <f t="shared" ref="F63" si="128">E63*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="K63" t="s">
@@ -6557,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <f t="shared" ref="M63" si="95">L63*10/23-10</f>
+        <f t="shared" ref="M63" si="129">L63*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="R63" t="s">
@@ -6567,11 +7435,21 @@
         <v>0</v>
       </c>
       <c r="T63">
-        <f t="shared" ref="T63" si="96">S63*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T63" si="130">S63*10/23-10</f>
+        <v>-10</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" ref="AA63" si="131">Z63*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -6588,7 +7466,7 @@
         <v>7.1</v>
       </c>
       <c r="F65">
-        <f t="shared" ref="F65:F67" si="97">E65*10-10</f>
+        <f t="shared" ref="F65:F67" si="132">E65*10-10</f>
         <v>61</v>
       </c>
       <c r="H65">
@@ -6607,7 +7485,7 @@
         <v>7.1</v>
       </c>
       <c r="M65">
-        <f t="shared" ref="M65:M67" si="98">L65*10-10</f>
+        <f t="shared" ref="M65:M67" si="133">L65*10-10</f>
         <v>61</v>
       </c>
       <c r="O65">
@@ -6626,11 +7504,30 @@
         <v>7.1</v>
       </c>
       <c r="T65">
-        <f t="shared" ref="T65:T67" si="99">S65*10-10</f>
+        <f t="shared" ref="T65:T67" si="134">S65*10-10</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="V65">
+        <v>10</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z65">
+        <v>7.1</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" ref="AA65:AA67" si="135">Z65*10-10</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>5</v>
       </c>
@@ -6644,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <f t="shared" si="97"/>
+        <f t="shared" si="132"/>
         <v>-10</v>
       </c>
       <c r="I66">
@@ -6660,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <f t="shared" si="98"/>
+        <f t="shared" si="133"/>
         <v>-10</v>
       </c>
       <c r="P66">
@@ -6676,11 +7573,27 @@
         <v>0</v>
       </c>
       <c r="T66">
-        <f t="shared" si="99"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" si="134"/>
+        <v>-10</v>
+      </c>
+      <c r="W66">
+        <v>5</v>
+      </c>
+      <c r="X66">
+        <v>4</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="135"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>4</v>
       </c>
@@ -6694,11 +7607,11 @@
         <v>2.5</v>
       </c>
       <c r="F67">
-        <f t="shared" si="97"/>
+        <f t="shared" si="132"/>
         <v>15</v>
       </c>
       <c r="I67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J67">
         <v>5</v>
@@ -6710,7 +7623,7 @@
         <v>2.5</v>
       </c>
       <c r="M67">
-        <f t="shared" si="98"/>
+        <f t="shared" si="133"/>
         <v>15</v>
       </c>
       <c r="P67">
@@ -6726,11 +7639,27 @@
         <v>2.5</v>
       </c>
       <c r="T67">
-        <f t="shared" si="99"/>
+        <f t="shared" si="134"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="W67">
+        <v>7</v>
+      </c>
+      <c r="X67">
+        <v>5</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z67">
+        <v>2.5</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="135"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>7</v>
       </c>
@@ -6741,21 +7670,21 @@
         <v>32.299999999999997</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68" si="100">E68*10/4-10</f>
+        <f t="shared" ref="F68" si="136">E68*10/4-10</f>
         <v>70.75</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K68" t="s">
         <v>4</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68" si="101">L68*10/4-10</f>
-        <v>-10</v>
+        <f t="shared" ref="M68" si="137">L68*10/4-10</f>
+        <v>70.75</v>
       </c>
       <c r="P68">
         <v>4</v>
@@ -6767,11 +7696,24 @@
         <v>0</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68" si="102">S68*10/4-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T68" si="138">S68*10/4-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W68">
+        <v>4</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" ref="AA68" si="139">Z68*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>3</v>
       </c>
@@ -6782,7 +7724,7 @@
         <v>5.6</v>
       </c>
       <c r="F69">
-        <f t="shared" ref="F69" si="103">E69*10/2-10</f>
+        <f t="shared" ref="F69" si="140">E69*10/2-10</f>
         <v>18</v>
       </c>
       <c r="I69">
@@ -6795,7 +7737,7 @@
         <v>5.6</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69" si="104">L69*10/2-10</f>
+        <f t="shared" ref="M69" si="141">L69*10/2-10</f>
         <v>18</v>
       </c>
       <c r="P69">
@@ -6808,11 +7750,24 @@
         <v>5.6</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69" si="105">S69*10/2-10</f>
+        <f t="shared" ref="T69" si="142">S69*10/2-10</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="W69">
+        <v>3</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z69">
+        <v>5.6</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" ref="AA69" si="143">Z69*10/2-10</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -6820,7 +7775,7 @@
         <v>61</v>
       </c>
       <c r="F70">
-        <f t="shared" ref="F70" si="106">E70*10/23-10</f>
+        <f t="shared" ref="F70" si="144">E70*10/23-10</f>
         <v>16.521739130434781</v>
       </c>
       <c r="K70" t="s">
@@ -6830,7 +7785,7 @@
         <v>61</v>
       </c>
       <c r="M70">
-        <f t="shared" ref="M70" si="107">L70*10/23-10</f>
+        <f t="shared" ref="M70" si="145">L70*10/23-10</f>
         <v>16.521739130434781</v>
       </c>
       <c r="R70" t="s">
@@ -6840,17 +7795,30 @@
         <v>61</v>
       </c>
       <c r="T70">
-        <f t="shared" ref="T70" si="108">S70*10/23-10</f>
+        <f t="shared" ref="T70" si="146">S70*10/23-10</f>
         <v>16.521739130434781</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Y70" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z70">
+        <v>61</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" ref="AA70" si="147">Z70*10/23-10</f>
+        <v>16.521739130434781</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
       <c r="D72" t="s">
         <v>75</v>
       </c>
@@ -6858,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F74" si="109">E72*10-10</f>
+        <f t="shared" ref="F72:F74" si="148">E72*10-10</f>
         <v>-10</v>
       </c>
       <c r="H72">
@@ -6867,6 +7835,9 @@
       <c r="I72">
         <v>3</v>
       </c>
+      <c r="J72">
+        <v>8</v>
+      </c>
       <c r="K72" t="s">
         <v>75</v>
       </c>
@@ -6874,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M74" si="110">L72*10-10</f>
+        <f t="shared" ref="M72:M74" si="149">L72*10-10</f>
         <v>-10</v>
       </c>
       <c r="O72">
@@ -6893,14 +7864,36 @@
         <v>0</v>
       </c>
       <c r="T72">
-        <f t="shared" ref="T72:T74" si="111">S72*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T72:T74" si="150">S72*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="V72">
+        <v>11</v>
+      </c>
+      <c r="W72">
+        <v>3</v>
+      </c>
+      <c r="X72">
+        <v>8</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" ref="AA72:AA74" si="151">Z72*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>2</v>
       </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
       <c r="D73" t="s">
         <v>2</v>
       </c>
@@ -6908,12 +7901,15 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" si="109"/>
+        <f t="shared" si="148"/>
         <v>-10</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
+      <c r="J73">
+        <v>6</v>
+      </c>
       <c r="K73" t="s">
         <v>2</v>
       </c>
@@ -6921,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <f t="shared" si="110"/>
+        <f t="shared" si="149"/>
         <v>-10</v>
       </c>
       <c r="P73">
@@ -6937,14 +7933,33 @@
         <v>0</v>
       </c>
       <c r="T73">
-        <f t="shared" si="111"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" si="150"/>
+        <v>-10</v>
+      </c>
+      <c r="W73">
+        <v>2</v>
+      </c>
+      <c r="X73">
+        <v>6</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="151"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>7</v>
       </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
       <c r="D74" t="s">
         <v>3</v>
       </c>
@@ -6952,11 +7967,14 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="109"/>
+        <f t="shared" si="148"/>
         <v>-10</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
       </c>
       <c r="K74" t="s">
         <v>3</v>
@@ -6965,11 +7983,11 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <f t="shared" si="110"/>
+        <f t="shared" si="149"/>
         <v>-10</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -6981,11 +7999,27 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <f t="shared" si="111"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" si="150"/>
+        <v>-10</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="151"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>1</v>
       </c>
@@ -6996,25 +8030,25 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <f t="shared" ref="F75" si="112">E75*10/4-10</f>
+        <f t="shared" ref="F75" si="152">E75*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="I75">
+        <v>7</v>
+      </c>
+      <c r="K75" t="s">
+        <v>4</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ref="M75" si="153">L75*10/4-10</f>
+        <v>-10</v>
+      </c>
+      <c r="P75">
         <v>1</v>
       </c>
-      <c r="K75" t="s">
-        <v>4</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <f t="shared" ref="M75" si="113">L75*10/4-10</f>
-        <v>-10</v>
-      </c>
-      <c r="P75">
-        <v>6</v>
-      </c>
       <c r="R75" t="s">
         <v>4</v>
       </c>
@@ -7022,11 +8056,24 @@
         <v>0</v>
       </c>
       <c r="T75">
-        <f t="shared" ref="T75" si="114">S75*10/4-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T75" si="154">S75*10/4-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W75">
+        <v>6</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" ref="AA75" si="155">Z75*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>6</v>
       </c>
@@ -7037,11 +8084,11 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" ref="F76" si="115">E76*10/2-10</f>
+        <f t="shared" ref="F76" si="156">E76*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="I76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K76" t="s">
         <v>5</v>
@@ -7050,11 +8097,11 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <f t="shared" ref="M76" si="116">L76*10/2-10</f>
+        <f t="shared" ref="M76" si="157">L76*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="P76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R76" t="s">
         <v>5</v>
@@ -7063,11 +8110,24 @@
         <v>0</v>
       </c>
       <c r="T76">
-        <f t="shared" ref="T76" si="117">S76*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T76" si="158">S76*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W76">
+        <v>7</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" ref="AA76" si="159">Z76*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -7075,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77" si="118">E77*10/23-10</f>
+        <f t="shared" ref="F77" si="160">E77*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="K77" t="s">
@@ -7085,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <f t="shared" ref="M77" si="119">L77*10/23-10</f>
+        <f t="shared" ref="M77" si="161">L77*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="R77" t="s">
@@ -7095,17 +8155,30 @@
         <v>0</v>
       </c>
       <c r="T77">
-        <f t="shared" ref="T77" si="120">S77*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T77" si="162">S77*10/23-10</f>
+        <v>-10</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" ref="AA77" si="163">Z77*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
       <c r="B79">
         <v>11</v>
       </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
       <c r="D79" t="s">
         <v>75</v>
       </c>
@@ -7113,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79:F81" si="121">E79*10-10</f>
+        <f t="shared" ref="F79:F81" si="164">E79*10-10</f>
         <v>-10</v>
       </c>
       <c r="H79">
@@ -7122,6 +8195,9 @@
       <c r="I79">
         <v>11</v>
       </c>
+      <c r="J79">
+        <v>10</v>
+      </c>
       <c r="K79" t="s">
         <v>75</v>
       </c>
@@ -7129,12 +8205,18 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <f t="shared" ref="M79:M81" si="122">L79*10-10</f>
+        <f t="shared" ref="M79:M81" si="165">L79*10-10</f>
         <v>-10</v>
       </c>
       <c r="O79">
         <v>12</v>
       </c>
+      <c r="P79">
+        <v>11</v>
+      </c>
+      <c r="Q79">
+        <v>10</v>
+      </c>
       <c r="R79" t="s">
         <v>75</v>
       </c>
@@ -7142,14 +8224,36 @@
         <v>0</v>
       </c>
       <c r="T79">
-        <f t="shared" ref="T79:T81" si="123">S79*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T79:T81" si="166">S79*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="V79">
+        <v>12</v>
+      </c>
+      <c r="W79">
+        <v>11</v>
+      </c>
+      <c r="X79">
+        <v>10</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" ref="AA79:AA81" si="167">Z79*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>6</v>
       </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
       <c r="D80" t="s">
         <v>2</v>
       </c>
@@ -7157,12 +8261,15 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="121"/>
+        <f t="shared" si="164"/>
         <v>-10</v>
       </c>
       <c r="I80">
         <v>6</v>
       </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
       <c r="K80" t="s">
         <v>2</v>
       </c>
@@ -7170,8 +8277,14 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <f t="shared" si="122"/>
-        <v>-10</v>
+        <f t="shared" si="165"/>
+        <v>-10</v>
+      </c>
+      <c r="P80">
+        <v>6</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
       </c>
       <c r="R80" t="s">
         <v>2</v>
@@ -7180,14 +8293,33 @@
         <v>0</v>
       </c>
       <c r="T80">
-        <f t="shared" si="123"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.4">
+        <f t="shared" si="166"/>
+        <v>-10</v>
+      </c>
+      <c r="W80">
+        <v>6</v>
+      </c>
+      <c r="X80">
+        <v>2</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="167"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>3</v>
       </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
       <c r="D81" t="s">
         <v>3</v>
       </c>
@@ -7195,12 +8327,15 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" si="121"/>
+        <f t="shared" si="164"/>
         <v>-10</v>
       </c>
       <c r="I81">
         <v>3</v>
       </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
       <c r="K81" t="s">
         <v>3</v>
       </c>
@@ -7208,8 +8343,14 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <f t="shared" si="122"/>
-        <v>-10</v>
+        <f t="shared" si="165"/>
+        <v>-10</v>
+      </c>
+      <c r="P81">
+        <v>3</v>
+      </c>
+      <c r="Q81">
+        <v>4</v>
       </c>
       <c r="R81" t="s">
         <v>3</v>
@@ -7218,11 +8359,27 @@
         <v>0</v>
       </c>
       <c r="T81">
-        <f t="shared" si="123"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.4">
+        <f t="shared" si="166"/>
+        <v>-10</v>
+      </c>
+      <c r="W81">
+        <v>3</v>
+      </c>
+      <c r="X81">
+        <v>4</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="167"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>12</v>
       </c>
@@ -7233,22 +8390,25 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82" si="124">E82*10/4-10</f>
+        <f t="shared" ref="F82" si="168">E82*10/4-10</f>
         <v>-10</v>
       </c>
       <c r="I82">
+        <v>12</v>
+      </c>
+      <c r="K82" t="s">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <f t="shared" ref="M82" si="169">L82*10/4-10</f>
+        <v>-10</v>
+      </c>
+      <c r="P82">
         <v>9</v>
       </c>
-      <c r="K82" t="s">
-        <v>4</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <f t="shared" ref="M82" si="125">L82*10/4-10</f>
-        <v>-10</v>
-      </c>
       <c r="R82" t="s">
         <v>4</v>
       </c>
@@ -7256,11 +8416,24 @@
         <v>0</v>
       </c>
       <c r="T82">
-        <f t="shared" ref="T82" si="126">S82*10/4-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T82" si="170">S82*10/4-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W82">
+        <v>9</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" ref="AA82" si="171">Z82*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>9</v>
       </c>
@@ -7271,22 +8444,25 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" ref="F83" si="127">E83*10/2-10</f>
+        <f t="shared" ref="F83" si="172">E83*10/2-10</f>
         <v>-10</v>
       </c>
       <c r="I83">
+        <v>9</v>
+      </c>
+      <c r="K83" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <f t="shared" ref="M83" si="173">L83*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="P83">
         <v>12</v>
       </c>
-      <c r="K83" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <f t="shared" ref="M83" si="128">L83*10/2-10</f>
-        <v>-10</v>
-      </c>
       <c r="R83" t="s">
         <v>5</v>
       </c>
@@ -7294,11 +8470,24 @@
         <v>0</v>
       </c>
       <c r="T83">
-        <f t="shared" ref="T83" si="129">S83*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.4">
+        <f t="shared" ref="T83" si="174">S83*10/2-10</f>
+        <v>-10</v>
+      </c>
+      <c r="W83">
+        <v>12</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" ref="AA83" si="175">Z83*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>6</v>
       </c>
@@ -7306,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <f t="shared" ref="F84" si="130">E84*10/23-10</f>
+        <f t="shared" ref="F84" si="176">E84*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="K84" t="s">
@@ -7316,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <f t="shared" ref="M84" si="131">L84*10/23-10</f>
+        <f t="shared" ref="M84" si="177">L84*10/23-10</f>
         <v>-10</v>
       </c>
       <c r="R84" t="s">
@@ -7326,7 +8515,17 @@
         <v>0</v>
       </c>
       <c r="T84">
-        <f t="shared" ref="T84" si="132">S84*10/23-10</f>
+        <f t="shared" ref="T84" si="178">S84*10/23-10</f>
+        <v>-10</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" ref="AA84" si="179">Z84*10/23-10</f>
         <v>-10</v>
       </c>
     </row>
@@ -7345,9 +8544,9 @@
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -7575,7 +8774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7803,7 +9002,7 @@
         <v>3.7372642799999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -7824,7 +9023,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -7845,7 +9044,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -7866,7 +9065,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -7887,7 +9086,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -7908,7 +9107,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -7929,7 +9128,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7950,7 +9149,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -7971,7 +9170,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -7992,7 +9191,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -8013,7 +9212,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -8034,7 +9233,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -8055,7 +9254,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -8076,7 +9275,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -8097,7 +9296,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -8118,7 +9317,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -8139,7 +9338,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -8160,7 +9359,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -8181,7 +9380,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8202,7 +9401,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -8223,7 +9422,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -8244,7 +9443,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -8265,7 +9464,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -8286,7 +9485,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -8307,7 +9506,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -8328,7 +9527,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -8349,7 +9548,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -8370,7 +9569,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -8391,7 +9590,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -8412,7 +9611,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -8433,7 +9632,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -8454,7 +9653,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -8475,7 +9674,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -8496,7 +9695,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -8517,7 +9716,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -8538,7 +9737,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -8559,7 +9758,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -8580,7 +9779,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -8601,7 +9800,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -8622,7 +9821,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -8643,7 +9842,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -8664,7 +9863,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -8685,7 +9884,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -8706,7 +9905,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -8727,7 +9926,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -8748,7 +9947,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -8769,7 +9968,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -8790,7 +9989,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -8811,7 +10010,7 @@
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -8832,7 +10031,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -8853,7 +10052,7 @@
       </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -8874,7 +10073,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -8895,7 +10094,7 @@
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -8916,7 +10115,7 @@
       </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -8937,7 +10136,7 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -8958,7 +10157,7 @@
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -8979,7 +10178,7 @@
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -9000,7 +10199,7 @@
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -9021,7 +10220,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -9042,7 +10241,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -9063,7 +10262,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -9084,7 +10283,7 @@
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -9105,7 +10304,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -9126,7 +10325,7 @@
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -9147,7 +10346,7 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>14</v>
       </c>
@@ -9161,7 +10360,7 @@
         <v>5.7892078100000004E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>30</v>
       </c>
@@ -9175,7 +10374,7 @@
         <v>8.3504567600000006E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>16</v>
       </c>
@@ -9206,17 +10405,17 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9228,7 +10427,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9249,7 +10448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>6</v>
       </c>
@@ -9267,7 +10466,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -9285,7 +10484,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -9303,7 +10502,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>8</v>
       </c>
@@ -9321,7 +10520,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -9333,7 +10532,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -9354,7 +10553,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>13</v>
       </c>
@@ -9372,7 +10571,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>11</v>
       </c>
@@ -9390,7 +10589,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -9408,7 +10607,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>3</v>
       </c>
@@ -9426,7 +10625,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -9438,7 +10637,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -9459,7 +10658,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>7</v>
       </c>
@@ -9477,7 +10676,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>13</v>
       </c>
@@ -9495,7 +10694,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>4</v>
       </c>
@@ -9513,7 +10712,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>9</v>
       </c>
@@ -9531,7 +10730,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -9543,7 +10742,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -9564,7 +10763,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
@@ -9582,7 +10781,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>12</v>
       </c>
@@ -9600,7 +10799,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>7</v>
       </c>
@@ -9618,7 +10817,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>11</v>
       </c>
@@ -9636,7 +10835,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -9648,7 +10847,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -9669,7 +10868,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -9687,7 +10886,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>12</v>
       </c>
@@ -9705,7 +10904,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>2</v>
       </c>
@@ -9723,7 +10922,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>5</v>
       </c>
@@ -9741,7 +10940,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -9753,7 +10952,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -9774,7 +10973,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>7</v>
       </c>
@@ -9792,7 +10991,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>6</v>
       </c>
@@ -9810,7 +11009,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>3</v>
       </c>
@@ -9828,7 +11027,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>2</v>
       </c>
@@ -9846,7 +11045,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -9858,7 +11057,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -9879,7 +11078,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>1</v>
       </c>
@@ -9897,7 +11096,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>6</v>
       </c>
@@ -9915,7 +11114,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>3</v>
       </c>
@@ -9933,7 +11132,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>5</v>
       </c>
@@ -9951,7 +11150,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -9963,7 +11162,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -9984,7 +11183,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>4</v>
       </c>
@@ -10002,7 +11201,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>9</v>
       </c>
@@ -10020,7 +11219,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>7</v>
       </c>
@@ -10038,7 +11237,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>1</v>
       </c>
@@ -10056,7 +11255,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -10068,7 +11267,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -10089,7 +11288,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>7</v>
       </c>
@@ -10107,7 +11306,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>10</v>
       </c>
@@ -10125,7 +11324,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>9</v>
       </c>
@@ -10143,7 +11342,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>6</v>
       </c>
@@ -10161,7 +11360,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -10173,7 +11372,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -10194,7 +11393,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>9</v>
       </c>
@@ -10212,7 +11411,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>10</v>
       </c>
@@ -10230,7 +11429,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>3</v>
       </c>
@@ -10248,7 +11447,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>8</v>
       </c>
@@ -10266,7 +11465,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -10278,7 +11477,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -10299,7 +11498,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>7</v>
       </c>
@@ -10317,7 +11516,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>6</v>
       </c>
@@ -10335,7 +11534,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>1</v>
       </c>
@@ -10353,7 +11552,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>11</v>
       </c>
@@ -10371,7 +11570,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -10383,7 +11582,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -10404,7 +11603,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>8</v>
       </c>
@@ -10422,7 +11621,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>5</v>
       </c>
@@ -10440,7 +11639,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>9</v>
       </c>
@@ -10458,7 +11657,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>1</v>
       </c>
@@ -10476,7 +11675,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>6</v>
       </c>

--- a/result/201612.xlsx
+++ b/result/201612.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\kra\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9210" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="2"/>
+    <workbookView xWindow="9210" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="5" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="feature_importance" sheetId="6" r:id="rId4"/>
     <sheet name="20151205" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -381,7 +376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,7 +411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4038,9 +4033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE11" sqref="AE11"/>
+      <selection pane="bottomLeft" activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8540,8 +8535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8563,7 +8558,7 @@
         <v>76</v>
       </c>
       <c r="F1" s="1">
-        <v>0.38412170000000001</v>
+        <v>0.26245065499999998</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" t="s">
@@ -8788,218 +8783,218 @@
         <v>0.17614798600000001</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
-        <v>5.9023509500000002E-2</v>
+        <v>0.16599386699999999</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>0.16599386699999999</v>
       </c>
       <c r="I2" s="1">
-        <v>2.24878326E-2</v>
+        <v>6.1476497599999996E-4</v>
       </c>
       <c r="J2" s="1">
-        <v>4.2911697800000002E-2</v>
+        <v>1.03016424E-3</v>
       </c>
       <c r="K2" s="1">
-        <v>3.4515459300000001E-3</v>
+        <v>5.6644420699999999E-5</v>
       </c>
       <c r="L2" s="1">
-        <v>6.0062723099999996E-3</v>
+        <v>8.0885469599999995E-5</v>
       </c>
       <c r="M2" s="1">
-        <v>1.05174559E-2</v>
+        <v>1.6605117000000001E-4</v>
       </c>
       <c r="N2" s="1">
-        <v>8.2078286099999996E-4</v>
+        <v>2.1151625000000001E-5</v>
       </c>
       <c r="O2" s="1">
-        <v>3.71707973E-3</v>
+        <v>3.0230107999999999E-5</v>
       </c>
       <c r="P2" s="1">
-        <v>8.3504567600000006E-5</v>
+        <v>9.8663581700000002E-7</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.1405844400000001E-3</v>
+        <v>7.6279300300000001E-5</v>
       </c>
       <c r="R2" s="1">
-        <v>6.9015907600000004E-3</v>
+        <v>1.10354249E-4</v>
       </c>
       <c r="S2" s="1">
-        <v>6.9456957600000004E-3</v>
+        <v>1.03855265E-4</v>
       </c>
       <c r="T2" s="1">
-        <v>1.8253366699999999E-2</v>
+        <v>1.3552866599999999E-4</v>
       </c>
       <c r="U2" s="1">
-        <v>5.9023509500000002E-2</v>
+        <v>1.7509510100000001E-4</v>
       </c>
       <c r="V2" s="1">
-        <v>2.0326748700000001E-2</v>
+        <v>9.4164185099999997E-4</v>
       </c>
       <c r="W2" s="1">
-        <v>1.14341809E-2</v>
+        <v>3.6671185299999999E-4</v>
       </c>
       <c r="X2" s="1">
-        <v>1.1193565799999999E-2</v>
+        <v>7.2393263000000002E-4</v>
       </c>
       <c r="Y2" s="1">
-        <v>3.1747289499999998E-2</v>
+        <v>1.9802564799999999E-4</v>
       </c>
       <c r="Z2" s="1">
-        <v>1.5696000299999999E-2</v>
+        <v>2.272946E-4</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.38412170000000001</v>
+        <v>0.26245065499999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>4.81757409E-2</v>
+        <v>0.132606693</v>
       </c>
       <c r="AC2" s="1">
-        <v>2.4756293200000001E-2</v>
+        <v>0.162832749</v>
       </c>
       <c r="AD2" s="1">
-        <v>6.6416023300000003E-3</v>
+        <v>7.1558080199999997E-5</v>
       </c>
       <c r="AE2" s="1">
-        <v>3.5447116499999999E-3</v>
+        <v>2.8373049000000002E-5</v>
       </c>
       <c r="AF2" s="1">
-        <v>1.61428125E-3</v>
+        <v>2.2791314400000001E-5</v>
       </c>
       <c r="AG2" s="1">
-        <v>5.7892078100000004E-4</v>
+        <v>1.67734744E-5</v>
       </c>
       <c r="AH2" s="1">
-        <v>4.39274217E-3</v>
+        <v>6.09036798E-5</v>
       </c>
       <c r="AI2" s="1">
-        <v>1.30372332E-2</v>
+        <v>1.15241431E-4</v>
       </c>
       <c r="AJ2" s="1">
-        <v>8.0283190499999997E-3</v>
+        <v>9.6296799599999996E-5</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.3304760000000002E-3</v>
+        <v>8.8631844600000004E-5</v>
       </c>
       <c r="AL2" s="1">
-        <v>3.4707914699999998E-3</v>
+        <v>1.0176904800000001E-4</v>
       </c>
       <c r="AM2" s="1">
-        <v>2.1489102E-2</v>
+        <v>3.6544163000000002E-4</v>
       </c>
       <c r="AN2" s="1">
-        <v>8.7994205099999993E-3</v>
+        <v>1.3685389499999999E-4</v>
       </c>
       <c r="AO2" s="1">
-        <v>4.9811012E-3</v>
+        <v>1.2653776899999999E-4</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.0671179200000001E-3</v>
+        <v>4.88175435E-5</v>
       </c>
       <c r="AQ2" s="1">
-        <v>2.1277723699999998E-3</v>
+        <v>2.4751457499999999E-5</v>
       </c>
       <c r="AR2" s="1">
-        <v>4.8451265800000002E-3</v>
+        <v>6.1483818800000005E-5</v>
       </c>
       <c r="AS2" s="1">
-        <v>3.7880116999999998E-3</v>
+        <v>6.1383286900000005E-5</v>
       </c>
       <c r="AT2" s="1">
-        <v>3.1000226200000001E-3</v>
+        <v>6.1783204199999996E-5</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.60182606E-3</v>
+        <v>3.9919255899999997E-5</v>
       </c>
       <c r="AV2" s="1">
-        <v>2.9204191499999999E-3</v>
+        <v>2.0848744399999999E-5</v>
       </c>
       <c r="AW2" s="1">
-        <v>2.6773901800000001E-3</v>
+        <v>4.3773611300000002E-5</v>
       </c>
       <c r="AX2" s="1">
-        <v>3.2378252999999998E-3</v>
+        <v>4.92007335E-5</v>
       </c>
       <c r="AY2" s="1">
-        <v>4.8957039100000002E-3</v>
+        <v>5.5665502800000003E-5</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.6434464699999998E-4</v>
+        <v>1.84230585E-5</v>
       </c>
       <c r="BA2" s="1">
-        <v>1.5793648500000001E-3</v>
+        <v>3.3549694600000002E-5</v>
       </c>
       <c r="BB2" s="1">
-        <v>7.18387373E-3</v>
+        <v>0.117340493</v>
       </c>
       <c r="BC2" s="1">
-        <v>7.9959229400000005E-3</v>
+        <v>0.12772192800000001</v>
       </c>
       <c r="BD2" s="1">
-        <v>1.3004527199999999E-2</v>
+        <v>2.3042249099999999E-2</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.8842238599999993E-3</v>
+        <v>6.2464194300000002E-5</v>
       </c>
       <c r="BF2" s="1">
-        <v>7.65892208E-3</v>
+        <v>4.8358805299999997E-5</v>
       </c>
       <c r="BG2" s="1">
-        <v>5.1130816800000001E-3</v>
+        <v>4.7456839000000003E-5</v>
       </c>
       <c r="BH2" s="1">
-        <v>5.9234333200000001E-3</v>
+        <v>5.0841156999999999E-5</v>
       </c>
       <c r="BI2" s="1">
-        <v>2.9527245299999999E-3</v>
+        <v>4.0578043400000001E-5</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.8188223799999998E-3</v>
+        <v>9.1799034899999997E-5</v>
       </c>
       <c r="BK2" s="1">
-        <v>6.4799713199999998E-3</v>
+        <v>9.8218392599999996E-5</v>
       </c>
       <c r="BL2" s="1">
-        <v>4.2219373899999996E-3</v>
+        <v>6.8870900599999994E-5</v>
       </c>
       <c r="BM2" s="1">
-        <v>4.6296320099999998E-3</v>
+        <v>7.7394809599999994E-5</v>
       </c>
       <c r="BN2" s="1">
-        <v>3.9191762699999997E-3</v>
+        <v>5.6536225299999999E-5</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.4131067700000004E-3</v>
+        <v>6.4846736299999997E-5</v>
       </c>
       <c r="BP2" s="1">
-        <v>4.3664493000000002E-3</v>
+        <v>5.5626664700000003E-5</v>
       </c>
       <c r="BQ2" s="1">
-        <v>4.1928984600000004E-3</v>
+        <v>4.9991532600000001E-5</v>
       </c>
       <c r="BR2" s="1">
-        <v>4.2919404999999999E-3</v>
+        <v>3.8828314300000002E-5</v>
       </c>
       <c r="BS2" s="1">
-        <v>2.6063061399999999E-3</v>
+        <v>2.2170823099999999E-5</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.2883756700000005E-3</v>
+        <v>8.5614182099999993E-5</v>
       </c>
       <c r="BU2" s="1">
-        <v>6.3079090000000004E-3</v>
+        <v>6.9451634700000005E-5</v>
       </c>
       <c r="BV2" s="1">
-        <v>5.1564653500000002E-3</v>
+        <v>5.9620771900000002E-5</v>
       </c>
       <c r="BW2" s="1">
-        <v>1.25269705E-2</v>
+        <v>6.2991405300000003E-5</v>
       </c>
       <c r="BX2" s="1">
-        <v>3.7372642799999999E-3</v>
+        <v>4.9336844099999997E-5</v>
       </c>
     </row>
     <row r="3" spans="1:76" x14ac:dyDescent="0.3">
@@ -9016,10 +9011,10 @@
         <v>0.162771105</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1">
-        <v>4.81757409E-2</v>
+        <v>0.162832749</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -9037,10 +9032,10 @@
         <v>0.12775783499999999</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1">
-        <v>4.2911697800000002E-2</v>
+        <v>0.132606693</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -9058,10 +9053,10 @@
         <v>0.12070434200000001</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1">
-        <v>3.1747289499999998E-2</v>
+        <v>0.12772192800000001</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -9079,10 +9074,10 @@
         <v>0.114430351</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1">
-        <v>2.4756293200000001E-2</v>
+        <v>0.117340493</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -9100,10 +9095,10 @@
         <v>2.3173401199999999E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1">
-        <v>2.24878326E-2</v>
+        <v>2.3042249099999999E-2</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -9121,10 +9116,10 @@
         <v>6.0513058899999998E-4</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
-        <v>2.1489102E-2</v>
+        <v>1.03016424E-3</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -9145,7 +9140,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="1">
-        <v>2.0326748700000001E-2</v>
+        <v>9.4164185099999997E-4</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -9163,10 +9158,10 @@
         <v>5.4352600000000001E-4</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F10" s="1">
-        <v>1.8253366699999999E-2</v>
+        <v>7.2393263000000002E-4</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -9184,10 +9179,10 @@
         <v>3.2923351200000002E-4</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1">
-        <v>1.5696000299999999E-2</v>
+        <v>6.1476497599999996E-4</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -9205,10 +9200,10 @@
         <v>2.95335305E-4</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
-        <v>1.30372332E-2</v>
+        <v>3.6671185299999999E-4</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -9226,10 +9221,10 @@
         <v>2.0549797499999999E-4</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1">
-        <v>1.3004527199999999E-2</v>
+        <v>3.6544163000000002E-4</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -9247,10 +9242,10 @@
         <v>1.8891860499999999E-4</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1">
-        <v>1.25269705E-2</v>
+        <v>2.272946E-4</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -9268,10 +9263,10 @@
         <v>1.6825190099999999E-4</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1">
-        <v>1.14341809E-2</v>
+        <v>1.9802564799999999E-4</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -9289,10 +9284,10 @@
         <v>1.4648583399999999E-4</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="F16" s="1">
-        <v>1.1193565799999999E-2</v>
+        <v>1.7509510100000001E-4</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -9313,7 +9308,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="1">
-        <v>1.05174559E-2</v>
+        <v>1.6605117000000001E-4</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -9331,10 +9326,10 @@
         <v>1.2250734300000001E-4</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1">
-        <v>9.8842238599999993E-3</v>
+        <v>1.3685389499999999E-4</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -9352,10 +9347,10 @@
         <v>1.17786181E-4</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1">
-        <v>9.8188223799999998E-3</v>
+        <v>1.3552866599999999E-4</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -9373,10 +9368,10 @@
         <v>1.10919163E-4</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1">
-        <v>8.7994205099999993E-3</v>
+        <v>1.2653776899999999E-4</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -9394,10 +9389,10 @@
         <v>1.0861653499999999E-4</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1">
-        <v>8.2883756700000005E-3</v>
+        <v>1.15241431E-4</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -9415,10 +9410,10 @@
         <v>1.08039009E-4</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1">
-        <v>8.0283190499999997E-3</v>
+        <v>1.10354249E-4</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -9436,10 +9431,10 @@
         <v>1.02342424E-4</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F23" s="1">
-        <v>7.9959229400000005E-3</v>
+        <v>1.03855265E-4</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -9457,10 +9452,10 @@
         <v>9.3380065300000003E-5</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1">
-        <v>7.65892208E-3</v>
+        <v>1.0176904800000001E-4</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -9478,10 +9473,10 @@
         <v>9.0011028699999994E-5</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F25" s="1">
-        <v>7.18387373E-3</v>
+        <v>9.8218392599999996E-5</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -9499,10 +9494,10 @@
         <v>8.5312810399999994E-5</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F26" s="1">
-        <v>7.1405844400000001E-3</v>
+        <v>9.6296799599999996E-5</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -9520,10 +9515,10 @@
         <v>8.3051561299999998E-5</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F27" s="1">
-        <v>6.9456957600000004E-3</v>
+        <v>9.1799034899999997E-5</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -9541,10 +9536,10 @@
         <v>8.20017516E-5</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F28" s="1">
-        <v>6.9015907600000004E-3</v>
+        <v>8.8631844600000004E-5</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -9562,10 +9557,10 @@
         <v>8.0906302300000002E-5</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F29" s="1">
-        <v>6.6416023300000003E-3</v>
+        <v>8.5614182099999993E-5</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -9583,10 +9578,10 @@
         <v>7.83812684E-5</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1">
-        <v>6.4799713199999998E-3</v>
+        <v>8.0885469599999995E-5</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -9604,10 +9599,10 @@
         <v>7.35169089E-5</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F31" s="1">
-        <v>6.3079090000000004E-3</v>
+        <v>7.7394809599999994E-5</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -9625,10 +9620,10 @@
         <v>6.9079728900000003E-5</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F32" s="1">
-        <v>6.0062723099999996E-3</v>
+        <v>7.6279300300000001E-5</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -9646,10 +9641,10 @@
         <v>6.6486989800000005E-5</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F33" s="1">
-        <v>5.9234333200000001E-3</v>
+        <v>7.1558080199999997E-5</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -9667,10 +9662,10 @@
         <v>6.3536800100000003E-5</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F34" s="1">
-        <v>5.4131067700000004E-3</v>
+        <v>6.9451634700000005E-5</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -9688,10 +9683,10 @@
         <v>6.1487819299999998E-5</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F35" s="1">
-        <v>5.1564653500000002E-3</v>
+        <v>6.8870900599999994E-5</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -9709,10 +9704,10 @@
         <v>6.0579933100000001E-5</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F36" s="1">
-        <v>5.1130816800000001E-3</v>
+        <v>6.4846736299999997E-5</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -9730,10 +9725,10 @@
         <v>6.0480359499999997E-5</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="F37" s="1">
-        <v>5.0671179200000001E-3</v>
+        <v>6.2991405300000003E-5</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -9751,10 +9746,10 @@
         <v>5.7479761600000001E-5</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F38" s="1">
-        <v>4.9811012E-3</v>
+        <v>6.2464194300000002E-5</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -9772,10 +9767,10 @@
         <v>5.7157809400000001E-5</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F39" s="1">
-        <v>4.8957039100000002E-3</v>
+        <v>6.1783204199999996E-5</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -9796,7 +9791,7 @@
         <v>41</v>
       </c>
       <c r="F40" s="1">
-        <v>4.8451265800000002E-3</v>
+        <v>6.1483818800000005E-5</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -9814,10 +9809,10 @@
         <v>5.59872968E-5</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F41" s="1">
-        <v>4.6296320099999998E-3</v>
+        <v>6.1383286900000005E-5</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -9838,7 +9833,7 @@
         <v>31</v>
       </c>
       <c r="F42" s="1">
-        <v>4.39274217E-3</v>
+        <v>6.09036798E-5</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -9856,10 +9851,10 @@
         <v>5.5713743799999999E-5</v>
       </c>
       <c r="E43" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F43" s="1">
-        <v>4.3664493000000002E-3</v>
+        <v>5.9620771900000002E-5</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -9877,10 +9872,10 @@
         <v>5.5600129800000002E-5</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="F44" s="1">
-        <v>4.2919404999999999E-3</v>
+        <v>5.6644420699999999E-5</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -9898,10 +9893,10 @@
         <v>5.3687147399999998E-5</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F45" s="1">
-        <v>4.2219373899999996E-3</v>
+        <v>5.6536225299999999E-5</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -9919,10 +9914,10 @@
         <v>5.2301202200000002E-5</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F46" s="1">
-        <v>4.1928984600000004E-3</v>
+        <v>5.5665502800000003E-5</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -9940,10 +9935,10 @@
         <v>5.1137526999999997E-5</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F47" s="1">
-        <v>3.9191762699999997E-3</v>
+        <v>5.5626664700000003E-5</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -9961,10 +9956,10 @@
         <v>4.9284146799999997E-5</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F48" s="1">
-        <v>3.7880116999999998E-3</v>
+        <v>5.0841156999999999E-5</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -9982,10 +9977,10 @@
         <v>4.82633438E-5</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F49" s="1">
-        <v>3.7372642799999999E-3</v>
+        <v>4.9991532600000001E-5</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -10003,10 +9998,10 @@
         <v>4.70544796E-5</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="F50" s="1">
-        <v>3.71707973E-3</v>
+        <v>4.9336844099999997E-5</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -10024,10 +10019,10 @@
         <v>4.6688983E-5</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F51" s="1">
-        <v>3.60182606E-3</v>
+        <v>4.92007335E-5</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -10045,10 +10040,10 @@
         <v>4.6328468499999999E-5</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F52" s="1">
-        <v>3.5447116499999999E-3</v>
+        <v>4.88175435E-5</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -10066,10 +10061,10 @@
         <v>4.4265511700000003E-5</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F53" s="1">
-        <v>3.4707914699999998E-3</v>
+        <v>4.8358805299999997E-5</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -10087,10 +10082,10 @@
         <v>4.3532468999999999E-5</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F54" s="1">
-        <v>3.4515459300000001E-3</v>
+        <v>4.7456839000000003E-5</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -10108,10 +10103,10 @@
         <v>4.2121927099999999E-5</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F55" s="1">
-        <v>3.3304760000000002E-3</v>
+        <v>4.3773611300000002E-5</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -10129,10 +10124,10 @@
         <v>3.7944449699999997E-5</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F56" s="1">
-        <v>3.2378252999999998E-3</v>
+        <v>4.0578043400000001E-5</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -10150,10 +10145,10 @@
         <v>3.7429067E-5</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" s="1">
-        <v>3.1000226200000001E-3</v>
+        <v>3.9919255899999997E-5</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -10171,10 +10166,10 @@
         <v>3.1804179200000002E-5</v>
       </c>
       <c r="E58" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F58" s="1">
-        <v>2.9527245299999999E-3</v>
+        <v>3.8828314300000002E-5</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -10192,10 +10187,10 @@
         <v>2.9836405000000002E-5</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F59" s="1">
-        <v>2.9204191499999999E-3</v>
+        <v>3.3549694600000002E-5</v>
       </c>
       <c r="G59" s="1"/>
     </row>
@@ -10213,10 +10208,10 @@
         <v>2.4399308299999999E-5</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F60" s="1">
-        <v>2.6773901800000001E-3</v>
+        <v>3.0230107999999999E-5</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -10234,10 +10229,10 @@
         <v>2.35950108E-5</v>
       </c>
       <c r="E61" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="F61" s="1">
-        <v>2.6063061399999999E-3</v>
+        <v>2.8373049000000002E-5</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -10258,7 +10253,7 @@
         <v>40</v>
       </c>
       <c r="F62" s="1">
-        <v>2.1277723699999998E-3</v>
+        <v>2.4751457499999999E-5</v>
       </c>
       <c r="G62" s="1"/>
     </row>
@@ -10279,7 +10274,7 @@
         <v>29</v>
       </c>
       <c r="F63" s="1">
-        <v>1.61428125E-3</v>
+        <v>2.2791314400000001E-5</v>
       </c>
       <c r="G63" s="1"/>
     </row>
@@ -10297,10 +10292,10 @@
         <v>1.8515246299999999E-5</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F64" s="1">
-        <v>1.5793648500000001E-3</v>
+        <v>2.2170823099999999E-5</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -10318,10 +10313,10 @@
         <v>1.7227976199999999E-5</v>
       </c>
       <c r="E65" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F65" s="1">
-        <v>8.6434464699999998E-4</v>
+        <v>2.1151625000000001E-5</v>
       </c>
       <c r="G65" s="1"/>
     </row>
@@ -10339,10 +10334,10 @@
         <v>1.6698310500000001E-5</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F66" s="1">
-        <v>8.2078286099999996E-4</v>
+        <v>2.0848744399999999E-5</v>
       </c>
       <c r="G66" s="1"/>
     </row>
@@ -10354,10 +10349,10 @@
         <v>1.5701056299999999E-5</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F67" s="1">
-        <v>5.7892078100000004E-4</v>
+        <v>1.84230585E-5</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -10368,10 +10363,10 @@
         <v>1.5588980600000001E-5</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F68" s="1">
-        <v>8.3504567600000006E-5</v>
+        <v>1.67734744E-5</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -10382,10 +10377,10 @@
         <v>9.9243465900000007E-7</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F69" s="1">
-        <v>0</v>
+        <v>9.8663581700000002E-7</v>
       </c>
     </row>
   </sheetData>

--- a/result/201612.xlsx
+++ b/result/201612.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\kra\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9210" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="3"/>
+    <workbookView minimized="1" xWindow="10995" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="5" r:id="rId1"/>
     <sheet name="4" sheetId="8" r:id="rId2"/>
     <sheet name="10" sheetId="11" r:id="rId3"/>
-    <sheet name="feature_importance" sheetId="6" r:id="rId4"/>
-    <sheet name="20151205" sheetId="7" r:id="rId5"/>
+    <sheet name="11" sheetId="12" r:id="rId4"/>
+    <sheet name="feature_importance" sheetId="6" r:id="rId5"/>
+    <sheet name="20151205" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="79">
   <si>
     <t>seoul</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,7 +382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +417,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4035,7 +4041,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC12" sqref="AC12"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8533,10 +8539,1157 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <f>SUM(G2:G300)</f>
+        <v>-626.20000000000005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <v>2.1</v>
+      </c>
+      <c r="G2">
+        <f>F2*10-10</f>
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <f>G2+G9+G16+G23+G30+G37+G44+G51+G58+G65+G72+G79</f>
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>F3*10/3-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="0">G3+G10+G17+G24+G31+G38+G45+G52+G59+G66+G73+G80</f>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>F4*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>F5*10/4-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>12.8</v>
+      </c>
+      <c r="G6">
+        <f>F6*10/10-10</f>
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-97.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>F7*10/23-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9" si="1">F9*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10" si="2">F10*10/3-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11" si="3">F11*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12" si="4">F12*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13" si="5">F13*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14" si="6">F14*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16" si="7">F16*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17" si="8">F17*10/3-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="9">F18*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19" si="10">F19*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20" si="11">F20*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21" si="12">F21*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23" si="13">F23*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24" si="14">F24*10/3-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25" si="15">F25*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26" si="16">F26*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27" si="17">F27*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28" si="18">F28*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30" si="19">F30*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31" si="20">F31*10/3-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32" si="21">F32*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33" si="22">F33*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34" si="23">F34*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35" si="24">F35*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37" si="25">F37*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38" si="26">F38*10/3-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39" si="27">F39*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40" si="28">F40*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41" si="29">F41*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42" si="30">F42*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44" si="31">F44*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45" si="32">F45*10/3-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46" si="33">F46*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ref="G47" si="34">F47*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48" si="35">F48*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ref="G49" si="36">F49*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ref="G51" si="37">F51*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ref="G52" si="38">F52*10/3-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ref="G53" si="39">F53*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ref="G54" si="40">F54*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ref="G55" si="41">F55*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ref="G56" si="42">F56*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ref="G58" si="43">F58*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ref="G59" si="44">F59*10/3-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ref="G60" si="45">F60*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ref="G61" si="46">F61*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ref="G62" si="47">F62*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ref="G63" si="48">F63*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ref="G65" si="49">F65*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66" si="50">F66*10/3-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67" si="51">F67*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68" si="52">F68*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69" si="53">F69*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ref="G70" si="54">F70*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ref="G72" si="55">F72*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73" si="56">F73*10/3-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" ref="G74" si="57">F74*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ref="G75" si="58">F75*10/4-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ref="G76" si="59">F76*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ref="G77" si="60">F77*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8555,10 +9708,10 @@
         <v>0.26884050100000001</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1">
-        <v>0.26245065499999998</v>
+        <v>0.216735821</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" t="s">
@@ -8783,218 +9936,218 @@
         <v>0.17614798600000001</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1">
-        <v>0.16599386699999999</v>
+        <v>6.2739103500000004E-2</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <v>0.16599386699999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>6.1476497599999996E-4</v>
+        <v>3.35005741E-2</v>
       </c>
       <c r="J2" s="1">
-        <v>1.03016424E-3</v>
+        <v>0.216735821</v>
       </c>
       <c r="K2" s="1">
-        <v>5.6644420699999999E-5</v>
+        <v>4.8479553199999997E-3</v>
       </c>
       <c r="L2" s="1">
-        <v>8.0885469599999995E-5</v>
+        <v>8.7234240200000004E-3</v>
       </c>
       <c r="M2" s="1">
-        <v>1.6605117000000001E-4</v>
+        <v>1.7387763099999998E-2</v>
       </c>
       <c r="N2" s="1">
-        <v>2.1151625000000001E-5</v>
+        <v>3.1657826199999999E-3</v>
       </c>
       <c r="O2" s="1">
-        <v>3.0230107999999999E-5</v>
+        <v>3.30297449E-3</v>
       </c>
       <c r="P2" s="1">
-        <v>9.8663581700000002E-7</v>
+        <v>5.8890088800000001E-5</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.6279300300000001E-5</v>
+        <v>1.13727923E-2</v>
       </c>
       <c r="R2" s="1">
-        <v>1.10354249E-4</v>
+        <v>1.2671995599999999E-2</v>
       </c>
       <c r="S2" s="1">
-        <v>1.03855265E-4</v>
+        <v>1.5341451000000001E-2</v>
       </c>
       <c r="T2" s="1">
-        <v>1.3552866599999999E-4</v>
+        <v>5.68563505E-2</v>
       </c>
       <c r="U2" s="1">
-        <v>1.7509510100000001E-4</v>
+        <v>7.9079522999999999E-3</v>
       </c>
       <c r="V2" s="1">
-        <v>9.4164185099999997E-4</v>
+        <v>4.0322352300000003E-2</v>
       </c>
       <c r="W2" s="1">
-        <v>3.6671185299999999E-4</v>
+        <v>1.5826215000000001E-2</v>
       </c>
       <c r="X2" s="1">
-        <v>7.2393263000000002E-4</v>
+        <v>1.20636571E-2</v>
       </c>
       <c r="Y2" s="1">
-        <v>1.9802564799999999E-4</v>
+        <v>1.8757551000000001E-2</v>
       </c>
       <c r="Z2" s="1">
-        <v>2.272946E-4</v>
+        <v>2.4455601600000001E-2</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.26245065499999998</v>
+        <v>1.1553381600000001E-2</v>
       </c>
       <c r="AB2" s="1">
-        <v>0.132606693</v>
+        <v>7.0506677900000004E-3</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.162832749</v>
+        <v>1.2074678E-2</v>
       </c>
       <c r="AD2" s="1">
-        <v>7.1558080199999997E-5</v>
+        <v>1.8819608500000001E-2</v>
       </c>
       <c r="AE2" s="1">
-        <v>2.8373049000000002E-5</v>
+        <v>2.9440972100000001E-3</v>
       </c>
       <c r="AF2" s="1">
-        <v>2.2791314400000001E-5</v>
+        <v>3.4321147799999999E-3</v>
       </c>
       <c r="AG2" s="1">
-        <v>1.67734744E-5</v>
+        <v>5.3064338699999999E-4</v>
       </c>
       <c r="AH2" s="1">
-        <v>6.09036798E-5</v>
+        <v>6.6078185100000002E-3</v>
       </c>
       <c r="AI2" s="1">
-        <v>1.15241431E-4</v>
+        <v>2.1383888300000001E-2</v>
       </c>
       <c r="AJ2" s="1">
-        <v>9.6296799599999996E-5</v>
+        <v>1.1879538E-2</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.8631844600000004E-5</v>
+        <v>4.5794539400000004E-3</v>
       </c>
       <c r="AL2" s="1">
-        <v>1.0176904800000001E-4</v>
+        <v>4.2988041200000002E-3</v>
       </c>
       <c r="AM2" s="1">
-        <v>3.6544163000000002E-4</v>
+        <v>1.9325936299999999E-2</v>
       </c>
       <c r="AN2" s="1">
-        <v>1.3685389499999999E-4</v>
+        <v>1.4422597800000001E-2</v>
       </c>
       <c r="AO2" s="1">
-        <v>1.2653776899999999E-4</v>
+        <v>3.2558153900000002E-3</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.88175435E-5</v>
+        <v>2.85742901E-2</v>
       </c>
       <c r="AQ2" s="1">
-        <v>2.4751457499999999E-5</v>
+        <v>3.5338394499999999E-3</v>
       </c>
       <c r="AR2" s="1">
-        <v>6.1483818800000005E-5</v>
+        <v>6.4394017399999996E-3</v>
       </c>
       <c r="AS2" s="1">
-        <v>6.1383286900000005E-5</v>
+        <v>6.5493793700000004E-3</v>
       </c>
       <c r="AT2" s="1">
-        <v>6.1783204199999996E-5</v>
+        <v>3.6327386599999999E-3</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.9919255899999997E-5</v>
+        <v>2.5420987200000002E-3</v>
       </c>
       <c r="AV2" s="1">
-        <v>2.0848744399999999E-5</v>
+        <v>5.6009470300000001E-3</v>
       </c>
       <c r="AW2" s="1">
-        <v>4.3773611300000002E-5</v>
+        <v>4.12321055E-3</v>
       </c>
       <c r="AX2" s="1">
-        <v>4.92007335E-5</v>
+        <v>5.3857450399999998E-3</v>
       </c>
       <c r="AY2" s="1">
-        <v>5.5665502800000003E-5</v>
+        <v>2.91751204E-3</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1.84230585E-5</v>
+        <v>1.56710392E-3</v>
       </c>
       <c r="BA2" s="1">
-        <v>3.3549694600000002E-5</v>
+        <v>2.1550414900000001E-3</v>
       </c>
       <c r="BB2" s="1">
-        <v>0.117340493</v>
+        <v>1.6445249299999999E-2</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.12772192800000001</v>
+        <v>6.2739103500000004E-2</v>
       </c>
       <c r="BD2" s="1">
-        <v>2.3042249099999999E-2</v>
+        <v>8.1122279500000002E-3</v>
       </c>
       <c r="BE2" s="1">
-        <v>6.2464194300000002E-5</v>
+        <v>1.1062789199999999E-2</v>
       </c>
       <c r="BF2" s="1">
-        <v>4.8358805299999997E-5</v>
+        <v>9.7167137800000004E-3</v>
       </c>
       <c r="BG2" s="1">
-        <v>4.7456839000000003E-5</v>
+        <v>7.4428997E-3</v>
       </c>
       <c r="BH2" s="1">
-        <v>5.0841156999999999E-5</v>
+        <v>7.2607542500000002E-3</v>
       </c>
       <c r="BI2" s="1">
-        <v>4.0578043400000001E-5</v>
+        <v>5.4257679200000004E-3</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.1799034899999997E-5</v>
+        <v>1.29081903E-2</v>
       </c>
       <c r="BK2" s="1">
-        <v>9.8218392599999996E-5</v>
+        <v>1.11576683E-2</v>
       </c>
       <c r="BL2" s="1">
-        <v>6.8870900599999994E-5</v>
+        <v>8.2916871699999992E-3</v>
       </c>
       <c r="BM2" s="1">
-        <v>7.7394809599999994E-5</v>
+        <v>9.9446641799999999E-3</v>
       </c>
       <c r="BN2" s="1">
-        <v>5.6536225299999999E-5</v>
+        <v>8.3742176800000005E-3</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.4846736299999997E-5</v>
+        <v>8.6156411100000007E-3</v>
       </c>
       <c r="BP2" s="1">
-        <v>5.5626664700000003E-5</v>
+        <v>1.03199963E-2</v>
       </c>
       <c r="BQ2" s="1">
-        <v>4.9991532600000001E-5</v>
+        <v>8.6318010399999996E-3</v>
       </c>
       <c r="BR2" s="1">
-        <v>3.8828314300000002E-5</v>
+        <v>8.61218253E-3</v>
       </c>
       <c r="BS2" s="1">
-        <v>2.2170823099999999E-5</v>
+        <v>4.7746699200000003E-3</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.5614182099999993E-5</v>
+        <v>1.29375866E-2</v>
       </c>
       <c r="BU2" s="1">
-        <v>6.9451634700000005E-5</v>
+        <v>1.95506729E-2</v>
       </c>
       <c r="BV2" s="1">
-        <v>5.9620771900000002E-5</v>
+        <v>9.6578771000000001E-3</v>
       </c>
       <c r="BW2" s="1">
-        <v>6.2991405300000003E-5</v>
+        <v>1.13898E-2</v>
       </c>
       <c r="BX2" s="1">
-        <v>4.9336844099999997E-5</v>
+        <v>8.1483840399999997E-3</v>
       </c>
     </row>
     <row r="3" spans="1:76" x14ac:dyDescent="0.3">
@@ -9011,10 +10164,10 @@
         <v>0.162771105</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
-        <v>0.162832749</v>
+        <v>5.68563505E-2</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -9032,10 +10185,10 @@
         <v>0.12775783499999999</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1">
-        <v>0.132606693</v>
+        <v>4.0322352300000003E-2</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -9053,10 +10206,10 @@
         <v>0.12070434200000001</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
-        <v>0.12772192800000001</v>
+        <v>3.35005741E-2</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -9074,10 +10227,10 @@
         <v>0.114430351</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1">
-        <v>0.117340493</v>
+        <v>2.85742901E-2</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -9095,10 +10248,10 @@
         <v>2.3173401199999999E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1">
-        <v>2.3042249099999999E-2</v>
+        <v>2.4455601600000001E-2</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -9116,10 +10269,10 @@
         <v>6.0513058899999998E-4</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1">
-        <v>1.03016424E-3</v>
+        <v>2.1383888300000001E-2</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -9137,10 +10290,10 @@
         <v>6.0028590800000005E-4</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1">
-        <v>9.4164185099999997E-4</v>
+        <v>1.95506729E-2</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -9158,10 +10311,10 @@
         <v>5.4352600000000001E-4</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>7.2393263000000002E-4</v>
+        <v>1.9325936299999999E-2</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -9179,10 +10332,10 @@
         <v>3.2923351200000002E-4</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1">
-        <v>6.1476497599999996E-4</v>
+        <v>1.8819608500000001E-2</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -9200,10 +10353,10 @@
         <v>2.95335305E-4</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1">
-        <v>3.6671185299999999E-4</v>
+        <v>1.8757551000000001E-2</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -9221,10 +10374,10 @@
         <v>2.0549797499999999E-4</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1">
-        <v>3.6544163000000002E-4</v>
+        <v>1.7387763099999998E-2</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -9242,10 +10395,10 @@
         <v>1.8891860499999999E-4</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1">
-        <v>2.272946E-4</v>
+        <v>1.6445249299999999E-2</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -9263,10 +10416,10 @@
         <v>1.6825190099999999E-4</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1">
-        <v>1.9802564799999999E-4</v>
+        <v>1.5826215000000001E-2</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -9284,10 +10437,10 @@
         <v>1.4648583399999999E-4</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1">
-        <v>1.7509510100000001E-4</v>
+        <v>1.5341451000000001E-2</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -9305,10 +10458,10 @@
         <v>1.3870296199999999E-4</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1">
-        <v>1.6605117000000001E-4</v>
+        <v>1.4422597800000001E-2</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -9326,10 +10479,10 @@
         <v>1.2250734300000001E-4</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1">
-        <v>1.3685389499999999E-4</v>
+        <v>1.29375866E-2</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -9347,10 +10500,10 @@
         <v>1.17786181E-4</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1">
-        <v>1.3552866599999999E-4</v>
+        <v>1.29081903E-2</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -9368,10 +10521,10 @@
         <v>1.10919163E-4</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F20" s="1">
-        <v>1.2653776899999999E-4</v>
+        <v>1.2671995599999999E-2</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -9389,10 +10542,10 @@
         <v>1.0861653499999999E-4</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1">
-        <v>1.15241431E-4</v>
+        <v>1.2074678E-2</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -9410,10 +10563,10 @@
         <v>1.08039009E-4</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="F22" s="1">
-        <v>1.10354249E-4</v>
+        <v>1.20636571E-2</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -9431,10 +10584,10 @@
         <v>1.02342424E-4</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1">
-        <v>1.03855265E-4</v>
+        <v>1.1879538E-2</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -9452,10 +10605,10 @@
         <v>9.3380065300000003E-5</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1">
-        <v>1.0176904800000001E-4</v>
+        <v>1.1553381600000001E-2</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -9473,10 +10626,10 @@
         <v>9.0011028699999994E-5</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F25" s="1">
-        <v>9.8218392599999996E-5</v>
+        <v>1.13898E-2</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -9494,10 +10647,10 @@
         <v>8.5312810399999994E-5</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F26" s="1">
-        <v>9.6296799599999996E-5</v>
+        <v>1.13727923E-2</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -9515,10 +10668,10 @@
         <v>8.3051561299999998E-5</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="1">
-        <v>9.1799034899999997E-5</v>
+        <v>1.11576683E-2</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -9536,10 +10689,10 @@
         <v>8.20017516E-5</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F28" s="1">
-        <v>8.8631844600000004E-5</v>
+        <v>1.1062789199999999E-2</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -9557,10 +10710,10 @@
         <v>8.0906302300000002E-5</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1">
-        <v>8.5614182099999993E-5</v>
+        <v>1.03199963E-2</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -9578,10 +10731,10 @@
         <v>7.83812684E-5</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F30" s="1">
-        <v>8.0885469599999995E-5</v>
+        <v>9.9446641799999999E-3</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -9599,10 +10752,10 @@
         <v>7.35169089E-5</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F31" s="1">
-        <v>7.7394809599999994E-5</v>
+        <v>9.7167137800000004E-3</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -9620,10 +10773,10 @@
         <v>6.9079728900000003E-5</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="F32" s="1">
-        <v>7.6279300300000001E-5</v>
+        <v>9.6578771000000001E-3</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -9641,10 +10794,10 @@
         <v>6.6486989800000005E-5</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1">
-        <v>7.1558080199999997E-5</v>
+        <v>8.7234240200000004E-3</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -9662,10 +10815,10 @@
         <v>6.3536800100000003E-5</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F34" s="1">
-        <v>6.9451634700000005E-5</v>
+        <v>8.6318010399999996E-3</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -9683,10 +10836,10 @@
         <v>6.1487819299999998E-5</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F35" s="1">
-        <v>6.8870900599999994E-5</v>
+        <v>8.6156411100000007E-3</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -9704,10 +10857,10 @@
         <v>6.0579933100000001E-5</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F36" s="1">
-        <v>6.4846736299999997E-5</v>
+        <v>8.61218253E-3</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -9725,10 +10878,10 @@
         <v>6.0480359499999997E-5</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F37" s="1">
-        <v>6.2991405300000003E-5</v>
+        <v>8.3742176800000005E-3</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -9746,10 +10899,10 @@
         <v>5.7479761600000001E-5</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F38" s="1">
-        <v>6.2464194300000002E-5</v>
+        <v>8.2916871699999992E-3</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -9767,10 +10920,10 @@
         <v>5.7157809400000001E-5</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F39" s="1">
-        <v>6.1783204199999996E-5</v>
+        <v>8.1483840399999997E-3</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -9788,10 +10941,10 @@
         <v>5.6675246999999998E-5</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F40" s="1">
-        <v>6.1483818800000005E-5</v>
+        <v>8.1122279500000002E-3</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -9809,10 +10962,10 @@
         <v>5.59872968E-5</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F41" s="1">
-        <v>6.1383286900000005E-5</v>
+        <v>7.9079522999999999E-3</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -9830,10 +10983,10 @@
         <v>5.5808174999999997E-5</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F42" s="1">
-        <v>6.09036798E-5</v>
+        <v>7.4428997E-3</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -9851,10 +11004,10 @@
         <v>5.5713743799999999E-5</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F43" s="1">
-        <v>5.9620771900000002E-5</v>
+        <v>7.2607542500000002E-3</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -9872,10 +11025,10 @@
         <v>5.5600129800000002E-5</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F44" s="1">
-        <v>5.6644420699999999E-5</v>
+        <v>7.0506677900000004E-3</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -9893,10 +11046,10 @@
         <v>5.3687147399999998E-5</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F45" s="1">
-        <v>5.6536225299999999E-5</v>
+        <v>6.6078185100000002E-3</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -9914,10 +11067,10 @@
         <v>5.2301202200000002E-5</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F46" s="1">
-        <v>5.5665502800000003E-5</v>
+        <v>6.5493793700000004E-3</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -9935,10 +11088,10 @@
         <v>5.1137526999999997E-5</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F47" s="1">
-        <v>5.5626664700000003E-5</v>
+        <v>6.4394017399999996E-3</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -9956,10 +11109,10 @@
         <v>4.9284146799999997E-5</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F48" s="1">
-        <v>5.0841156999999999E-5</v>
+        <v>5.6009470300000001E-3</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -9977,10 +11130,10 @@
         <v>4.82633438E-5</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F49" s="1">
-        <v>4.9991532600000001E-5</v>
+        <v>5.4257679200000004E-3</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -9998,10 +11151,10 @@
         <v>4.70544796E-5</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F50" s="1">
-        <v>4.9336844099999997E-5</v>
+        <v>5.3857450399999998E-3</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -10019,10 +11172,10 @@
         <v>4.6688983E-5</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F51" s="1">
-        <v>4.92007335E-5</v>
+        <v>4.8479553199999997E-3</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -10040,10 +11193,10 @@
         <v>4.6328468499999999E-5</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F52" s="1">
-        <v>4.88175435E-5</v>
+        <v>4.7746699200000003E-3</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -10061,10 +11214,10 @@
         <v>4.4265511700000003E-5</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F53" s="1">
-        <v>4.8358805299999997E-5</v>
+        <v>4.5794539400000004E-3</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -10082,10 +11235,10 @@
         <v>4.3532468999999999E-5</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F54" s="1">
-        <v>4.7456839000000003E-5</v>
+        <v>4.2988041200000002E-3</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -10106,7 +11259,7 @@
         <v>46</v>
       </c>
       <c r="F55" s="1">
-        <v>4.3773611300000002E-5</v>
+        <v>4.12321055E-3</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -10124,10 +11277,10 @@
         <v>3.7944449699999997E-5</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F56" s="1">
-        <v>4.0578043400000001E-5</v>
+        <v>3.6327386599999999E-3</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -10145,10 +11298,10 @@
         <v>3.7429067E-5</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F57" s="1">
-        <v>3.9919255899999997E-5</v>
+        <v>3.5338394499999999E-3</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -10166,10 +11319,10 @@
         <v>3.1804179200000002E-5</v>
       </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="F58" s="1">
-        <v>3.8828314300000002E-5</v>
+        <v>3.4321147799999999E-3</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -10187,10 +11340,10 @@
         <v>2.9836405000000002E-5</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F59" s="1">
-        <v>3.3549694600000002E-5</v>
+        <v>3.30297449E-3</v>
       </c>
       <c r="G59" s="1"/>
     </row>
@@ -10208,10 +11361,10 @@
         <v>2.4399308299999999E-5</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F60" s="1">
-        <v>3.0230107999999999E-5</v>
+        <v>3.2558153900000002E-3</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -10229,10 +11382,10 @@
         <v>2.35950108E-5</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F61" s="1">
-        <v>2.8373049000000002E-5</v>
+        <v>3.1657826199999999E-3</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -10250,10 +11403,10 @@
         <v>2.3034595299999999E-5</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F62" s="1">
-        <v>2.4751457499999999E-5</v>
+        <v>2.9440972100000001E-3</v>
       </c>
       <c r="G62" s="1"/>
     </row>
@@ -10271,10 +11424,10 @@
         <v>2.2832092500000001E-5</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F63" s="1">
-        <v>2.2791314400000001E-5</v>
+        <v>2.91751204E-3</v>
       </c>
       <c r="G63" s="1"/>
     </row>
@@ -10292,10 +11445,10 @@
         <v>1.8515246299999999E-5</v>
       </c>
       <c r="E64" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F64" s="1">
-        <v>2.2170823099999999E-5</v>
+        <v>2.5420987200000002E-3</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -10313,10 +11466,10 @@
         <v>1.7227976199999999E-5</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F65" s="1">
-        <v>2.1151625000000001E-5</v>
+        <v>2.1550414900000001E-3</v>
       </c>
       <c r="G65" s="1"/>
     </row>
@@ -10334,10 +11487,10 @@
         <v>1.6698310500000001E-5</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F66" s="1">
-        <v>2.0848744399999999E-5</v>
+        <v>1.56710392E-3</v>
       </c>
       <c r="G66" s="1"/>
     </row>
@@ -10349,10 +11502,10 @@
         <v>1.5701056299999999E-5</v>
       </c>
       <c r="E67" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F67" s="1">
-        <v>1.84230585E-5</v>
+        <v>5.3064338699999999E-4</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -10363,10 +11516,10 @@
         <v>1.5588980600000001E-5</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F68" s="1">
-        <v>1.67734744E-5</v>
+        <v>5.8890088800000001E-5</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -10377,10 +11530,10 @@
         <v>9.9243465900000007E-7</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1">
-        <v>9.8663581700000002E-7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10392,7 +11545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>

--- a/result/201612.xlsx
+++ b/result/201612.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\kra\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10992" yWindow="120" windowWidth="11652" windowHeight="6036" activeTab="5"/>
+    <workbookView xWindow="12780" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="5" r:id="rId1"/>
-    <sheet name="4" sheetId="8" r:id="rId2"/>
-    <sheet name="10" sheetId="11" r:id="rId3"/>
-    <sheet name="11" sheetId="12" r:id="rId4"/>
-    <sheet name="17" sheetId="13" r:id="rId5"/>
-    <sheet name="18" sheetId="14" r:id="rId6"/>
-    <sheet name="feature_importance" sheetId="6" r:id="rId7"/>
-    <sheet name="20151205" sheetId="7" r:id="rId8"/>
+    <sheet name="3_" sheetId="15" r:id="rId2"/>
+    <sheet name="4" sheetId="8" r:id="rId3"/>
+    <sheet name="10" sheetId="11" r:id="rId4"/>
+    <sheet name="11" sheetId="12" r:id="rId5"/>
+    <sheet name="17" sheetId="13" r:id="rId6"/>
+    <sheet name="18" sheetId="14" r:id="rId7"/>
+    <sheet name="feature_importance" sheetId="6" r:id="rId8"/>
+    <sheet name="20151205" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="87">
   <si>
     <t>seoul</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +279,34 @@
     <t>ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ss1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -390,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,7 +459,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,23 +675,23 @@
       <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
-    <col min="9" max="9" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.59765625" customWidth="1"/>
+    <col min="14" max="14" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +713,7 @@
         <v>-51.341666666666669</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -719,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>4</v>
       </c>
@@ -753,7 +787,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>12</v>
       </c>
@@ -787,7 +821,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>7</v>
       </c>
@@ -815,7 +849,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>9</v>
       </c>
@@ -843,7 +877,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -865,7 +899,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -905,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -939,7 +973,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5</v>
       </c>
@@ -973,7 +1007,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -1001,7 +1035,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>4</v>
       </c>
@@ -1029,7 +1063,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -1051,7 +1085,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1091,7 +1125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>6</v>
       </c>
@@ -1125,7 +1159,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>7</v>
       </c>
@@ -1159,7 +1193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>4</v>
       </c>
@@ -1187,7 +1221,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>3</v>
       </c>
@@ -1215,7 +1249,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -1237,7 +1271,7 @@
         <v>27.458333333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1277,7 +1311,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>7</v>
       </c>
@@ -1311,7 +1345,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
@@ -1345,7 +1379,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>8</v>
       </c>
@@ -1373,7 +1407,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>10</v>
       </c>
@@ -1401,7 +1435,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -1423,7 +1457,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1463,7 +1497,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>2</v>
       </c>
@@ -1497,7 +1531,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>3</v>
       </c>
@@ -1531,7 +1565,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>5</v>
       </c>
@@ -1559,7 +1593,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>7</v>
       </c>
@@ -1587,7 +1621,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -1609,7 +1643,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -1649,7 +1683,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>10</v>
       </c>
@@ -1683,7 +1717,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>4</v>
       </c>
@@ -1717,7 +1751,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>5</v>
       </c>
@@ -1745,7 +1779,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
@@ -1773,7 +1807,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -1795,7 +1829,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1835,7 +1869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>9</v>
       </c>
@@ -1869,7 +1903,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>4</v>
       </c>
@@ -1903,7 +1937,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>3</v>
       </c>
@@ -1931,7 +1965,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>5</v>
       </c>
@@ -1959,7 +1993,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +2015,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -2021,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>3</v>
       </c>
@@ -2055,7 +2089,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>4</v>
       </c>
@@ -2089,7 +2123,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>6</v>
       </c>
@@ -2117,7 +2151,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>2</v>
       </c>
@@ -2145,7 +2179,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -2167,7 +2201,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -2207,7 +2241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>1</v>
       </c>
@@ -2241,7 +2275,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>6</v>
       </c>
@@ -2275,7 +2309,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>2</v>
       </c>
@@ -2303,7 +2337,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>8</v>
       </c>
@@ -2331,7 +2365,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -2353,7 +2387,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -2393,7 +2427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>6</v>
       </c>
@@ -2427,7 +2461,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>1</v>
       </c>
@@ -2461,7 +2495,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>2</v>
       </c>
@@ -2489,7 +2523,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>3</v>
       </c>
@@ -2517,7 +2551,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -2539,7 +2573,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -2579,7 +2613,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>4</v>
       </c>
@@ -2613,7 +2647,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>5</v>
       </c>
@@ -2647,7 +2681,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>2</v>
       </c>
@@ -2675,7 +2709,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>10</v>
       </c>
@@ -2703,7 +2737,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -2725,7 +2759,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -2765,7 +2799,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>10</v>
       </c>
@@ -2799,7 +2833,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>12</v>
       </c>
@@ -2833,7 +2867,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>8</v>
       </c>
@@ -2861,7 +2895,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>9</v>
       </c>
@@ -2889,7 +2923,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>6</v>
       </c>
@@ -2919,24 +2953,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2944,1096 +2984,1195 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <f>SUM(F2:F300)</f>
-        <v>-458</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <f>SUM(F2:F300)/7</f>
+        <v>-53.116883116883123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
       <c r="C2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <f>E2*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>11</v>
-      </c>
+        <f>E2*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H2">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <f>E3*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>10</v>
-      </c>
+        <f>E3*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <f>E4*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>3</v>
-      </c>
+        <f>E4*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <f>E5*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>4</v>
-      </c>
+        <f>E5*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <f>E6*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <f>E6*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <f>E7*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <f>E7*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>E8*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
       <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9" si="0">E9*10/55-10</f>
+        <v>-3.6363636363636367</v>
+      </c>
+      <c r="H9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F12" si="1">E10*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="2">E13*10/48-10</f>
+        <v>-2.708333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="3">E14*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15" si="4">E15*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="5">E16*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F19" si="6">E17*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="7">E20*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="8">E21*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22" si="9">E22*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23" si="10">E23*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H23">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F26" si="11">E24*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27" si="12">E27*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28" si="13">E28*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29" si="14">E29*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30" si="15">E30*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H30">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F33" si="16">E31*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34" si="17">E34*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35" si="18">E35*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36" si="19">E36*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37">
+        <v>376</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37" si="20">E37*10/55-10</f>
+        <v>58.36363636363636</v>
+      </c>
+      <c r="H37">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F40" si="21">E38*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C39">
         <v>7</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>E9*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>E10*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f>E11*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>E12*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f>E13*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f>E14*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f>E16*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f>E17*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f>E18*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <f>E19*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <f>E20*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <f>E21*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f>E23*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f>E24*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B25">
-        <v>11</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f>E25*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f>E26*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f>E27*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <f>E28*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f>E30*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B31">
-        <v>7</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f>E31*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f>E32*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f>E33*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <f>E34*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f>E35*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f>E37*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f>E38*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39">
-        <v>11</v>
-      </c>
       <c r="D39" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <f>E39*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B40">
-        <v>9</v>
-      </c>
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <f>E40*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B41">
-        <v>1</v>
-      </c>
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="F41">
-        <f>E41*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F41" si="22">E41*10/48-10</f>
+        <v>68.333333333333329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <f>E42*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F42" si="23">E42*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43" si="24">E43*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>9</v>
       </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="F44">
-        <f>E44*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B45">
-        <v>10</v>
-      </c>
+        <f t="shared" ref="F44" si="25">E44*10/55-10</f>
+        <v>50.18181818181818</v>
+      </c>
+      <c r="H44">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <f>E45*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B46">
-        <v>4</v>
-      </c>
+        <f t="shared" ref="F45:F47" si="26">E45*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <f>E46*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B47">
-        <v>5</v>
-      </c>
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <f>E47*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B48">
-        <v>7</v>
-      </c>
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="F48">
-        <f>E48*10/10-10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F48" si="27">E48*10/48-10</f>
+        <v>58.958333333333329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <f>E49*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F49" si="28">E49*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50" si="29">E50*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
-      <c r="B51">
-        <v>12</v>
-      </c>
       <c r="C51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E51">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <f>E51*10-10</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B52">
-        <v>2</v>
-      </c>
+        <f t="shared" ref="F51" si="30">E51*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H51">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <f>E52*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B53">
-        <v>1</v>
-      </c>
+        <f t="shared" ref="F52:F54" si="31">E52*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C53">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <f>E53*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B54">
-        <v>7</v>
-      </c>
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <f>E54*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B55">
-        <v>4</v>
-      </c>
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E55">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <f>E55*10/10-10</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F55" si="32">E55*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E56">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <f>E56*10/24-10</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F56" si="33">E56*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57" si="34">E57*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>7</v>
       </c>
-      <c r="C58">
-        <v>8</v>
-      </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="F58">
-        <f>E58*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B59">
-        <v>2</v>
-      </c>
+        <f t="shared" ref="F58" si="35">E58*10/55-10</f>
+        <v>66.545454545454547</v>
+      </c>
+      <c r="H58">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <f>E59*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B60">
-        <v>16</v>
-      </c>
+        <f t="shared" ref="F59:F61" si="36">E59*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C60">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <f>E60*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B61">
-        <v>12</v>
-      </c>
+        <f t="shared" si="36"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <f>E61*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B62">
-        <v>3</v>
-      </c>
+        <f t="shared" si="36"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="F62">
-        <f>E62*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F62" si="37">E62*10/48-10</f>
+        <v>77.708333333333329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <f>E63*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F63" si="38">E63*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="F64" si="39">E64*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
       <c r="C65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65">
+        <v>37</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65" si="40">E65*10/55-10</f>
+        <v>-3.2727272727272725</v>
+      </c>
+      <c r="H65">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:F68" si="41">E66*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C67">
         <v>7</v>
       </c>
-      <c r="E65">
-        <v>6.5</v>
-      </c>
-      <c r="F65">
-        <f>E65*10-10</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B66">
-        <v>4</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <f>E66*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B67">
-        <v>6</v>
-      </c>
-      <c r="C67">
-        <v>6</v>
-      </c>
       <c r="D67" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <f>E67*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B68">
-        <v>5</v>
-      </c>
+        <f t="shared" si="41"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <f>E68*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B69">
-        <v>3</v>
-      </c>
+        <f t="shared" si="41"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E69">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F69">
-        <f>E69*10/10-10</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F69" si="42">E69*10/48-10</f>
+        <v>-2.291666666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <f>E70*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F70" si="43">E70*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71" si="44">E71*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72" si="45">E72*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H72">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73:F75" si="46">E73*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C74">
         <v>7</v>
       </c>
-      <c r="E72">
-        <v>2.4</v>
-      </c>
-      <c r="F72">
-        <f>E72*10-10</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B73">
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="46"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="46"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ref="F76" si="47">E76*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77" si="48">E77*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ref="F78" si="49">E78*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>80</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ref="F79" si="50">E79*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H79">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C80">
         <v>9</v>
       </c>
-      <c r="C73">
-        <v>4</v>
-      </c>
-      <c r="D73" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <f>E73*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B74">
+      <c r="D80" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ref="F80:F82" si="51">E80*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C81">
         <v>12</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <f>E74*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B75">
-        <v>6</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <f>E75*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B76">
-        <v>2</v>
-      </c>
-      <c r="D76" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <f>E76*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D77" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <f>E77*10/24-10</f>
+      <c r="D81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="51"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="51"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ref="F83" si="52">E83*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ref="F84" si="53">E84*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ref="F85" si="54">E85*10-10</f>
         <v>-10</v>
       </c>
     </row>
@@ -4045,6 +4184,1132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <f>SUM(F2:F300)</f>
+        <v>-458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>E2*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>E3*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>E4*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>E5*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>E6*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>E7*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>E9*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>E10*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>E11*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>E12*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>E13*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>E14*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>E16*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>E17*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>E18*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>E19*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>E20*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>E21*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>E23*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>E24*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>E25*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>E26*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>E27*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>E28*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>E30*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>E31*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>E32*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>E33*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>E34*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>E35*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>E37*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>E38*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>E39*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>E40*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>E41*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>E42*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>E44*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>E45*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>E46*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>E47*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <f>E48*10/10-10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>E49*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>1.2</v>
+      </c>
+      <c r="F51">
+        <f>E51*10-10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>E52*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>E53*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>E54*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <f>E55*10/10-10</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>84</v>
+      </c>
+      <c r="F56">
+        <f>E56*10/24-10</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>E58*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>E59*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>E60*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>E61*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>E62*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>E63*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>6.5</v>
+      </c>
+      <c r="F65">
+        <f>E65*10-10</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>E66*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>E67*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>E68*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>38</v>
+      </c>
+      <c r="F69">
+        <f>E69*10/10-10</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>E70*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>2.4</v>
+      </c>
+      <c r="F72">
+        <f>E72*10-10</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>E73*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>E74*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f>E75*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f>E76*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f>E77*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4052,35 +5317,35 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
-    <col min="8" max="8" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.5" customWidth="1"/>
-    <col min="11" max="11" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.59765625" customWidth="1"/>
-    <col min="15" max="15" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1"/>
+    <col min="15" max="15" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.5" customWidth="1"/>
-    <col min="18" max="18" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.59765625" customWidth="1"/>
-    <col min="22" max="22" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.625" customWidth="1"/>
+    <col min="22" max="22" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.75" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3.5" customWidth="1"/>
-    <col min="25" max="25" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.25" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.59765625" customWidth="1"/>
+    <col min="27" max="27" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4122,7 +5387,7 @@
         <v>-365.47826086956525</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4216,7 +5481,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>8</v>
       </c>
@@ -4298,7 +5563,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10</v>
       </c>
@@ -4380,7 +5645,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6</v>
       </c>
@@ -4450,7 +5715,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>9</v>
       </c>
@@ -4520,7 +5785,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -4578,7 +5843,7 @@
         <v>-93.478260869565219</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4656,7 +5921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5</v>
       </c>
@@ -4722,7 +5987,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -4788,7 +6053,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3</v>
       </c>
@@ -4842,7 +6107,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -4896,7 +6161,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -4938,7 +6203,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5016,7 +6281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>4</v>
       </c>
@@ -5082,7 +6347,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1</v>
       </c>
@@ -5148,7 +6413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>8</v>
       </c>
@@ -5202,7 +6467,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
@@ -5256,7 +6521,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -5298,7 +6563,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -5376,7 +6641,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>8</v>
       </c>
@@ -5442,7 +6707,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2</v>
       </c>
@@ -5508,7 +6773,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>5</v>
       </c>
@@ -5562,7 +6827,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>4</v>
       </c>
@@ -5616,7 +6881,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -5658,7 +6923,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5736,7 +7001,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>6</v>
       </c>
@@ -5802,7 +7067,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>10</v>
       </c>
@@ -5868,7 +7133,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>9</v>
       </c>
@@ -5922,7 +7187,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>4</v>
       </c>
@@ -5976,7 +7241,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -6018,7 +7283,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -6096,7 +7361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>2</v>
       </c>
@@ -6162,7 +7427,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>10</v>
       </c>
@@ -6228,7 +7493,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>1</v>
       </c>
@@ -6282,7 +7547,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>4</v>
       </c>
@@ -6336,7 +7601,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -6378,7 +7643,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -6456,7 +7721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>7</v>
       </c>
@@ -6522,7 +7787,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>1</v>
       </c>
@@ -6588,7 +7853,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>6</v>
       </c>
@@ -6642,7 +7907,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>5</v>
       </c>
@@ -6696,7 +7961,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -6738,7 +8003,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -6816,7 +8081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>5</v>
       </c>
@@ -6882,7 +8147,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>4</v>
       </c>
@@ -6948,7 +8213,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>10</v>
       </c>
@@ -7002,7 +8267,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>11</v>
       </c>
@@ -7056,7 +8321,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -7098,7 +8363,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -7176,7 +8441,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>6</v>
       </c>
@@ -7242,7 +8507,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>4</v>
       </c>
@@ -7308,7 +8573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>3</v>
       </c>
@@ -7362,7 +8627,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>9</v>
       </c>
@@ -7416,7 +8681,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -7458,7 +8723,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -7536,7 +8801,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>5</v>
       </c>
@@ -7602,7 +8867,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>4</v>
       </c>
@@ -7668,7 +8933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>7</v>
       </c>
@@ -7722,7 +8987,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>3</v>
       </c>
@@ -7776,7 +9041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -7818,7 +9083,7 @@
         <v>16.521739130434781</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -7896,7 +9161,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>2</v>
       </c>
@@ -7962,7 +9227,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>7</v>
       </c>
@@ -8028,7 +9293,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>1</v>
       </c>
@@ -8082,7 +9347,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>6</v>
       </c>
@@ -8136,7 +9401,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -8178,7 +9443,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -8256,7 +9521,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>6</v>
       </c>
@@ -8322,7 +9587,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>3</v>
       </c>
@@ -8388,7 +9653,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>12</v>
       </c>
@@ -8442,7 +9707,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>9</v>
       </c>
@@ -8496,7 +9761,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:27" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>6</v>
       </c>
@@ -8545,7 +9810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
@@ -8553,18 +9818,18 @@
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" customWidth="1"/>
-    <col min="3" max="3" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -8576,7 +9841,7 @@
         <v>-626.20000000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8604,7 +9869,7 @@
         <v>-89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -8629,7 +9894,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>11</v>
       </c>
@@ -8654,7 +9919,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6</v>
       </c>
@@ -8676,7 +9941,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -8698,7 +9963,7 @@
         <v>-97.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>6</v>
       </c>
@@ -8714,7 +9979,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8738,7 +10003,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5</v>
       </c>
@@ -8759,7 +10024,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3</v>
       </c>
@@ -8780,7 +10045,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -8798,7 +10063,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>7</v>
       </c>
@@ -8816,7 +10081,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>6</v>
       </c>
@@ -8828,7 +10093,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8852,7 +10117,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>6</v>
       </c>
@@ -8873,7 +10138,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>9</v>
       </c>
@@ -8894,7 +10159,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>5</v>
       </c>
@@ -8912,7 +10177,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>4</v>
       </c>
@@ -8930,7 +10195,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>6</v>
       </c>
@@ -8942,7 +10207,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -8966,7 +10231,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>10</v>
       </c>
@@ -8987,7 +10252,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>9</v>
       </c>
@@ -9008,7 +10273,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>7</v>
       </c>
@@ -9026,7 +10291,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>2</v>
       </c>
@@ -9044,7 +10309,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>6</v>
       </c>
@@ -9056,7 +10321,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -9074,7 +10339,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>7</v>
       </c>
@@ -9089,7 +10354,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>10</v>
       </c>
@@ -9104,7 +10369,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>3</v>
       </c>
@@ -9119,7 +10384,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>9</v>
       </c>
@@ -9134,7 +10399,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>6</v>
       </c>
@@ -9146,7 +10411,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -9164,7 +10429,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>7</v>
       </c>
@@ -9179,7 +10444,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>10</v>
       </c>
@@ -9194,7 +10459,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>3</v>
       </c>
@@ -9209,7 +10474,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>9</v>
       </c>
@@ -9224,7 +10489,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>6</v>
       </c>
@@ -9236,7 +10501,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -9254,7 +10519,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>11</v>
       </c>
@@ -9269,7 +10534,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>4</v>
       </c>
@@ -9284,7 +10549,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>9</v>
       </c>
@@ -9299,7 +10564,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>6</v>
       </c>
@@ -9314,7 +10579,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>6</v>
       </c>
@@ -9326,7 +10591,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -9344,7 +10609,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>9</v>
       </c>
@@ -9359,7 +10624,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>2</v>
       </c>
@@ -9374,7 +10639,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>3</v>
       </c>
@@ -9389,7 +10654,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>7</v>
       </c>
@@ -9404,7 +10669,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>6</v>
       </c>
@@ -9416,7 +10681,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -9434,7 +10699,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>11</v>
       </c>
@@ -9449,7 +10714,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>8</v>
       </c>
@@ -9464,7 +10729,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>2</v>
       </c>
@@ -9479,7 +10744,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>6</v>
       </c>
@@ -9494,7 +10759,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
         <v>6</v>
       </c>
@@ -9506,7 +10771,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -9524,7 +10789,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>4</v>
       </c>
@@ -9539,7 +10804,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>2</v>
       </c>
@@ -9554,7 +10819,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>5</v>
       </c>
@@ -9569,7 +10834,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>7</v>
       </c>
@@ -9584,7 +10849,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E70" t="s">
         <v>6</v>
       </c>
@@ -9596,7 +10861,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -9614,7 +10879,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C73">
         <v>10</v>
       </c>
@@ -9629,7 +10894,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C74">
         <v>8</v>
       </c>
@@ -9644,7 +10909,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C75">
         <v>12</v>
       </c>
@@ -9659,7 +10924,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C76">
         <v>2</v>
       </c>
@@ -9674,7 +10939,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E77" t="s">
         <v>6</v>
       </c>
@@ -9692,7 +10957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
@@ -9703,18 +10968,18 @@
       <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.69921875" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9726,7 +10991,7 @@
         <v>-214.87272727272727</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9750,7 +11015,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>5</v>
       </c>
@@ -9775,7 +11040,7 @@
         <v>-114.87272727272727</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -9786,7 +11051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6</v>
       </c>
@@ -9794,7 +11059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>11</v>
       </c>
@@ -9802,7 +11067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -9810,7 +11075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -9834,7 +11099,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
@@ -9855,7 +11120,7 @@
         <v>-4.872727272727273</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -9866,7 +11131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3</v>
       </c>
@@ -9874,7 +11139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>6</v>
       </c>
@@ -9882,7 +11147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -9890,7 +11155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -9914,7 +11179,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>4</v>
       </c>
@@ -9935,7 +11200,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>8</v>
       </c>
@@ -9946,7 +11211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>10</v>
       </c>
@@ -9954,7 +11219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>5</v>
       </c>
@@ -9962,7 +11227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>3</v>
       </c>
@@ -9970,7 +11235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -9990,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
@@ -10011,7 +11276,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>6</v>
       </c>
@@ -10022,7 +11287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>4</v>
       </c>
@@ -10030,7 +11295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>9</v>
       </c>
@@ -10038,7 +11303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>10</v>
       </c>
@@ -10046,7 +11311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -10070,7 +11335,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>8</v>
       </c>
@@ -10091,7 +11356,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1</v>
       </c>
@@ -10102,7 +11367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>6</v>
       </c>
@@ -10110,7 +11375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>3</v>
       </c>
@@ -10118,7 +11383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>9</v>
       </c>
@@ -10126,7 +11391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -10150,7 +11415,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>3</v>
       </c>
@@ -10171,7 +11436,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>2</v>
       </c>
@@ -10182,7 +11447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>5</v>
       </c>
@@ -10190,7 +11455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>6</v>
       </c>
@@ -10198,7 +11463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>9</v>
       </c>
@@ -10206,7 +11471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -10230,7 +11495,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>2</v>
       </c>
@@ -10251,7 +11516,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>11</v>
       </c>
@@ -10262,7 +11527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>10</v>
       </c>
@@ -10270,7 +11535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>6</v>
       </c>
@@ -10278,7 +11543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>9</v>
       </c>
@@ -10286,7 +11551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -10307,7 +11572,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>11</v>
       </c>
@@ -10325,7 +11590,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>9</v>
       </c>
@@ -10333,7 +11598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>10</v>
       </c>
@@ -10341,7 +11606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>7</v>
       </c>
@@ -10349,7 +11614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>4</v>
       </c>
@@ -10357,7 +11622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -10381,7 +11646,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>4</v>
       </c>
@@ -10402,7 +11667,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>5</v>
       </c>
@@ -10413,7 +11678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>7</v>
       </c>
@@ -10421,7 +11686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>8</v>
       </c>
@@ -10429,7 +11694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>10</v>
       </c>
@@ -10437,7 +11702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -10461,7 +11726,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>10</v>
       </c>
@@ -10482,7 +11747,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>12</v>
       </c>
@@ -10493,7 +11758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>5</v>
       </c>
@@ -10501,7 +11766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>8</v>
       </c>
@@ -10509,7 +11774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>3</v>
       </c>
@@ -10517,7 +11782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -10541,7 +11806,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>11</v>
       </c>
@@ -10562,7 +11827,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>10</v>
       </c>
@@ -10573,7 +11838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>6</v>
       </c>
@@ -10581,7 +11846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>9</v>
       </c>
@@ -10589,7 +11854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>3</v>
       </c>
@@ -10597,7 +11862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -10621,7 +11886,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>12</v>
       </c>
@@ -10642,7 +11907,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>5</v>
       </c>
@@ -10653,7 +11918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>11</v>
       </c>
@@ -10661,7 +11926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>8</v>
       </c>
@@ -10669,974 +11934,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>7</v>
       </c>
       <c r="C84">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J58" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.69921875" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.59765625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2">
-        <f>SUM(I2:I300)</f>
-        <v>-212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <f t="shared" ref="I2" si="0">H2*10/10-10</f>
-        <v>-10</v>
-      </c>
-      <c r="J2" s="2">
-        <f>I2+I9+I16+I23+I30+I37+I44+I51+I58+I65+I72+I79</f>
-        <v>-110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <f>H3*10/23-10</f>
-        <v>-10</v>
-      </c>
-      <c r="J3" s="2">
-        <f>I3+I10+I17+I24+I31+I38+I45+I52+I59+I66+I73+I80</f>
-        <v>-102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" ref="I9" si="1">H9*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <f>H10*10/55-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" ref="I16" si="2">H16*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B17">
-        <v>11</v>
-      </c>
-      <c r="F17">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17">
-        <v>40</v>
-      </c>
-      <c r="I17" s="2">
-        <f>H17*10/50-10</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" ref="I23" si="3">H23*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B24">
-        <v>11</v>
-      </c>
-      <c r="F24">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" ref="I24" si="4">H24*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>9</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" ref="I30" si="5">H30*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>7</v>
-      </c>
-      <c r="G31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" ref="I31" si="6">H31*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B35">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>8</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <f>H37*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="D38">
-        <v>12</v>
-      </c>
-      <c r="E38">
-        <v>12</v>
-      </c>
-      <c r="F38">
-        <v>4</v>
-      </c>
-      <c r="G38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" ref="I38" si="7">H38*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B39">
-        <v>12</v>
-      </c>
-      <c r="C39">
-        <v>12</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>7</v>
-      </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>9</v>
-      </c>
-      <c r="D40">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>7</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44">
-        <v>7</v>
-      </c>
-      <c r="F44">
-        <v>7</v>
-      </c>
-      <c r="G44" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" ref="I44" si="8">H44*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B45">
-        <v>6</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>7</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="F45">
-        <v>6</v>
-      </c>
-      <c r="G45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" ref="I45" si="9">H45*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46">
-        <v>11</v>
-      </c>
-      <c r="D46">
-        <v>9</v>
-      </c>
-      <c r="E46">
-        <v>10</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B47">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-      <c r="D47">
-        <v>10</v>
-      </c>
-      <c r="E47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B48">
-        <v>7</v>
-      </c>
-      <c r="C48">
-        <v>9</v>
-      </c>
-      <c r="D48">
-        <v>6</v>
-      </c>
-      <c r="E48">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B49">
-        <v>9</v>
-      </c>
-      <c r="C49">
-        <v>7</v>
-      </c>
-      <c r="D49">
-        <v>11</v>
-      </c>
-      <c r="E49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <v>12</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51">
-        <v>5</v>
-      </c>
-      <c r="F51">
-        <v>6</v>
-      </c>
-      <c r="G51" t="s">
-        <v>5</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <f t="shared" ref="I51" si="10">H51*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B52">
-        <v>5</v>
-      </c>
-      <c r="C52">
-        <v>10</v>
-      </c>
-      <c r="D52">
-        <v>10</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2">
-        <f t="shared" ref="I52" si="11">H52*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B53">
-        <v>11</v>
-      </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>6</v>
-      </c>
-      <c r="F53">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>12</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B55">
-        <v>6</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-      <c r="D55">
-        <v>9</v>
-      </c>
-      <c r="E55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56">
-        <v>8</v>
-      </c>
-      <c r="E56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58">
-        <v>9</v>
-      </c>
-      <c r="G58" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
-        <f t="shared" ref="I58" si="12">H58*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G59" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
-        <f t="shared" ref="I59" si="13">H59*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65">
-        <v>10</v>
-      </c>
-      <c r="B65">
-        <v>11</v>
-      </c>
-      <c r="C65">
-        <v>6</v>
-      </c>
-      <c r="D65">
-        <v>6</v>
-      </c>
-      <c r="E65">
-        <v>6</v>
-      </c>
-      <c r="F65">
-        <v>9</v>
-      </c>
-      <c r="G65" t="s">
-        <v>5</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2">
-        <f t="shared" ref="I65" si="14">H65*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B66">
-        <v>2</v>
-      </c>
-      <c r="C66">
-        <v>11</v>
-      </c>
-      <c r="D66">
-        <v>11</v>
-      </c>
-      <c r="E66">
-        <v>5</v>
-      </c>
-      <c r="F66">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2">
-        <f t="shared" ref="I66" si="15">H66*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B67">
-        <v>9</v>
-      </c>
-      <c r="C67">
-        <v>9</v>
-      </c>
-      <c r="D67">
-        <v>5</v>
-      </c>
-      <c r="E67">
-        <v>11</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B68">
-        <v>6</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B69">
-        <v>8</v>
-      </c>
-      <c r="C69">
-        <v>5</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B70">
-        <v>3</v>
-      </c>
-      <c r="C70">
-        <v>8</v>
-      </c>
-      <c r="D70">
-        <v>9</v>
-      </c>
-      <c r="E70">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72">
-        <v>11</v>
-      </c>
-      <c r="B72">
-        <v>6</v>
-      </c>
-      <c r="C72">
-        <v>6</v>
-      </c>
-      <c r="D72">
-        <v>12</v>
-      </c>
-      <c r="E72">
-        <v>4</v>
-      </c>
-      <c r="G72" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72" s="2">
-        <f t="shared" ref="I72" si="16">H72*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B73">
-        <v>10</v>
-      </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-      <c r="E73">
-        <v>6</v>
-      </c>
-      <c r="G73" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2">
-        <f t="shared" ref="I73" si="17">H73*10/23-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B74">
-        <v>5</v>
-      </c>
-      <c r="C74">
-        <v>9</v>
-      </c>
-      <c r="D74">
-        <v>9</v>
-      </c>
-      <c r="E74">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B75">
-        <v>3</v>
-      </c>
-      <c r="C75">
-        <v>10</v>
-      </c>
-      <c r="D75">
-        <v>6</v>
-      </c>
-      <c r="E75">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B76">
-        <v>8</v>
-      </c>
-      <c r="C76">
-        <v>5</v>
-      </c>
-      <c r="D76">
-        <v>5</v>
-      </c>
-      <c r="E76">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77">
-        <v>7</v>
-      </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D78">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -11648,15 +11951,977 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J78"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J58" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.75" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2">
+        <f>SUM(I2:I300)</f>
+        <v>-212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2" si="0">H2*10/10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J2" s="2">
+        <f>I2+I9+I16+I23+I30+I37+I44+I51+I58+I65+I72+I79</f>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H3*10/23-10</f>
+        <v>-10</v>
+      </c>
+      <c r="J3" s="2">
+        <f>I3+I10+I17+I24+I31+I38+I45+I52+I59+I66+I73+I80</f>
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" ref="I9" si="1">H9*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <f>H10*10/55-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" ref="I16" si="2">H16*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17" s="2">
+        <f>H17*10/50-10</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" ref="I23" si="3">H23*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" ref="I24" si="4">H24*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" ref="I30" si="5">H30*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" ref="I31" si="6">H31*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <f>H37*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" ref="I38" si="7">H38*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" ref="I44" si="8">H44*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" ref="I45" si="9">H45*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" ref="I51" si="10">H51*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" ref="I52" si="11">H52*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" ref="I58" si="12">H58*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" ref="I59" si="13">H59*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" ref="I65" si="14">H65*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>11</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" ref="I66" si="15">H66*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>12</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="G72" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <f t="shared" ref="I72" si="16">H72*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2">
+        <f t="shared" ref="I73" si="17">H73*10/23-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -11889,7 +13154,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -12124,7 +13389,7 @@
         <v>8.1868774099999998E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -12357,7 +13622,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -12590,7 +13855,7 @@
         <v>6.97797544E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -12757,7 +14022,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -12924,7 +14189,7 @@
         <v>1.0077630000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -13091,7 +14356,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -13258,7 +14523,7 @@
         <v>1.2683150000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -13284,7 +14549,7 @@
         <v>2.578358E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -13310,7 +14575,7 @@
         <v>2.4524730000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -13336,7 +14601,7 @@
         <v>2.324551E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -13362,7 +14627,7 @@
         <v>2.1682460000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -13388,7 +14653,7 @@
         <v>2.1170000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -13414,7 +14679,7 @@
         <v>2.051478E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -13440,7 +14705,7 @@
         <v>2.0362120000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -13466,7 +14731,7 @@
         <v>1.999681E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -13492,7 +14757,7 @@
         <v>1.9878549999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -13518,7 +14783,7 @@
         <v>1.9186249999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -13544,7 +14809,7 @@
         <v>1.8936060000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -13570,7 +14835,7 @@
         <v>1.7936569999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -13596,7 +14861,7 @@
         <v>1.7330729999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -13622,7 +14887,7 @@
         <v>1.6771109999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -13648,7 +14913,7 @@
         <v>1.674032E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -13674,7 +14939,7 @@
         <v>1.65118E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -13700,7 +14965,7 @@
         <v>1.5644729999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -13726,7 +14991,7 @@
         <v>1.561885E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -13752,7 +15017,7 @@
         <v>1.4981919999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -13778,7 +15043,7 @@
         <v>1.4952729999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -13804,7 +15069,7 @@
         <v>1.4784759999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -13830,7 +15095,7 @@
         <v>1.3836060000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -13856,7 +15121,7 @@
         <v>1.2981680000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -13882,7 +15147,7 @@
         <v>1.2683150000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -13908,7 +15173,7 @@
         <v>1.2127860000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -13934,7 +15199,7 @@
         <v>1.203102E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -13960,7 +15225,7 @@
         <v>1.1617219999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -13986,7 +15251,7 @@
         <v>1.149357E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -14012,7 +15277,7 @@
         <v>1.1233450000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -14038,7 +15303,7 @@
         <v>1.0139280000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -14064,7 +15329,7 @@
         <v>8.3946999999999997E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -14090,7 +15355,7 @@
         <v>7.6792900000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -14116,7 +15381,7 @@
         <v>7.2900100000000004E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -14142,7 +15407,7 @@
         <v>7.2343800000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -14168,7 +15433,7 @@
         <v>7.0489200000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -14194,7 +15459,7 @@
         <v>6.1700899999999996E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -14220,7 +15485,7 @@
         <v>3.8722700000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -14246,7 +15511,7 @@
         <v>2.7707500000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -14272,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -14286,7 +15551,7 @@
         <v>7.1658660500000001E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -14300,7 +15565,7 @@
         <v>7.0618411000000005E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -14314,7 +15579,7 @@
         <v>6.97797544E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -14328,7 +15593,7 @@
         <v>6.4660643300000001E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -14342,7 +15607,7 @@
         <v>6.3447579700000003E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -14356,7 +15621,7 @@
         <v>6.3279700900000001E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -14370,7 +15635,7 @@
         <v>5.0427244100000003E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -14384,7 +15649,7 @@
         <v>4.7029672699999999E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -14398,7 +15663,7 @@
         <v>4.5831357499999997E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -14412,7 +15677,7 @@
         <v>4.3175141600000001E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -14426,7 +15691,7 @@
         <v>4.2904706499999997E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -14440,7 +15705,7 @@
         <v>3.9796584000000001E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -14454,7 +15719,7 @@
         <v>3.6751423600000001E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -14468,7 +15733,7 @@
         <v>3.6250719300000002E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -14482,7 +15747,7 @@
         <v>3.3601848399999998E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -14496,7 +15761,7 @@
         <v>2.6450110999999999E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -14510,7 +15775,7 @@
         <v>2.33614909E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -14524,7 +15789,7 @@
         <v>2.05345528E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -14538,7 +15803,7 @@
         <v>8.0184127700000005E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -14552,7 +15817,7 @@
         <v>6.9162027199999997E-6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -14566,7 +15831,7 @@
         <v>6.3911871800000004E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -14589,7 +15854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
@@ -14597,17 +15862,17 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -14619,7 +15884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14640,7 +15905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>6</v>
       </c>
@@ -14658,7 +15923,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -14676,7 +15941,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -14694,7 +15959,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>8</v>
       </c>
@@ -14712,7 +15977,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -14724,7 +15989,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -14745,7 +16010,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>13</v>
       </c>
@@ -14763,7 +16028,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>11</v>
       </c>
@@ -14781,7 +16046,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -14799,7 +16064,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>3</v>
       </c>
@@ -14817,7 +16082,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -14829,7 +16094,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -14850,7 +16115,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>7</v>
       </c>
@@ -14868,7 +16133,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>13</v>
       </c>
@@ -14886,7 +16151,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>4</v>
       </c>
@@ -14904,7 +16169,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>9</v>
       </c>
@@ -14922,7 +16187,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -14934,7 +16199,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -14955,7 +16220,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
@@ -14973,7 +16238,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>12</v>
       </c>
@@ -14991,7 +16256,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>7</v>
       </c>
@@ -15009,7 +16274,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>11</v>
       </c>
@@ -15027,7 +16292,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -15039,7 +16304,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -15060,7 +16325,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -15078,7 +16343,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>12</v>
       </c>
@@ -15096,7 +16361,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>2</v>
       </c>
@@ -15114,7 +16379,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>5</v>
       </c>
@@ -15132,7 +16397,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -15144,7 +16409,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -15165,7 +16430,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>7</v>
       </c>
@@ -15183,7 +16448,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>6</v>
       </c>
@@ -15201,7 +16466,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>3</v>
       </c>
@@ -15219,7 +16484,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>2</v>
       </c>
@@ -15237,7 +16502,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -15249,7 +16514,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -15270,7 +16535,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>1</v>
       </c>
@@ -15288,7 +16553,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>6</v>
       </c>
@@ -15306,7 +16571,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>3</v>
       </c>
@@ -15324,7 +16589,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>5</v>
       </c>
@@ -15342,7 +16607,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -15354,7 +16619,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -15375,7 +16640,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>4</v>
       </c>
@@ -15393,7 +16658,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>9</v>
       </c>
@@ -15411,7 +16676,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>7</v>
       </c>
@@ -15429,7 +16694,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>1</v>
       </c>
@@ -15447,7 +16712,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -15459,7 +16724,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -15480,7 +16745,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>7</v>
       </c>
@@ -15498,7 +16763,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>10</v>
       </c>
@@ -15516,7 +16781,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>9</v>
       </c>
@@ -15534,7 +16799,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>6</v>
       </c>
@@ -15552,7 +16817,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -15564,7 +16829,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -15585,7 +16850,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>9</v>
       </c>
@@ -15603,7 +16868,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>10</v>
       </c>
@@ -15621,7 +16886,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>3</v>
       </c>
@@ -15639,7 +16904,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>8</v>
       </c>
@@ -15657,7 +16922,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -15669,7 +16934,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -15690,7 +16955,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>7</v>
       </c>
@@ -15708,7 +16973,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>6</v>
       </c>
@@ -15726,7 +16991,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>1</v>
       </c>
@@ -15744,7 +17009,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>11</v>
       </c>
@@ -15762,7 +17027,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -15774,7 +17039,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -15795,7 +17060,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>8</v>
       </c>
@@ -15813,7 +17078,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>5</v>
       </c>
@@ -15831,7 +17096,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>9</v>
       </c>
@@ -15849,7 +17114,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>1</v>
       </c>
@@ -15867,7 +17132,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>6</v>
       </c>

--- a/result/201612.xlsx
+++ b/result/201612.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\kra\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="1"/>
+    <workbookView xWindow="12780" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="5" r:id="rId1"/>
     <sheet name="3_" sheetId="15" r:id="rId2"/>
     <sheet name="4" sheetId="8" r:id="rId3"/>
-    <sheet name="10" sheetId="11" r:id="rId4"/>
-    <sheet name="11" sheetId="12" r:id="rId5"/>
-    <sheet name="17" sheetId="13" r:id="rId6"/>
-    <sheet name="18" sheetId="14" r:id="rId7"/>
-    <sheet name="feature_importance" sheetId="6" r:id="rId8"/>
-    <sheet name="20151205" sheetId="7" r:id="rId9"/>
+    <sheet name="4_" sheetId="16" r:id="rId4"/>
+    <sheet name="10" sheetId="11" r:id="rId5"/>
+    <sheet name="11" sheetId="12" r:id="rId6"/>
+    <sheet name="17" sheetId="13" r:id="rId7"/>
+    <sheet name="18" sheetId="14" r:id="rId8"/>
+    <sheet name="feature_importance" sheetId="6" r:id="rId9"/>
+    <sheet name="20151205" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="97">
   <si>
     <t>seoul</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +303,36 @@
     <t>ss7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>①⑧⑥73</t>
+  </si>
+  <si>
+    <t>⑦⑥⑤91</t>
+  </si>
+  <si>
+    <t>⑪②⑥61</t>
+  </si>
+  <si>
+    <t>⑤⑦⑩136</t>
+  </si>
+  <si>
+    <t>④①⑪1002</t>
+  </si>
+  <si>
+    <t>⑤⑩⑦136</t>
+  </si>
+  <si>
+    <t>①⑦⑫84</t>
+  </si>
+  <si>
+    <t>⑧③④2569</t>
+  </si>
+  <si>
+    <t>③②⑥129</t>
+  </si>
+  <si>
+    <t>②④①1088</t>
+  </si>
 </sst>
 </file>
 
@@ -424,7 +450,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,7 +485,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,6 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2951,13 +2978,1311 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:F84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <f>SUM(F2:F300)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>2.7</v>
+      </c>
+      <c r="F2">
+        <f>E2*10-10</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>63.5</v>
+      </c>
+      <c r="F3">
+        <f>E3*10-10</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>10.6</v>
+      </c>
+      <c r="F4">
+        <f>E4*10-10</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>E5*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>E6*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>E7*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>E9*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>E10*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>E11*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>E12*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>E13*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>E14*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>E16*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>E17*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>E18*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>E19*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>E20*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>E21*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>E23*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>E24*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>E25*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>E26*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>E27*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>E28*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>E30*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>E31*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>E32*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>E33*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>E34*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>E35*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>E37*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>E38*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>E39*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>E40*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>E41*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>E42*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>E44*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>E45*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>E46*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>E47*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>E48*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>E49*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>E51*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>E52*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>E53*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>E54*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>E55*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>E56*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>E58*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>E59*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>E60*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>E61*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>E62*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>E63*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>E65*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>E66*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>E67*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>E68*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>E69*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>E70*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f>E72*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>E73*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>E74*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f>E75*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>11</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f>E76*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f>E77*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f>E79*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f>E80*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f>E81*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f>E82*10/2-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f>E83*10/10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f>E84*10/24-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4184,6 +5509,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5310,6 +6636,1195 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:H78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <f>SUM(F2:F300)/7</f>
+        <v>-99.763528138528144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>E2*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>E3*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>E4*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>E5*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>E6*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>E7*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>E8*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>73</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9" si="0">E9*10/55-10</f>
+        <v>3.2727272727272734</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F12" si="1">E10*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="2">E13*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="3">E14*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15" si="4">E15*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="5">E16*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F19" si="6">E17*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20">
+        <v>91</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="7">E20*10/48-10</f>
+        <v>8.9583333333333321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="8">E21*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22" si="9">E22*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>61</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23" si="10">E23*10/55-10</f>
+        <v>1.0909090909090917</v>
+      </c>
+      <c r="H23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F26" si="11">E24*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27" si="12">E27*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28" si="13">E28*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29" si="14">E29*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30" si="15">E30*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F33" si="16">E31*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34">
+        <v>136</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34" si="17">E34*10/48-10</f>
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35" si="18">E35*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36" si="19">E36*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37" si="20">E37*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F40" si="21">E38*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41" si="22">E41*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42" si="23">E42*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43" si="24">E43*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44" si="25">E44*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45:F47" si="26">E45*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48" si="27">E48*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49" si="28">E49*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50" si="29">E50*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51" si="30">E51*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:F54" si="31">E52*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55" si="32">E55*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56" si="33">E56*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57" si="34">E57*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58" si="35">E58*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ref="F59:F61" si="36">E59*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="36"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="36"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62" si="37">E62*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63" si="38">E63*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="F64" si="39">E64*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65" si="40">E65*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:F68" si="41">E66*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="41"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="41"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69" si="42">E69*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ref="F70" si="43">E70*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71" si="44">E71*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72" si="45">E72*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73:F75" si="46">E73*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="46"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="46"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ref="F76" si="47">E76*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77" si="48">E77*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ref="F78" si="49">E78*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AB84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9810,8 +12325,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10957,8 +13473,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11949,8 +14466,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -12911,8 +15429,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:CA69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15852,1300 +18371,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <f>SUM(F2:F300)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>2.7</v>
-      </c>
-      <c r="F2">
-        <f>E2*10-10</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>63.5</v>
-      </c>
-      <c r="F3">
-        <f>E3*10-10</f>
-        <v>625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>10.6</v>
-      </c>
-      <c r="F4">
-        <f>E4*10-10</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f>E5*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>E6*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>E7*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>E9*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>E10*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f>E11*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>E12*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f>E13*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f>E14*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f>E16*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f>E17*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f>E18*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <f>E19*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <f>E20*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <f>E21*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f>E23*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f>E24*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f>E25*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f>E26*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>11</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f>E27*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <f>E28*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f>E30*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f>E31*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>12</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f>E32*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f>E33*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <f>E34*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f>E35*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f>E37*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f>E38*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f>E39*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <f>E40*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <f>E41*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f>E42*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>7</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-      <c r="C44">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <f>E44*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <f>E45*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B46">
-        <v>6</v>
-      </c>
-      <c r="C46">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <f>E46*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <f>E47*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B48">
-        <v>5</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <f>E48*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <f>E49*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <v>11</v>
-      </c>
-      <c r="C51">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <f>E51*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <f>E52*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B53">
-        <v>9</v>
-      </c>
-      <c r="C53">
-        <v>9</v>
-      </c>
-      <c r="D53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <f>E53*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B54">
-        <v>7</v>
-      </c>
-      <c r="C54">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <f>E54*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>12</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <f>E55*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <f>E56*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>9</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <f>E58*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B59">
-        <v>7</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-      <c r="D59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <f>E59*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B60">
-        <v>10</v>
-      </c>
-      <c r="C60">
-        <v>9</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <f>E60*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B61">
-        <v>9</v>
-      </c>
-      <c r="C61">
-        <v>12</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <f>E61*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="C62">
-        <v>10</v>
-      </c>
-      <c r="D62" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <f>E62*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D63" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <f>E63*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>10</v>
-      </c>
-      <c r="B65">
-        <v>11</v>
-      </c>
-      <c r="C65">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <f>E65*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B66">
-        <v>9</v>
-      </c>
-      <c r="C66">
-        <v>9</v>
-      </c>
-      <c r="D66" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <f>E66*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B67">
-        <v>10</v>
-      </c>
-      <c r="C67">
-        <v>13</v>
-      </c>
-      <c r="D67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <f>E67*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68">
-        <v>10</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <f>E68*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B69">
-        <v>8</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <f>E69*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D70" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <f>E70*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>11</v>
-      </c>
-      <c r="B72">
-        <v>2</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <f>E72*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B73">
-        <v>7</v>
-      </c>
-      <c r="C73">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <f>E73*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B74">
-        <v>6</v>
-      </c>
-      <c r="C74">
-        <v>9</v>
-      </c>
-      <c r="D74" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <f>E74*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>10</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <f>E75*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B76">
-        <v>11</v>
-      </c>
-      <c r="C76">
-        <v>8</v>
-      </c>
-      <c r="D76" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <f>E76*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D77" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <f>E77*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>12</v>
-      </c>
-      <c r="B79">
-        <v>6</v>
-      </c>
-      <c r="C79">
-        <v>5</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <f>E79*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B80">
-        <v>8</v>
-      </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <f>E80*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81">
-        <v>5</v>
-      </c>
-      <c r="C81">
-        <v>8</v>
-      </c>
-      <c r="D81" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <f>E81*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82">
-        <v>9</v>
-      </c>
-      <c r="C82">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <f>E82*10/2-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-      <c r="D83" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <f>E83*10/10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D84" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <f>E84*10/24-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/result/201612.xlsx
+++ b/result/201612.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="3"/>
+    <workbookView xWindow="12780" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="5" r:id="rId1"/>
@@ -15,15 +15,16 @@
     <sheet name="11" sheetId="12" r:id="rId6"/>
     <sheet name="17" sheetId="13" r:id="rId7"/>
     <sheet name="18" sheetId="14" r:id="rId8"/>
-    <sheet name="feature_importance" sheetId="6" r:id="rId9"/>
-    <sheet name="20151205" sheetId="7" r:id="rId10"/>
+    <sheet name="24" sheetId="17" r:id="rId9"/>
+    <sheet name="feature_importance" sheetId="6" r:id="rId10"/>
+    <sheet name="20151205" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="97">
   <si>
     <t>seoul</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2980,6 +2981,2950 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:CA69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.18349144100000001</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.21758063</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>0.15755301999999999</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <v>0.18647342</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.15839761699999999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.17200985699999999</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0.10954996</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>7.5096670000000004E-2</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
+        <v>0.113047626</v>
+      </c>
+      <c r="L2" s="1">
+        <v>7.5492507099999997E-4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>9.06909248E-4</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4.3909920099999997E-5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1.2702445000000001E-4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2.8743024700000002E-4</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>6.0233492299999998E-5</v>
+      </c>
+      <c r="R2" s="1">
+        <v>6.7144631299999994E-5</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3.4129009300000002E-6</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1.2988987099999999E-4</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1.27814874E-4</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1.66939078E-4</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1.3469159699999999E-4</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1.6187206999999999E-4</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>2.1089904200000001E-4</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>3.6654844199999998E-4</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>3.46725959E-4</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1.7108418900000001E-4</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1.8644848600000001E-3</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.117957812</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0.15402198</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0.15839761699999999</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1.31261258E-4</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>4.6312675200000003E-5</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>4.2469948000000003E-5</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>2.9081371900000001E-5</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>8.8744158799999994E-5</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>1.8502957699999999E-4</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1.4109997199999999E-4</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1.9287311899999999E-4</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>1.31677446E-4</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>1.40526673E-4</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>2.0923423700000001E-4</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>8.41437482E-5</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>5.1737861200000001E-5</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>3.8842138299999997E-5</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>1.0831694699999999E-4</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>1.1175088500000001E-4</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>6.9594667000000003E-5</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>3.0893852999999997E-5</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>2.18695447E-5</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>6.70122777E-5</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>7.7227006100000006E-5</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>1.00058637E-5</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>9.4381420700000007E-6</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>1.1413420599999999E-5</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>0.127126079</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>0.136224025</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>0.18349144100000001</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>9.5562273299999999E-5</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>7.4419784899999996E-5</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>6.8302491399999994E-5</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>8.4468200500000004E-5</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>4.8632713999999998E-5</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>1.22746447E-4</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>1.2421759700000001E-4</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>8.7296964299999998E-5</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>9.7762061699999998E-5</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>7.1971692800000005E-5</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>8.6592991799999997E-5</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>8.9126013399999995E-5</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>7.4790482099999997E-5</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>6.8742937700000005E-5</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>3.5335152400000002E-5</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>1.4229752500000001E-4</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>1.05848236E-4</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>1.09519453E-4</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>1.01422218E-4</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>8.1868774099999998E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.15402198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.13571487300000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>6.084527E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>3.6779470000000002E-2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.136224025</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.131310961</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>3.9078460000000002E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>3.165192E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.10208099700000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8.1230009100000003E-4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7.2116026200000002E-4</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4.2904706499999997E-5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.1853115E-4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.3184457800000001E-4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2.6450110999999999E-5</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4.7029672699999999E-5</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2.4084241199999999E-6</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1.1755281E-4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.5044897300000001E-4</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1.6303043299999999E-4</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1.2807953900000001E-4</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1.4111919800000001E-4</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2.13867927E-4</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2.0756957399999999E-4</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>6.7357086699999997E-4</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1.86154727E-4</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>2.0949185299999999E-3</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.131310961</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.13571487300000001</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0.21758063</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1.0780492800000001E-4</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>4.3175141600000001E-5</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>3.6751423600000001E-5</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>2.05345528E-5</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>9.4178652000000002E-5</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>1.6630280600000001E-4</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1.3316155900000001E-4</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>1.6248361099999999E-4</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>1.25517165E-4</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>4.5091996299999998E-4</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>2.0249076300000001E-4</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>1.6775253800000001E-4</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>4.5831357499999997E-5</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>3.6250719300000002E-5</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>1.2503637599999999E-4</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>9.2883349900000004E-5</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>6.4660643300000001E-5</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>3.3601848399999998E-5</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>2.33614909E-5</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>7.0618411000000005E-5</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>6.3447579700000003E-5</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>6.9162027199999997E-6</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>6.3911871800000004E-6</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>8.0184127700000005E-6</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0.116232632</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>0.114956139</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>0.17200985699999999</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>9.3498239700000007E-5</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>7.3443049800000002E-5</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>7.2300967500000006E-5</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>8.4037879399999999E-5</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>5.0427244100000003E-5</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>1.2565694900000001E-4</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>1.16187704E-4</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>9.9424451999999999E-5</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>1.02728423E-4</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>8.0264538500000006E-5</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>8.8789301900000001E-5</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>8.6982948400000001E-5</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>7.1658660500000001E-5</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>6.3279700900000001E-5</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>3.9796584000000001E-5</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>1.39410746E-4</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>1.14638917E-4</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>9.4369461000000005E-5</v>
+      </c>
+      <c r="BZ4" s="1">
+        <v>8.0203735899999999E-5</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>6.97797544E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.127126079</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.116232632</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>3.7234330000000003E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>3.0082649999999999E-2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.117957812</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.114956139</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>3.4670409999999999E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>2.9960420000000001E-2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.15755301999999999</v>
+      </c>
+      <c r="M6">
+        <v>0.10954996</v>
+      </c>
+      <c r="N6">
+        <v>5.4940700000000002E-3</v>
+      </c>
+      <c r="O6">
+        <v>2.1138549999999999E-2</v>
+      </c>
+      <c r="P6">
+        <v>3.7234330000000003E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.6507259999999999E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.314772E-2</v>
+      </c>
+      <c r="S6">
+        <v>5.8956599999999996E-3</v>
+      </c>
+      <c r="T6">
+        <v>2.4848700000000001E-3</v>
+      </c>
+      <c r="U6">
+        <v>1.6792999999999999E-2</v>
+      </c>
+      <c r="V6">
+        <v>2.4716060000000002E-2</v>
+      </c>
+      <c r="W6">
+        <v>1.742879E-2</v>
+      </c>
+      <c r="X6">
+        <v>1.553325E-2</v>
+      </c>
+      <c r="Y6">
+        <v>3.9078460000000002E-2</v>
+      </c>
+      <c r="Z6">
+        <v>6.084527E-2</v>
+      </c>
+      <c r="AA6">
+        <v>3.4670409999999999E-2</v>
+      </c>
+      <c r="AB6">
+        <v>2.0363530000000001E-2</v>
+      </c>
+      <c r="AC6">
+        <v>5.7111499999999999E-3</v>
+      </c>
+      <c r="AD6">
+        <v>6.6751700000000002E-3</v>
+      </c>
+      <c r="AE6">
+        <v>1.9291849999999999E-2</v>
+      </c>
+      <c r="AF6">
+        <v>1.544855E-2</v>
+      </c>
+      <c r="AG6">
+        <v>1.412156E-2</v>
+      </c>
+      <c r="AH6">
+        <v>9.7882000000000004E-3</v>
+      </c>
+      <c r="AI6">
+        <v>3.3872500000000001E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>2.6181070000000001E-2</v>
+      </c>
+      <c r="AK6">
+        <v>1.0539649999999999E-2</v>
+      </c>
+      <c r="AL6">
+        <v>1.617675E-2</v>
+      </c>
+      <c r="AM6">
+        <v>1.5773180000000001E-2</v>
+      </c>
+      <c r="AN6">
+        <v>1.079395E-2</v>
+      </c>
+      <c r="AO6">
+        <v>2.3515899999999999E-2</v>
+      </c>
+      <c r="AP6">
+        <v>5.8510300000000001E-3</v>
+      </c>
+      <c r="AQ6">
+        <v>1.8901520000000002E-2</v>
+      </c>
+      <c r="AR6">
+        <v>1.5668029999999999E-2</v>
+      </c>
+      <c r="AS6">
+        <v>1.072648E-2</v>
+      </c>
+      <c r="AT6">
+        <v>2.415577E-2</v>
+      </c>
+      <c r="AU6">
+        <v>9.4468E-3</v>
+      </c>
+      <c r="AV6">
+        <v>1.4347169999999999E-2</v>
+      </c>
+      <c r="AW6">
+        <v>1.4270359999999999E-2</v>
+      </c>
+      <c r="AX6">
+        <v>1.2340769999999999E-2</v>
+      </c>
+      <c r="AY6">
+        <v>8.0322799999999993E-3</v>
+      </c>
+      <c r="AZ6">
+        <v>6.1968099999999996E-3</v>
+      </c>
+      <c r="BA6">
+        <v>2.788436E-2</v>
+      </c>
+      <c r="BB6">
+        <v>1.671951E-2</v>
+      </c>
+      <c r="BC6">
+        <v>1.6541150000000001E-2</v>
+      </c>
+      <c r="BD6">
+        <v>1.300188E-2</v>
+      </c>
+      <c r="BE6">
+        <v>1.0077630000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.113047626</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.10208099700000001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>2.788436E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>2.7931979999999999E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.8644848600000001E-3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.0949185299999999E-3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>2.6181070000000001E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <v>2.6865400000000001E-2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>7.5096670000000004E-2</v>
+      </c>
+      <c r="M8">
+        <v>0.18647342</v>
+      </c>
+      <c r="N8">
+        <v>8.3946999999999997E-3</v>
+      </c>
+      <c r="O8">
+        <v>2.1682460000000001E-2</v>
+      </c>
+      <c r="P8">
+        <v>3.6779470000000002E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.4981919999999999E-2</v>
+      </c>
+      <c r="R8">
+        <v>1.3836060000000001E-2</v>
+      </c>
+      <c r="S8">
+        <v>6.1700899999999996E-3</v>
+      </c>
+      <c r="T8">
+        <v>2.7707500000000002E-3</v>
+      </c>
+      <c r="U8">
+        <v>1.999681E-2</v>
+      </c>
+      <c r="V8">
+        <v>3.0082649999999999E-2</v>
+      </c>
+      <c r="W8">
+        <v>1.9186249999999998E-2</v>
+      </c>
+      <c r="X8">
+        <v>1.6771109999999999E-2</v>
+      </c>
+      <c r="Y8">
+        <v>2.324551E-2</v>
+      </c>
+      <c r="Z8">
+        <v>2.7931979999999999E-2</v>
+      </c>
+      <c r="AA8">
+        <v>3.165192E-2</v>
+      </c>
+      <c r="AB8">
+        <v>1.8936060000000001E-2</v>
+      </c>
+      <c r="AC8">
+        <v>7.0489200000000002E-3</v>
+      </c>
+      <c r="AD8">
+        <v>7.2900100000000004E-3</v>
+      </c>
+      <c r="AE8">
+        <v>2.4524730000000002E-2</v>
+      </c>
+      <c r="AF8">
+        <v>1.9878549999999998E-2</v>
+      </c>
+      <c r="AG8">
+        <v>1.674032E-2</v>
+      </c>
+      <c r="AH8">
+        <v>7.2343800000000003E-3</v>
+      </c>
+      <c r="AI8">
+        <v>3.8722700000000001E-3</v>
+      </c>
+      <c r="AJ8">
+        <v>2.9960420000000001E-2</v>
+      </c>
+      <c r="AK8">
+        <v>1.149357E-2</v>
+      </c>
+      <c r="AL8">
+        <v>2.1170000000000001E-2</v>
+      </c>
+      <c r="AM8">
+        <v>1.5644729999999999E-2</v>
+      </c>
+      <c r="AN8">
+        <v>1.561885E-2</v>
+      </c>
+      <c r="AO8">
+        <v>1.4784759999999999E-2</v>
+      </c>
+      <c r="AP8">
+        <v>1.203102E-2</v>
+      </c>
+      <c r="AQ8">
+        <v>2.051478E-2</v>
+      </c>
+      <c r="AR8">
+        <v>1.7936569999999999E-2</v>
+      </c>
+      <c r="AS8">
+        <v>1.65118E-2</v>
+      </c>
+      <c r="AT8">
+        <v>2.6865400000000001E-2</v>
+      </c>
+      <c r="AU8">
+        <v>1.2127860000000001E-2</v>
+      </c>
+      <c r="AV8">
+        <v>1.4952729999999999E-2</v>
+      </c>
+      <c r="AW8">
+        <v>1.2981680000000001E-2</v>
+      </c>
+      <c r="AX8">
+        <v>1.1617219999999999E-2</v>
+      </c>
+      <c r="AY8">
+        <v>1.0139280000000001E-2</v>
+      </c>
+      <c r="AZ8">
+        <v>7.6792900000000001E-3</v>
+      </c>
+      <c r="BA8">
+        <v>2.578358E-2</v>
+      </c>
+      <c r="BB8">
+        <v>2.0362120000000001E-2</v>
+      </c>
+      <c r="BC8">
+        <v>1.7330729999999999E-2</v>
+      </c>
+      <c r="BD8">
+        <v>1.1233450000000001E-2</v>
+      </c>
+      <c r="BE8">
+        <v>1.2683150000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9.06909248E-4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8.1230009100000003E-4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>2.4716060000000002E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9">
+        <v>2.578358E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7.5492507099999997E-4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.2116026200000002E-4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10">
+        <v>2.415577E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>2.4524730000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.6654844199999998E-4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6.7357086699999997E-4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11">
+        <v>2.3515899999999999E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>2.324551E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.46725959E-4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.5091996299999998E-4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>2.1138549999999999E-2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>2.1682460000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.8743024700000002E-4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.3184457800000001E-4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>2.0363530000000001E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13">
+        <v>2.1170000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.1089904200000001E-4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.13867927E-4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>1.9291849999999999E-2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14">
+        <v>2.051478E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.0923423700000001E-4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.0756957399999999E-4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15">
+        <v>1.8901520000000002E-2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15">
+        <v>2.0362120000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.9287311899999999E-4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.0249076300000001E-4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>1.742879E-2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>1.999681E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.8502957699999999E-4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.86154727E-4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>1.6792999999999999E-2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17">
+        <v>1.9878549999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.7108418900000001E-4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.6775253800000001E-4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18">
+        <v>1.671951E-2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18">
+        <v>1.9186249999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.66939078E-4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.6630280600000001E-4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>1.6541150000000001E-2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19">
+        <v>1.8936060000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.6187206999999999E-4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.6303043299999999E-4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <v>1.6507259999999999E-2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20">
+        <v>1.7936569999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.4229752500000001E-4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.6248361099999999E-4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>1.617675E-2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21">
+        <v>1.7330729999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.4109997199999999E-4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.5044897300000001E-4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22">
+        <v>1.5773180000000001E-2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22">
+        <v>1.6771109999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.40526673E-4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.4111919800000001E-4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23">
+        <v>1.5668029999999999E-2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23">
+        <v>1.674032E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.3469159699999999E-4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.39410746E-4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>1.553325E-2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>1.65118E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.31677446E-4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.3316155900000001E-4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25">
+        <v>1.544855E-2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25">
+        <v>1.5644729999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.31261258E-4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.2807953900000001E-4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26">
+        <v>1.4347169999999999E-2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26">
+        <v>1.561885E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.2988987099999999E-4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.2565694900000001E-4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27">
+        <v>1.4270359999999999E-2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <v>1.4981919999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.27814874E-4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.25517165E-4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28">
+        <v>1.412156E-2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28">
+        <v>1.4952729999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.2702445000000001E-4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.2503637599999999E-4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>1.314772E-2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29">
+        <v>1.4784759999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.2421759700000001E-4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.1853115E-4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30">
+        <v>1.300188E-2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30">
+        <v>1.3836060000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.22746447E-4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.1755281E-4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31">
+        <v>1.2340769999999999E-2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31">
+        <v>1.2981680000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.1175088500000001E-4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.16187704E-4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <v>1.079395E-2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32">
+        <v>1.2683150000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.09519453E-4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.14638917E-4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33">
+        <v>1.072648E-2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33">
+        <v>1.2127860000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.0831694699999999E-4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.0780492800000001E-4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34">
+        <v>1.0539649999999999E-2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34">
+        <v>1.203102E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.05848236E-4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.02728423E-4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35">
+        <v>1.0077630000000001E-2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35">
+        <v>1.1617219999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.01422218E-4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9.9424451999999999E-5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36">
+        <v>9.7882000000000004E-3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36">
+        <v>1.149357E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9.7762061699999998E-5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9.4369461000000005E-5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37">
+        <v>9.4468E-3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37">
+        <v>1.1233450000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9.5562273299999999E-5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9.4178652000000002E-5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38">
+        <v>8.0322799999999993E-3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38">
+        <v>1.0139280000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8.9126013399999995E-5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="1">
+        <v>9.3498239700000007E-5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39">
+        <v>6.6751700000000002E-3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39">
+        <v>8.3946999999999997E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8.8744158799999994E-5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9.2883349900000004E-5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40">
+        <v>6.1968099999999996E-3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40">
+        <v>7.6792900000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="1">
+        <v>8.7296964299999998E-5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8.8789301900000001E-5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41">
+        <v>5.8956599999999996E-3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41">
+        <v>7.2900100000000004E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="1">
+        <v>8.6592991799999997E-5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8.6982948400000001E-5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42">
+        <v>5.8510300000000001E-3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42">
+        <v>7.2343800000000003E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="1">
+        <v>8.4468200500000004E-5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="1">
+        <v>8.4037879399999999E-5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43">
+        <v>5.7111499999999999E-3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43">
+        <v>7.0489200000000002E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1">
+        <v>8.41437482E-5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8.0264538500000006E-5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44">
+        <v>5.4940700000000002E-3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44">
+        <v>6.1700899999999996E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="1">
+        <v>8.1868774099999998E-5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8.0203735899999999E-5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45">
+        <v>3.3872500000000001E-3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45">
+        <v>3.8722700000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>7.7227006100000006E-5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="1">
+        <v>7.3443049800000002E-5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46">
+        <v>2.4848700000000001E-3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46">
+        <v>2.7707500000000002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1">
+        <v>7.4790482099999997E-5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="1">
+        <v>7.2300967500000006E-5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1">
+        <v>7.4419784899999996E-5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="1">
+        <v>7.1658660500000001E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="1">
+        <v>7.1971692800000005E-5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7.0618411000000005E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="1">
+        <v>6.9594667000000003E-5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="1">
+        <v>6.97797544E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="1">
+        <v>6.8742937700000005E-5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="1">
+        <v>6.4660643300000001E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6.8302491399999994E-5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="1">
+        <v>6.3447579700000003E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="1">
+        <v>6.7144631299999994E-5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="1">
+        <v>6.3279700900000001E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="1">
+        <v>6.70122777E-5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="1">
+        <v>5.0427244100000003E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6.0233492299999998E-5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4.7029672699999999E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5.1737861200000001E-5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="1">
+        <v>4.5831357499999997E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4.8632713999999998E-5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4.3175141600000001E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4.6312675200000003E-5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4.2904706499999997E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4.3909920099999997E-5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3.9796584000000001E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4.2469948000000003E-5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3.6751423600000001E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="1">
+        <v>3.8842138299999997E-5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3.6250719300000002E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="1">
+        <v>3.5335152400000002E-5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3.3601848399999998E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3.0893852999999997E-5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2.6450110999999999E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2.9081371900000001E-5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2.33614909E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2.18695447E-5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2.05345528E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1.1413420599999999E-5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="1">
+        <v>8.0184127700000005E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1.00058637E-5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="1">
+        <v>6.9162027199999997E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="1">
+        <v>9.4381420700000007E-6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="1">
+        <v>6.3911871800000004E-6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3.4129009300000002E-6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2.4084241199999999E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G1:H69">
+    <sortCondition descending="1" ref="H1:H69"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F84"/>
   <sheetViews>
@@ -6639,7 +9584,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
@@ -15431,2944 +18376,923 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:CA69"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.18349144100000001</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.21758063</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <f>SUM(F2:F300)/7</f>
+        <v>-99.763528138528144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>E2*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>E3*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>E4*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>E5*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>E6*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>E7*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>E8*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>73</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9" si="0">E9*10/55-10</f>
+        <v>3.2727272727272734</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F12" si="1">E10*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="2">E13*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="3">E14*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15" si="4">E15*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="5">E16*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F19" si="6">E17*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20">
+        <v>91</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="7">E20*10/48-10</f>
+        <v>8.9583333333333321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="8">E21*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22" si="9">E22*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>61</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23" si="10">E23*10/55-10</f>
+        <v>1.0909090909090917</v>
+      </c>
+      <c r="H23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F26" si="11">E24*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27" si="12">E27*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28" si="13">E28*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29" si="14">E29*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30" si="15">E30*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F33" si="16">E31*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34">
+        <v>136</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34" si="17">E34*10/48-10</f>
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35" si="18">E35*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36" si="19">E36*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37" si="20">E37*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F40" si="21">E38*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41" si="22">E41*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42" si="23">E42*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43" si="24">E43*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44" si="25">E44*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45:F47" si="26">E45*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48" si="27">E48*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49" si="28">E49*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50" si="29">E50*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51" si="30">E51*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:F54" si="31">E52*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55" si="32">E55*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56" si="33">E56*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57" si="34">E57*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>9</v>
       </c>
-      <c r="F1">
-        <v>0.15755301999999999</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58" si="35">E58*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ref="F59:F61" si="36">E59*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="36"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="36"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62" si="37">E62*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63" si="38">E63*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="F64" si="39">E64*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>10</v>
       </c>
-      <c r="H1">
-        <v>0.18647342</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="D65" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65" si="40">E65*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:F68" si="41">E66*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="41"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="41"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69" si="42">E69*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ref="F70" si="43">E70*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71" si="44">E71*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.15839761699999999</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.17200985699999999</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>0.10954996</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>7.5096670000000004E-2</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1">
-        <v>0.113047626</v>
-      </c>
-      <c r="L2" s="1">
-        <v>7.5492507099999997E-4</v>
-      </c>
-      <c r="M2" s="1">
-        <v>9.06909248E-4</v>
-      </c>
-      <c r="N2" s="1">
-        <v>4.3909920099999997E-5</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1.2702445000000001E-4</v>
-      </c>
-      <c r="P2" s="1">
-        <v>2.8743024700000002E-4</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>6.0233492299999998E-5</v>
-      </c>
-      <c r="R2" s="1">
-        <v>6.7144631299999994E-5</v>
-      </c>
-      <c r="S2" s="1">
-        <v>3.4129009300000002E-6</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1.2988987099999999E-4</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1.27814874E-4</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1.66939078E-4</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1.3469159699999999E-4</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1.6187206999999999E-4</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>2.1089904200000001E-4</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>3.6654844199999998E-4</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>3.46725959E-4</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>1.7108418900000001E-4</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>1.8644848600000001E-3</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0.117957812</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0.15402198</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0.15839761699999999</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>1.31261258E-4</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>4.6312675200000003E-5</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>4.2469948000000003E-5</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>2.9081371900000001E-5</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>8.8744158799999994E-5</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>1.8502957699999999E-4</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>1.4109997199999999E-4</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>1.9287311899999999E-4</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>1.31677446E-4</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>1.40526673E-4</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>2.0923423700000001E-4</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>8.41437482E-5</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>5.1737861200000001E-5</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>3.8842138299999997E-5</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>1.0831694699999999E-4</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>1.1175088500000001E-4</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>6.9594667000000003E-5</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>3.0893852999999997E-5</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>2.18695447E-5</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>6.70122777E-5</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>7.7227006100000006E-5</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>1.00058637E-5</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>9.4381420700000007E-6</v>
-      </c>
-      <c r="BD2" s="1">
-        <v>1.1413420599999999E-5</v>
-      </c>
-      <c r="BE2" s="1">
-        <v>0.127126079</v>
-      </c>
-      <c r="BF2" s="1">
-        <v>0.136224025</v>
-      </c>
-      <c r="BG2" s="1">
-        <v>0.18349144100000001</v>
-      </c>
-      <c r="BH2" s="1">
-        <v>9.5562273299999999E-5</v>
-      </c>
-      <c r="BI2" s="1">
-        <v>7.4419784899999996E-5</v>
-      </c>
-      <c r="BJ2" s="1">
-        <v>6.8302491399999994E-5</v>
-      </c>
-      <c r="BK2" s="1">
-        <v>8.4468200500000004E-5</v>
-      </c>
-      <c r="BL2" s="1">
-        <v>4.8632713999999998E-5</v>
-      </c>
-      <c r="BM2" s="1">
-        <v>1.22746447E-4</v>
-      </c>
-      <c r="BN2" s="1">
-        <v>1.2421759700000001E-4</v>
-      </c>
-      <c r="BO2" s="1">
-        <v>8.7296964299999998E-5</v>
-      </c>
-      <c r="BP2" s="1">
-        <v>9.7762061699999998E-5</v>
-      </c>
-      <c r="BQ2" s="1">
-        <v>7.1971692800000005E-5</v>
-      </c>
-      <c r="BR2" s="1">
-        <v>8.6592991799999997E-5</v>
-      </c>
-      <c r="BS2" s="1">
-        <v>8.9126013399999995E-5</v>
-      </c>
-      <c r="BT2" s="1">
-        <v>7.4790482099999997E-5</v>
-      </c>
-      <c r="BU2" s="1">
-        <v>6.8742937700000005E-5</v>
-      </c>
-      <c r="BV2" s="1">
-        <v>3.5335152400000002E-5</v>
-      </c>
-      <c r="BW2" s="1">
-        <v>1.4229752500000001E-4</v>
-      </c>
-      <c r="BX2" s="1">
-        <v>1.05848236E-4</v>
-      </c>
-      <c r="BY2" s="1">
-        <v>1.09519453E-4</v>
-      </c>
-      <c r="BZ2" s="1">
-        <v>1.01422218E-4</v>
-      </c>
-      <c r="CA2" s="1">
-        <v>8.1868774099999998E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.15402198</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.13571487300000001</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3">
-        <v>6.084527E-2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>3.6779470000000002E-2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>47</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>71</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.136224025</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.131310961</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4">
-        <v>3.9078460000000002E-2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4">
-        <v>3.165192E-2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.10208099700000001</v>
-      </c>
-      <c r="L4" s="1">
-        <v>8.1230009100000003E-4</v>
-      </c>
-      <c r="M4" s="1">
-        <v>7.2116026200000002E-4</v>
-      </c>
-      <c r="N4" s="1">
-        <v>4.2904706499999997E-5</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1.1853115E-4</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2.3184457800000001E-4</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2.6450110999999999E-5</v>
-      </c>
-      <c r="R4" s="1">
-        <v>4.7029672699999999E-5</v>
-      </c>
-      <c r="S4" s="1">
-        <v>2.4084241199999999E-6</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1.1755281E-4</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1.5044897300000001E-4</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1.6303043299999999E-4</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1.2807953900000001E-4</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1.4111919800000001E-4</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>2.13867927E-4</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>2.0756957399999999E-4</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>6.7357086699999997E-4</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>1.86154727E-4</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>2.0949185299999999E-3</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>0.131310961</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>0.13571487300000001</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>0.21758063</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>1.0780492800000001E-4</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>4.3175141600000001E-5</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>3.6751423600000001E-5</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>2.05345528E-5</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>9.4178652000000002E-5</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>1.6630280600000001E-4</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>1.3316155900000001E-4</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>1.6248361099999999E-4</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>1.25517165E-4</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>4.5091996299999998E-4</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>2.0249076300000001E-4</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>1.6775253800000001E-4</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>4.5831357499999997E-5</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>3.6250719300000002E-5</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>1.2503637599999999E-4</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>9.2883349900000004E-5</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>6.4660643300000001E-5</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>3.3601848399999998E-5</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>2.33614909E-5</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>7.0618411000000005E-5</v>
-      </c>
-      <c r="BA4" s="1">
-        <v>6.3447579700000003E-5</v>
-      </c>
-      <c r="BB4" s="1">
-        <v>6.9162027199999997E-6</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>6.3911871800000004E-6</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>8.0184127700000005E-6</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>0.116232632</v>
-      </c>
-      <c r="BF4" s="1">
-        <v>0.114956139</v>
-      </c>
-      <c r="BG4" s="1">
-        <v>0.17200985699999999</v>
-      </c>
-      <c r="BH4" s="1">
-        <v>9.3498239700000007E-5</v>
-      </c>
-      <c r="BI4" s="1">
-        <v>7.3443049800000002E-5</v>
-      </c>
-      <c r="BJ4" s="1">
-        <v>7.2300967500000006E-5</v>
-      </c>
-      <c r="BK4" s="1">
-        <v>8.4037879399999999E-5</v>
-      </c>
-      <c r="BL4" s="1">
-        <v>5.0427244100000003E-5</v>
-      </c>
-      <c r="BM4" s="1">
-        <v>1.2565694900000001E-4</v>
-      </c>
-      <c r="BN4" s="1">
-        <v>1.16187704E-4</v>
-      </c>
-      <c r="BO4" s="1">
-        <v>9.9424451999999999E-5</v>
-      </c>
-      <c r="BP4" s="1">
-        <v>1.02728423E-4</v>
-      </c>
-      <c r="BQ4" s="1">
-        <v>8.0264538500000006E-5</v>
-      </c>
-      <c r="BR4" s="1">
-        <v>8.8789301900000001E-5</v>
-      </c>
-      <c r="BS4" s="1">
-        <v>8.6982948400000001E-5</v>
-      </c>
-      <c r="BT4" s="1">
-        <v>7.1658660500000001E-5</v>
-      </c>
-      <c r="BU4" s="1">
-        <v>6.3279700900000001E-5</v>
-      </c>
-      <c r="BV4" s="1">
-        <v>3.9796584000000001E-5</v>
-      </c>
-      <c r="BW4" s="1">
-        <v>1.39410746E-4</v>
-      </c>
-      <c r="BX4" s="1">
-        <v>1.14638917E-4</v>
-      </c>
-      <c r="BY4" s="1">
-        <v>9.4369461000000005E-5</v>
-      </c>
-      <c r="BZ4" s="1">
-        <v>8.0203735899999999E-5</v>
-      </c>
-      <c r="CA4" s="1">
-        <v>6.97797544E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.127126079</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.116232632</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>3.7234330000000003E-2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>3.0082649999999999E-2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>69</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.117957812</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.114956139</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6">
-        <v>3.4670409999999999E-2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6">
-        <v>2.9960420000000001E-2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0.15755301999999999</v>
-      </c>
-      <c r="M6">
-        <v>0.10954996</v>
-      </c>
-      <c r="N6">
-        <v>5.4940700000000002E-3</v>
-      </c>
-      <c r="O6">
-        <v>2.1138549999999999E-2</v>
-      </c>
-      <c r="P6">
-        <v>3.7234330000000003E-2</v>
-      </c>
-      <c r="Q6">
-        <v>1.6507259999999999E-2</v>
-      </c>
-      <c r="R6">
-        <v>1.314772E-2</v>
-      </c>
-      <c r="S6">
-        <v>5.8956599999999996E-3</v>
-      </c>
-      <c r="T6">
-        <v>2.4848700000000001E-3</v>
-      </c>
-      <c r="U6">
-        <v>1.6792999999999999E-2</v>
-      </c>
-      <c r="V6">
-        <v>2.4716060000000002E-2</v>
-      </c>
-      <c r="W6">
-        <v>1.742879E-2</v>
-      </c>
-      <c r="X6">
-        <v>1.553325E-2</v>
-      </c>
-      <c r="Y6">
-        <v>3.9078460000000002E-2</v>
-      </c>
-      <c r="Z6">
-        <v>6.084527E-2</v>
-      </c>
-      <c r="AA6">
-        <v>3.4670409999999999E-2</v>
-      </c>
-      <c r="AB6">
-        <v>2.0363530000000001E-2</v>
-      </c>
-      <c r="AC6">
-        <v>5.7111499999999999E-3</v>
-      </c>
-      <c r="AD6">
-        <v>6.6751700000000002E-3</v>
-      </c>
-      <c r="AE6">
-        <v>1.9291849999999999E-2</v>
-      </c>
-      <c r="AF6">
-        <v>1.544855E-2</v>
-      </c>
-      <c r="AG6">
-        <v>1.412156E-2</v>
-      </c>
-      <c r="AH6">
-        <v>9.7882000000000004E-3</v>
-      </c>
-      <c r="AI6">
-        <v>3.3872500000000001E-3</v>
-      </c>
-      <c r="AJ6">
-        <v>2.6181070000000001E-2</v>
-      </c>
-      <c r="AK6">
-        <v>1.0539649999999999E-2</v>
-      </c>
-      <c r="AL6">
-        <v>1.617675E-2</v>
-      </c>
-      <c r="AM6">
-        <v>1.5773180000000001E-2</v>
-      </c>
-      <c r="AN6">
-        <v>1.079395E-2</v>
-      </c>
-      <c r="AO6">
-        <v>2.3515899999999999E-2</v>
-      </c>
-      <c r="AP6">
-        <v>5.8510300000000001E-3</v>
-      </c>
-      <c r="AQ6">
-        <v>1.8901520000000002E-2</v>
-      </c>
-      <c r="AR6">
-        <v>1.5668029999999999E-2</v>
-      </c>
-      <c r="AS6">
-        <v>1.072648E-2</v>
-      </c>
-      <c r="AT6">
-        <v>2.415577E-2</v>
-      </c>
-      <c r="AU6">
-        <v>9.4468E-3</v>
-      </c>
-      <c r="AV6">
-        <v>1.4347169999999999E-2</v>
-      </c>
-      <c r="AW6">
-        <v>1.4270359999999999E-2</v>
-      </c>
-      <c r="AX6">
-        <v>1.2340769999999999E-2</v>
-      </c>
-      <c r="AY6">
-        <v>8.0322799999999993E-3</v>
-      </c>
-      <c r="AZ6">
-        <v>6.1968099999999996E-3</v>
-      </c>
-      <c r="BA6">
-        <v>2.788436E-2</v>
-      </c>
-      <c r="BB6">
-        <v>1.671951E-2</v>
-      </c>
-      <c r="BC6">
-        <v>1.6541150000000001E-2</v>
-      </c>
-      <c r="BD6">
-        <v>1.300188E-2</v>
-      </c>
-      <c r="BE6">
-        <v>1.0077630000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.113047626</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.10208099700000001</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7">
-        <v>2.788436E-2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7">
-        <v>2.7931979999999999E-2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U7" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W7" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>69</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.8644848600000001E-3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.0949185299999999E-3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8">
-        <v>2.6181070000000001E-2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8">
-        <v>2.6865400000000001E-2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>7.5096670000000004E-2</v>
-      </c>
-      <c r="M8">
-        <v>0.18647342</v>
-      </c>
-      <c r="N8">
-        <v>8.3946999999999997E-3</v>
-      </c>
-      <c r="O8">
-        <v>2.1682460000000001E-2</v>
-      </c>
-      <c r="P8">
-        <v>3.6779470000000002E-2</v>
-      </c>
-      <c r="Q8">
-        <v>1.4981919999999999E-2</v>
-      </c>
-      <c r="R8">
-        <v>1.3836060000000001E-2</v>
-      </c>
-      <c r="S8">
-        <v>6.1700899999999996E-3</v>
-      </c>
-      <c r="T8">
-        <v>2.7707500000000002E-3</v>
-      </c>
-      <c r="U8">
-        <v>1.999681E-2</v>
-      </c>
-      <c r="V8">
-        <v>3.0082649999999999E-2</v>
-      </c>
-      <c r="W8">
-        <v>1.9186249999999998E-2</v>
-      </c>
-      <c r="X8">
-        <v>1.6771109999999999E-2</v>
-      </c>
-      <c r="Y8">
-        <v>2.324551E-2</v>
-      </c>
-      <c r="Z8">
-        <v>2.7931979999999999E-2</v>
-      </c>
-      <c r="AA8">
-        <v>3.165192E-2</v>
-      </c>
-      <c r="AB8">
-        <v>1.8936060000000001E-2</v>
-      </c>
-      <c r="AC8">
-        <v>7.0489200000000002E-3</v>
-      </c>
-      <c r="AD8">
-        <v>7.2900100000000004E-3</v>
-      </c>
-      <c r="AE8">
-        <v>2.4524730000000002E-2</v>
-      </c>
-      <c r="AF8">
-        <v>1.9878549999999998E-2</v>
-      </c>
-      <c r="AG8">
-        <v>1.674032E-2</v>
-      </c>
-      <c r="AH8">
-        <v>7.2343800000000003E-3</v>
-      </c>
-      <c r="AI8">
-        <v>3.8722700000000001E-3</v>
-      </c>
-      <c r="AJ8">
-        <v>2.9960420000000001E-2</v>
-      </c>
-      <c r="AK8">
-        <v>1.149357E-2</v>
-      </c>
-      <c r="AL8">
-        <v>2.1170000000000001E-2</v>
-      </c>
-      <c r="AM8">
-        <v>1.5644729999999999E-2</v>
-      </c>
-      <c r="AN8">
-        <v>1.561885E-2</v>
-      </c>
-      <c r="AO8">
-        <v>1.4784759999999999E-2</v>
-      </c>
-      <c r="AP8">
-        <v>1.203102E-2</v>
-      </c>
-      <c r="AQ8">
-        <v>2.051478E-2</v>
-      </c>
-      <c r="AR8">
-        <v>1.7936569999999999E-2</v>
-      </c>
-      <c r="AS8">
-        <v>1.65118E-2</v>
-      </c>
-      <c r="AT8">
-        <v>2.6865400000000001E-2</v>
-      </c>
-      <c r="AU8">
-        <v>1.2127860000000001E-2</v>
-      </c>
-      <c r="AV8">
-        <v>1.4952729999999999E-2</v>
-      </c>
-      <c r="AW8">
-        <v>1.2981680000000001E-2</v>
-      </c>
-      <c r="AX8">
-        <v>1.1617219999999999E-2</v>
-      </c>
-      <c r="AY8">
-        <v>1.0139280000000001E-2</v>
-      </c>
-      <c r="AZ8">
-        <v>7.6792900000000001E-3</v>
-      </c>
-      <c r="BA8">
-        <v>2.578358E-2</v>
-      </c>
-      <c r="BB8">
-        <v>2.0362120000000001E-2</v>
-      </c>
-      <c r="BC8">
-        <v>1.7330729999999999E-2</v>
-      </c>
-      <c r="BD8">
-        <v>1.1233450000000001E-2</v>
-      </c>
-      <c r="BE8">
-        <v>1.2683150000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>9.06909248E-4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8.1230009100000003E-4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9">
-        <v>2.4716060000000002E-2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9">
-        <v>2.578358E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>7.5492507099999997E-4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7.2116026200000002E-4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10">
-        <v>2.415577E-2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10">
-        <v>2.4524730000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3.6654844199999998E-4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6.7357086699999997E-4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11">
-        <v>2.3515899999999999E-2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11">
-        <v>2.324551E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3.46725959E-4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4.5091996299999998E-4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12">
-        <v>2.1138549999999999E-2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <v>2.1682460000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2.8743024700000002E-4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.3184457800000001E-4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13">
-        <v>2.0363530000000001E-2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13">
-        <v>2.1170000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2.1089904200000001E-4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2.13867927E-4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14">
-        <v>1.9291849999999999E-2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14">
-        <v>2.051478E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2.0923423700000001E-4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2.0756957399999999E-4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15">
-        <v>1.8901520000000002E-2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15">
-        <v>2.0362120000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1.9287311899999999E-4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2.0249076300000001E-4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16">
-        <v>1.742879E-2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16">
-        <v>1.999681E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.8502957699999999E-4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.86154727E-4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>1.6792999999999999E-2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17">
-        <v>1.9878549999999998E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1.7108418900000001E-4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.6775253800000001E-4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18">
-        <v>1.671951E-2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18">
-        <v>1.9186249999999998E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1.66939078E-4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.6630280600000001E-4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19">
-        <v>1.6541150000000001E-2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19">
-        <v>1.8936060000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.6187206999999999E-4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.6303043299999999E-4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20">
-        <v>1.6507259999999999E-2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20">
-        <v>1.7936569999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.4229752500000001E-4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.6248361099999999E-4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21">
-        <v>1.617675E-2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21">
-        <v>1.7330729999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.4109997199999999E-4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.5044897300000001E-4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22">
-        <v>1.5773180000000001E-2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22">
-        <v>1.6771109999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1.40526673E-4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1.4111919800000001E-4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23">
-        <v>1.5668029999999999E-2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23">
-        <v>1.674032E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1.3469159699999999E-4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.39410746E-4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24">
-        <v>1.553325E-2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24">
-        <v>1.65118E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1.31677446E-4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.3316155900000001E-4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25">
-        <v>1.544855E-2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25">
-        <v>1.5644729999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1.31261258E-4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1.2807953900000001E-4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26">
-        <v>1.4347169999999999E-2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26">
-        <v>1.561885E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1.2988987099999999E-4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1.2565694900000001E-4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27">
-        <v>1.4270359999999999E-2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27">
-        <v>1.4981919999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1.27814874E-4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1.25517165E-4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28">
-        <v>1.412156E-2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28">
-        <v>1.4952729999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1.2702445000000001E-4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1.2503637599999999E-4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29">
-        <v>1.314772E-2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29">
-        <v>1.4784759999999999E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1.2421759700000001E-4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1.1853115E-4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30">
-        <v>1.300188E-2</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30">
-        <v>1.3836060000000001E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1.22746447E-4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1.1755281E-4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31">
-        <v>1.2340769999999999E-2</v>
-      </c>
-      <c r="G31" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31">
-        <v>1.2981680000000001E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1.1175088500000001E-4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.16187704E-4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32">
-        <v>1.079395E-2</v>
-      </c>
-      <c r="G32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32">
-        <v>1.2683150000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1.09519453E-4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1.14638917E-4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33">
-        <v>1.072648E-2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33">
-        <v>1.2127860000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1.0831694699999999E-4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1.0780492800000001E-4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34">
-        <v>1.0539649999999999E-2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H34">
-        <v>1.203102E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1.05848236E-4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1.02728423E-4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35">
-        <v>1.0077630000000001E-2</v>
-      </c>
-      <c r="G35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35">
-        <v>1.1617219999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1.01422218E-4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="1">
-        <v>9.9424451999999999E-5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36">
-        <v>9.7882000000000004E-3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36">
-        <v>1.149357E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="1">
-        <v>9.7762061699999998E-5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="1">
-        <v>9.4369461000000005E-5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37">
-        <v>9.4468E-3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37">
-        <v>1.1233450000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="1">
-        <v>9.5562273299999999E-5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="1">
-        <v>9.4178652000000002E-5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38">
-        <v>8.0322799999999993E-3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H38">
-        <v>1.0139280000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="1">
-        <v>8.9126013399999995E-5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="1">
-        <v>9.3498239700000007E-5</v>
-      </c>
-      <c r="E39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39">
-        <v>6.6751700000000002E-3</v>
-      </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39">
-        <v>8.3946999999999997E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="1">
-        <v>8.8744158799999994E-5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="1">
-        <v>9.2883349900000004E-5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40">
-        <v>6.1968099999999996E-3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40">
-        <v>7.6792900000000001E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="1">
-        <v>8.7296964299999998E-5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="1">
-        <v>8.8789301900000001E-5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41">
-        <v>5.8956599999999996E-3</v>
-      </c>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41">
-        <v>7.2900100000000004E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="1">
-        <v>8.6592991799999997E-5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="1">
-        <v>8.6982948400000001E-5</v>
-      </c>
-      <c r="E42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42">
-        <v>5.8510300000000001E-3</v>
-      </c>
-      <c r="G42" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42">
-        <v>7.2343800000000003E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="1">
-        <v>8.4468200500000004E-5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="1">
-        <v>8.4037879399999999E-5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43">
-        <v>5.7111499999999999E-3</v>
-      </c>
-      <c r="G43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43">
-        <v>7.0489200000000002E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="1">
-        <v>8.41437482E-5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="1">
-        <v>8.0264538500000006E-5</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44">
-        <v>5.4940700000000002E-3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44">
-        <v>6.1700899999999996E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="1">
-        <v>8.1868774099999998E-5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="1">
-        <v>8.0203735899999999E-5</v>
-      </c>
-      <c r="E45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45">
-        <v>3.3872500000000001E-3</v>
-      </c>
-      <c r="G45" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45">
-        <v>3.8722700000000001E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="1">
-        <v>7.7227006100000006E-5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="1">
-        <v>7.3443049800000002E-5</v>
-      </c>
-      <c r="E46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46">
-        <v>2.4848700000000001E-3</v>
-      </c>
-      <c r="G46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46">
-        <v>2.7707500000000002E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="1">
-        <v>7.4790482099999997E-5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="1">
-        <v>7.2300967500000006E-5</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="1">
-        <v>7.4419784899999996E-5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="1">
-        <v>7.1658660500000001E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="1">
-        <v>7.1971692800000005E-5</v>
-      </c>
-      <c r="C49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="1">
-        <v>7.0618411000000005E-5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="1">
-        <v>6.9594667000000003E-5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="1">
-        <v>6.97797544E-5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="1">
-        <v>6.8742937700000005E-5</v>
-      </c>
-      <c r="C51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="1">
-        <v>6.4660643300000001E-5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="1">
-        <v>6.8302491399999994E-5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="1">
-        <v>6.3447579700000003E-5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="1">
-        <v>6.7144631299999994E-5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="1">
-        <v>6.3279700900000001E-5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="1">
-        <v>6.70122777E-5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="1">
-        <v>5.0427244100000003E-5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="1">
-        <v>6.0233492299999998E-5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="1">
-        <v>4.7029672699999999E-5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="1">
-        <v>5.1737861200000001E-5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="1">
-        <v>4.5831357499999997E-5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="1">
-        <v>4.8632713999999998E-5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="1">
-        <v>4.3175141600000001E-5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="1">
-        <v>4.6312675200000003E-5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="1">
-        <v>4.2904706499999997E-5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="1">
-        <v>4.3909920099999997E-5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="1">
-        <v>3.9796584000000001E-5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="1">
-        <v>4.2469948000000003E-5</v>
-      </c>
-      <c r="C60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="1">
-        <v>3.6751423600000001E-5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="1">
-        <v>3.8842138299999997E-5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="1">
-        <v>3.6250719300000002E-5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="1">
-        <v>3.5335152400000002E-5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="1">
-        <v>3.3601848399999998E-5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="1">
-        <v>3.0893852999999997E-5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="1">
-        <v>2.6450110999999999E-5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="1">
-        <v>2.9081371900000001E-5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="1">
-        <v>2.33614909E-5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="1">
-        <v>2.18695447E-5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="1">
-        <v>2.05345528E-5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="1">
-        <v>1.1413420599999999E-5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="1">
-        <v>8.0184127700000005E-6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="1">
-        <v>1.00058637E-5</v>
-      </c>
-      <c r="C67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" s="1">
-        <v>6.9162027199999997E-6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="1">
-        <v>9.4381420700000007E-6</v>
-      </c>
-      <c r="C68" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="1">
-        <v>6.3911871800000004E-6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="1">
-        <v>3.4129009300000002E-6</v>
-      </c>
-      <c r="C69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="1">
-        <v>2.4084241199999999E-6</v>
+      <c r="D72" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72" si="45">E72*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73:F75" si="46">E73*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="46"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="46"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ref="F76" si="47">E76*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77" si="48">E77*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ref="F78" si="49">E78*10-10</f>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="G1:H69">
-    <sortCondition descending="1" ref="H1:H69"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result/201612.xlsx
+++ b/result/201612.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="8"/>
+    <workbookView xWindow="12780" yWindow="120" windowWidth="11652" windowHeight="6036" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="134">
   <si>
     <t>seoul</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,138 @@
   <si>
     <t>②④①1088</t>
   </si>
+  <si>
+    <t>1,5,9,6,8,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,3,9,1,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,2,4,5,8,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,10,3,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,1,11,5,6,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,10,5,9,7,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,8,6,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,5,3,11,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,6,5,10,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,6,3,5,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,2,4,6,7,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,9,4,7,1,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7,2,8,10,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2,1,5,8,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,12,11,2,3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,5,1,4,6,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,6,3,9,5,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,3,10,6,8,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,12,3,6,8,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑨⑧① 50.2</t>
+  </si>
+  <si>
+    <t>⑤①④ 255.4</t>
+  </si>
+  <si>
+    <t>⑦⑤② 151.9</t>
+  </si>
+  <si>
+    <t>③①⑥ 1527.3</t>
+  </si>
+  <si>
+    <t>⑤①② 407.3</t>
+  </si>
+  <si>
+    <t>⑦⑤⑥ 50.3</t>
+  </si>
+  <si>
+    <t>⑦⑥④ 382.6</t>
+  </si>
+  <si>
+    <t>④⑨⑩ 77.2</t>
+  </si>
+  <si>
+    <t>③②⑫ 264.1</t>
+  </si>
+  <si>
+    <t>④②⑦ 228.9</t>
+  </si>
+  <si>
+    <t>②③⑦ 174.6</t>
+  </si>
+  <si>
+    <t>②⑥⑧ 172.6</t>
+  </si>
+  <si>
+    <t>⑤⑦① 488.2</t>
+  </si>
+  <si>
+    <t>②④⑨ 36.1</t>
+  </si>
+  <si>
+    <t>⑪④⑦ 326.2</t>
+  </si>
+  <si>
+    <t>⑦⑩⑪ 116.9</t>
+  </si>
 </sst>
 </file>
 
@@ -342,7 +474,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,13 +490,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF444444"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -381,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,6 +540,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,23 +869,23 @@
       <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
-    <col min="9" max="9" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="9" max="9" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.625" customWidth="1"/>
+    <col min="14" max="14" width="6.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +907,7 @@
         <v>-51.341666666666669</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -781,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>4</v>
       </c>
@@ -815,7 +981,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>12</v>
       </c>
@@ -849,7 +1015,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>7</v>
       </c>
@@ -877,7 +1043,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>9</v>
       </c>
@@ -905,7 +1071,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -927,7 +1093,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -967,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1001,7 +1167,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1035,7 +1201,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -1063,7 +1229,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>4</v>
       </c>
@@ -1091,7 +1257,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -1113,7 +1279,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1153,7 +1319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>6</v>
       </c>
@@ -1187,7 +1353,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>7</v>
       </c>
@@ -1221,7 +1387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>4</v>
       </c>
@@ -1249,7 +1415,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>3</v>
       </c>
@@ -1277,7 +1443,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -1299,7 +1465,7 @@
         <v>27.458333333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1339,7 +1505,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>7</v>
       </c>
@@ -1373,7 +1539,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
@@ -1407,7 +1573,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>8</v>
       </c>
@@ -1435,7 +1601,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>10</v>
       </c>
@@ -1463,7 +1629,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -1485,7 +1651,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1525,7 +1691,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>2</v>
       </c>
@@ -1559,7 +1725,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>3</v>
       </c>
@@ -1593,7 +1759,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>5</v>
       </c>
@@ -1621,7 +1787,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>7</v>
       </c>
@@ -1649,7 +1815,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -1671,7 +1837,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>6</v>
       </c>
@@ -1711,7 +1877,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>10</v>
       </c>
@@ -1745,7 +1911,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>4</v>
       </c>
@@ -1779,7 +1945,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>5</v>
       </c>
@@ -1807,7 +1973,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>1</v>
       </c>
@@ -1835,7 +2001,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -1857,7 +2023,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1897,7 +2063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B45">
         <v>9</v>
       </c>
@@ -1931,7 +2097,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B46">
         <v>4</v>
       </c>
@@ -1965,7 +2131,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>3</v>
       </c>
@@ -1993,7 +2159,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>5</v>
       </c>
@@ -2021,7 +2187,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -2043,7 +2209,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>8</v>
       </c>
@@ -2083,7 +2249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>3</v>
       </c>
@@ -2117,7 +2283,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>4</v>
       </c>
@@ -2151,7 +2317,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>6</v>
       </c>
@@ -2179,7 +2345,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>2</v>
       </c>
@@ -2207,7 +2373,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -2229,7 +2395,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>9</v>
       </c>
@@ -2269,7 +2435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B59">
         <v>1</v>
       </c>
@@ -2303,7 +2469,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>6</v>
       </c>
@@ -2337,7 +2503,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>2</v>
       </c>
@@ -2365,7 +2531,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>8</v>
       </c>
@@ -2393,7 +2559,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -2415,7 +2581,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>10</v>
       </c>
@@ -2455,7 +2621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>6</v>
       </c>
@@ -2489,7 +2655,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>1</v>
       </c>
@@ -2523,7 +2689,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>2</v>
       </c>
@@ -2551,7 +2717,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B69">
         <v>3</v>
       </c>
@@ -2579,7 +2745,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -2601,7 +2767,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>11</v>
       </c>
@@ -2641,7 +2807,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B73">
         <v>4</v>
       </c>
@@ -2675,7 +2841,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B74">
         <v>5</v>
       </c>
@@ -2709,7 +2875,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B75">
         <v>2</v>
       </c>
@@ -2737,7 +2903,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B76">
         <v>10</v>
       </c>
@@ -2765,7 +2931,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -2787,7 +2953,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>12</v>
       </c>
@@ -2827,7 +2993,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B80">
         <v>10</v>
       </c>
@@ -2861,7 +3027,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B81">
         <v>12</v>
       </c>
@@ -2895,7 +3061,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B82">
         <v>8</v>
       </c>
@@ -2923,7 +3089,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B83">
         <v>9</v>
       </c>
@@ -2951,7 +3117,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D84" t="s">
         <v>6</v>
       </c>
@@ -2988,9 +3154,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3223,7 +3389,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -3458,7 +3624,7 @@
         <v>8.1868774099999998E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -3691,7 +3857,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -3924,7 +4090,7 @@
         <v>6.97797544E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -4091,7 +4257,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -4258,7 +4424,7 @@
         <v>1.0077630000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4425,7 +4591,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4592,7 +4758,7 @@
         <v>1.2683150000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4618,7 +4784,7 @@
         <v>2.578358E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4644,7 +4810,7 @@
         <v>2.4524730000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4670,7 +4836,7 @@
         <v>2.324551E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -4696,7 +4862,7 @@
         <v>2.1682460000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4722,7 +4888,7 @@
         <v>2.1170000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4748,7 +4914,7 @@
         <v>2.051478E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -4774,7 +4940,7 @@
         <v>2.0362120000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -4800,7 +4966,7 @@
         <v>1.999681E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -4826,7 +4992,7 @@
         <v>1.9878549999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -4852,7 +5018,7 @@
         <v>1.9186249999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4878,7 +5044,7 @@
         <v>1.8936060000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -4904,7 +5070,7 @@
         <v>1.7936569999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -4930,7 +5096,7 @@
         <v>1.7330729999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -4956,7 +5122,7 @@
         <v>1.6771109999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -4982,7 +5148,7 @@
         <v>1.674032E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -5008,7 +5174,7 @@
         <v>1.65118E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -5034,7 +5200,7 @@
         <v>1.5644729999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5060,7 +5226,7 @@
         <v>1.561885E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -5086,7 +5252,7 @@
         <v>1.4981919999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -5112,7 +5278,7 @@
         <v>1.4952729999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -5138,7 +5304,7 @@
         <v>1.4784759999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -5164,7 +5330,7 @@
         <v>1.3836060000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -5190,7 +5356,7 @@
         <v>1.2981680000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -5216,7 +5382,7 @@
         <v>1.2683150000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -5242,7 +5408,7 @@
         <v>1.2127860000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -5268,7 +5434,7 @@
         <v>1.203102E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -5294,7 +5460,7 @@
         <v>1.1617219999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -5320,7 +5486,7 @@
         <v>1.149357E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -5346,7 +5512,7 @@
         <v>1.1233450000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -5372,7 +5538,7 @@
         <v>1.0139280000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -5398,7 +5564,7 @@
         <v>8.3946999999999997E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -5424,7 +5590,7 @@
         <v>7.6792900000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -5450,7 +5616,7 @@
         <v>7.2900100000000004E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -5476,7 +5642,7 @@
         <v>7.2343800000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -5502,7 +5668,7 @@
         <v>7.0489200000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -5528,7 +5694,7 @@
         <v>6.1700899999999996E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -5554,7 +5720,7 @@
         <v>3.8722700000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -5580,7 +5746,7 @@
         <v>2.7707500000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -5606,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -5620,7 +5786,7 @@
         <v>7.1658660500000001E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -5634,7 +5800,7 @@
         <v>7.0618411000000005E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -5648,7 +5814,7 @@
         <v>6.97797544E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -5662,7 +5828,7 @@
         <v>6.4660643300000001E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -5676,7 +5842,7 @@
         <v>6.3447579700000003E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -5690,7 +5856,7 @@
         <v>6.3279700900000001E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -5704,7 +5870,7 @@
         <v>5.0427244100000003E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -5718,7 +5884,7 @@
         <v>4.7029672699999999E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -5732,7 +5898,7 @@
         <v>4.5831357499999997E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -5746,7 +5912,7 @@
         <v>4.3175141600000001E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -5760,7 +5926,7 @@
         <v>4.2904706499999997E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -5774,7 +5940,7 @@
         <v>3.9796584000000001E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -5788,7 +5954,7 @@
         <v>3.6751423600000001E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -5802,7 +5968,7 @@
         <v>3.6250719300000002E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -5816,7 +5982,7 @@
         <v>3.3601848399999998E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -5830,7 +5996,7 @@
         <v>2.6450110999999999E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -5844,7 +6010,7 @@
         <v>2.33614909E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -5858,7 +6024,7 @@
         <v>2.05345528E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -5872,7 +6038,7 @@
         <v>8.0184127700000005E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -5886,7 +6052,7 @@
         <v>6.9162027199999997E-6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -5900,7 +6066,7 @@
         <v>6.3911871800000004E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -5932,17 +6098,17 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5954,7 +6120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5975,7 +6141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>6</v>
       </c>
@@ -5993,7 +6159,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -6011,7 +6177,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -6029,7 +6195,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>8</v>
       </c>
@@ -6047,7 +6213,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -6059,7 +6225,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6080,7 +6246,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>13</v>
       </c>
@@ -6098,7 +6264,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>11</v>
       </c>
@@ -6116,7 +6282,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -6134,7 +6300,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>3</v>
       </c>
@@ -6152,7 +6318,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -6164,7 +6330,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -6185,7 +6351,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>7</v>
       </c>
@@ -6203,7 +6369,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>13</v>
       </c>
@@ -6221,7 +6387,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>4</v>
       </c>
@@ -6239,7 +6405,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>9</v>
       </c>
@@ -6257,7 +6423,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -6269,7 +6435,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -6290,7 +6456,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
@@ -6308,7 +6474,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>12</v>
       </c>
@@ -6326,7 +6492,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>7</v>
       </c>
@@ -6344,7 +6510,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>11</v>
       </c>
@@ -6362,7 +6528,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -6374,7 +6540,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -6395,7 +6561,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>1</v>
       </c>
@@ -6413,7 +6579,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>12</v>
       </c>
@@ -6431,7 +6597,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>2</v>
       </c>
@@ -6449,7 +6615,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>5</v>
       </c>
@@ -6467,7 +6633,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -6479,7 +6645,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>6</v>
       </c>
@@ -6500,7 +6666,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>7</v>
       </c>
@@ -6518,7 +6684,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>6</v>
       </c>
@@ -6536,7 +6702,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>3</v>
       </c>
@@ -6554,7 +6720,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>2</v>
       </c>
@@ -6572,7 +6738,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -6584,7 +6750,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>7</v>
       </c>
@@ -6605,7 +6771,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B45">
         <v>1</v>
       </c>
@@ -6623,7 +6789,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B46">
         <v>6</v>
       </c>
@@ -6641,7 +6807,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>3</v>
       </c>
@@ -6659,7 +6825,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>5</v>
       </c>
@@ -6677,7 +6843,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -6689,7 +6855,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>8</v>
       </c>
@@ -6710,7 +6876,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>4</v>
       </c>
@@ -6728,7 +6894,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>9</v>
       </c>
@@ -6746,7 +6912,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>7</v>
       </c>
@@ -6764,7 +6930,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>1</v>
       </c>
@@ -6782,7 +6948,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -6794,7 +6960,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>9</v>
       </c>
@@ -6815,7 +6981,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B59">
         <v>7</v>
       </c>
@@ -6833,7 +6999,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>10</v>
       </c>
@@ -6851,7 +7017,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>9</v>
       </c>
@@ -6869,7 +7035,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>6</v>
       </c>
@@ -6887,7 +7053,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -6899,7 +7065,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>10</v>
       </c>
@@ -6920,7 +7086,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>9</v>
       </c>
@@ -6938,7 +7104,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>10</v>
       </c>
@@ -6956,7 +7122,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>3</v>
       </c>
@@ -6974,7 +7140,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B69">
         <v>8</v>
       </c>
@@ -6992,7 +7158,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -7004,7 +7170,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>11</v>
       </c>
@@ -7025,7 +7191,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B73">
         <v>7</v>
       </c>
@@ -7043,7 +7209,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B74">
         <v>6</v>
       </c>
@@ -7061,7 +7227,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B75">
         <v>1</v>
       </c>
@@ -7079,7 +7245,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B76">
         <v>11</v>
       </c>
@@ -7097,7 +7263,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -7109,7 +7275,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>12</v>
       </c>
@@ -7130,7 +7296,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B80">
         <v>8</v>
       </c>
@@ -7148,7 +7314,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B81">
         <v>5</v>
       </c>
@@ -7166,7 +7332,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82">
         <v>9</v>
       </c>
@@ -7184,7 +7350,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83">
         <v>1</v>
       </c>
@@ -7202,7 +7368,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D84" t="s">
         <v>6</v>
       </c>
@@ -7230,23 +7396,23 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
-    <col min="9" max="9" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="9" max="9" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.625" customWidth="1"/>
+    <col min="14" max="14" width="6.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7258,7 +7424,7 @@
         <v>-53.116883116883123</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7279,7 +7445,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>5</v>
       </c>
@@ -7294,7 +7460,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>11</v>
       </c>
@@ -7309,7 +7475,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>83</v>
       </c>
@@ -7321,7 +7487,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>84</v>
       </c>
@@ -7333,7 +7499,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>85</v>
       </c>
@@ -7345,7 +7511,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>86</v>
       </c>
@@ -7357,7 +7523,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7378,7 +7544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>2</v>
       </c>
@@ -7393,7 +7559,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>4</v>
       </c>
@@ -7408,7 +7574,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>83</v>
       </c>
@@ -7420,7 +7586,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>84</v>
       </c>
@@ -7432,7 +7598,7 @@
         <v>-2.708333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>85</v>
       </c>
@@ -7444,7 +7610,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>86</v>
       </c>
@@ -7456,7 +7622,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7477,7 +7643,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>7</v>
       </c>
@@ -7492,7 +7658,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>6</v>
       </c>
@@ -7507,7 +7673,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>83</v>
       </c>
@@ -7519,7 +7685,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>84</v>
       </c>
@@ -7531,7 +7697,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>85</v>
       </c>
@@ -7543,7 +7709,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>86</v>
       </c>
@@ -7555,7 +7721,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -7576,7 +7742,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>11</v>
       </c>
@@ -7591,7 +7757,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>8</v>
       </c>
@@ -7606,7 +7772,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>83</v>
       </c>
@@ -7618,7 +7784,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>84</v>
       </c>
@@ -7630,7 +7796,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>85</v>
       </c>
@@ -7642,7 +7808,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>86</v>
       </c>
@@ -7654,7 +7820,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -7675,7 +7841,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>2</v>
       </c>
@@ -7690,7 +7856,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>1</v>
       </c>
@@ -7705,7 +7871,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>83</v>
       </c>
@@ -7717,7 +7883,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>84</v>
       </c>
@@ -7729,7 +7895,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>85</v>
       </c>
@@ -7741,7 +7907,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>86</v>
       </c>
@@ -7753,7 +7919,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -7774,7 +7940,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>6</v>
       </c>
@@ -7789,7 +7955,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>7</v>
       </c>
@@ -7804,7 +7970,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>83</v>
       </c>
@@ -7816,7 +7982,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>84</v>
       </c>
@@ -7828,7 +7994,7 @@
         <v>68.333333333333329</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>85</v>
       </c>
@@ -7840,7 +8006,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>86</v>
       </c>
@@ -7852,7 +8018,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -7873,7 +8039,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>10</v>
       </c>
@@ -7888,7 +8054,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>4</v>
       </c>
@@ -7903,7 +8069,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>83</v>
       </c>
@@ -7915,7 +8081,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>84</v>
       </c>
@@ -7927,7 +8093,7 @@
         <v>58.958333333333329</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>85</v>
       </c>
@@ -7939,7 +8105,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>86</v>
       </c>
@@ -7951,7 +8117,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -7972,7 +8138,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>3</v>
       </c>
@@ -7987,7 +8153,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>2</v>
       </c>
@@ -8002,7 +8168,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>83</v>
       </c>
@@ -8014,7 +8180,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>84</v>
       </c>
@@ -8026,7 +8192,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>85</v>
       </c>
@@ -8038,7 +8204,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>86</v>
       </c>
@@ -8050,7 +8216,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -8071,7 +8237,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>3</v>
       </c>
@@ -8086,7 +8252,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>9</v>
       </c>
@@ -8101,7 +8267,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>83</v>
       </c>
@@ -8113,7 +8279,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>84</v>
       </c>
@@ -8125,7 +8291,7 @@
         <v>77.708333333333329</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>85</v>
       </c>
@@ -8137,7 +8303,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>86</v>
       </c>
@@ -8149,7 +8315,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -8170,7 +8336,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>5</v>
       </c>
@@ -8185,7 +8351,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>7</v>
       </c>
@@ -8200,7 +8366,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>83</v>
       </c>
@@ -8212,7 +8378,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>84</v>
       </c>
@@ -8224,7 +8390,7 @@
         <v>-2.291666666666667</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>85</v>
       </c>
@@ -8236,7 +8402,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>86</v>
       </c>
@@ -8248,7 +8414,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -8269,7 +8435,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C73">
         <v>4</v>
       </c>
@@ -8284,7 +8450,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C74">
         <v>7</v>
       </c>
@@ -8299,7 +8465,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>83</v>
       </c>
@@ -8311,7 +8477,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>84</v>
       </c>
@@ -8323,7 +8489,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>85</v>
       </c>
@@ -8335,7 +8501,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>86</v>
       </c>
@@ -8347,7 +8513,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -8368,7 +8534,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C80">
         <v>9</v>
       </c>
@@ -8383,7 +8549,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C81">
         <v>12</v>
       </c>
@@ -8398,7 +8564,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D82" t="s">
         <v>83</v>
       </c>
@@ -8410,7 +8576,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D83" t="s">
         <v>84</v>
       </c>
@@ -8422,7 +8588,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D84" t="s">
         <v>85</v>
       </c>
@@ -8434,7 +8600,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D85" t="s">
         <v>86</v>
       </c>
@@ -8462,17 +8628,17 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8484,7 +8650,7 @@
         <v>-458</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8505,7 +8671,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>11</v>
       </c>
@@ -8523,7 +8689,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10</v>
       </c>
@@ -8541,7 +8707,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -8556,7 +8722,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -8571,7 +8737,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -8583,7 +8749,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8604,7 +8770,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -8622,7 +8788,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -8640,7 +8806,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>5</v>
       </c>
@@ -8655,7 +8821,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>6</v>
       </c>
@@ -8670,7 +8836,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -8682,7 +8848,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8703,7 +8869,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1</v>
       </c>
@@ -8721,7 +8887,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>7</v>
       </c>
@@ -8739,7 +8905,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>6</v>
       </c>
@@ -8754,7 +8920,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
@@ -8769,7 +8935,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -8781,7 +8947,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -8802,7 +8968,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>3</v>
       </c>
@@ -8820,7 +8986,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>11</v>
       </c>
@@ -8838,7 +9004,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>2</v>
       </c>
@@ -8853,7 +9019,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>4</v>
       </c>
@@ -8868,7 +9034,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -8880,7 +9046,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -8901,7 +9067,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>7</v>
       </c>
@@ -8919,7 +9085,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>8</v>
       </c>
@@ -8937,7 +9103,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>10</v>
       </c>
@@ -8952,7 +9118,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>3</v>
       </c>
@@ -8967,7 +9133,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -8979,7 +9145,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>6</v>
       </c>
@@ -9000,7 +9166,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>7</v>
       </c>
@@ -9018,7 +9184,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>5</v>
       </c>
@@ -9036,7 +9202,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>9</v>
       </c>
@@ -9051,7 +9217,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>1</v>
       </c>
@@ -9066,7 +9232,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -9078,7 +9244,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>7</v>
       </c>
@@ -9099,7 +9265,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B45">
         <v>10</v>
       </c>
@@ -9117,7 +9283,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B46">
         <v>4</v>
       </c>
@@ -9135,7 +9301,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>5</v>
       </c>
@@ -9150,7 +9316,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>7</v>
       </c>
@@ -9165,7 +9331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -9177,7 +9343,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>8</v>
       </c>
@@ -9198,7 +9364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>2</v>
       </c>
@@ -9216,7 +9382,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>1</v>
       </c>
@@ -9234,7 +9400,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>7</v>
       </c>
@@ -9249,7 +9415,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>4</v>
       </c>
@@ -9264,7 +9430,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -9276,7 +9442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>9</v>
       </c>
@@ -9297,7 +9463,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B59">
         <v>2</v>
       </c>
@@ -9315,7 +9481,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>16</v>
       </c>
@@ -9333,7 +9499,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>12</v>
       </c>
@@ -9348,7 +9514,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>3</v>
       </c>
@@ -9363,7 +9529,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -9375,7 +9541,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>10</v>
       </c>
@@ -9396,7 +9562,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>4</v>
       </c>
@@ -9414,7 +9580,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>6</v>
       </c>
@@ -9432,7 +9598,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>5</v>
       </c>
@@ -9447,7 +9613,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B69">
         <v>3</v>
       </c>
@@ -9462,7 +9628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -9474,7 +9640,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>11</v>
       </c>
@@ -9495,7 +9661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B73">
         <v>9</v>
       </c>
@@ -9513,7 +9679,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B74">
         <v>12</v>
       </c>
@@ -9531,7 +9697,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B75">
         <v>6</v>
       </c>
@@ -9546,7 +9712,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B76">
         <v>2</v>
       </c>
@@ -9561,7 +9727,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -9585,21 +9751,21 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9611,7 +9777,7 @@
         <v>-99.763528138528144</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9635,7 +9801,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>11</v>
       </c>
@@ -9653,7 +9819,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10</v>
       </c>
@@ -9671,7 +9837,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -9686,7 +9852,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -9701,7 +9867,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>85</v>
       </c>
@@ -9713,7 +9879,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>86</v>
       </c>
@@ -9725,7 +9891,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
@@ -9749,7 +9915,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -9767,7 +9933,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -9785,7 +9951,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>5</v>
       </c>
@@ -9800,7 +9966,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>6</v>
       </c>
@@ -9815,7 +9981,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>85</v>
       </c>
@@ -9827,7 +9993,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>86</v>
       </c>
@@ -9839,7 +10005,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3</v>
       </c>
@@ -9863,7 +10029,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1</v>
       </c>
@@ -9881,7 +10047,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>7</v>
       </c>
@@ -9899,7 +10065,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>6</v>
       </c>
@@ -9914,7 +10080,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
@@ -9929,7 +10095,7 @@
         <v>8.9583333333333321</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>85</v>
       </c>
@@ -9941,7 +10107,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>86</v>
       </c>
@@ -9953,7 +10119,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>4</v>
       </c>
@@ -9977,7 +10143,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>3</v>
       </c>
@@ -9995,7 +10161,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>11</v>
       </c>
@@ -10013,7 +10179,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>2</v>
       </c>
@@ -10028,7 +10194,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>4</v>
       </c>
@@ -10043,7 +10209,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>85</v>
       </c>
@@ -10055,7 +10221,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>86</v>
       </c>
@@ -10067,7 +10233,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -10091,7 +10257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>7</v>
       </c>
@@ -10109,7 +10275,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>8</v>
       </c>
@@ -10127,7 +10293,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>10</v>
       </c>
@@ -10142,7 +10308,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>3</v>
       </c>
@@ -10157,7 +10323,7 @@
         <v>18.333333333333332</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>85</v>
       </c>
@@ -10169,7 +10335,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>86</v>
       </c>
@@ -10181,7 +10347,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>6</v>
       </c>
@@ -10205,7 +10371,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>7</v>
       </c>
@@ -10223,7 +10389,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>5</v>
       </c>
@@ -10241,7 +10407,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>9</v>
       </c>
@@ -10256,7 +10422,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
@@ -10271,7 +10437,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>85</v>
       </c>
@@ -10283,7 +10449,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>86</v>
       </c>
@@ -10295,7 +10461,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>7</v>
       </c>
@@ -10316,7 +10482,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>10</v>
       </c>
@@ -10331,7 +10497,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>4</v>
       </c>
@@ -10346,7 +10512,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>5</v>
       </c>
@@ -10358,7 +10524,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>7</v>
       </c>
@@ -10370,7 +10536,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>85</v>
       </c>
@@ -10379,7 +10545,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>86</v>
       </c>
@@ -10388,7 +10554,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>8</v>
       </c>
@@ -10409,7 +10575,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>2</v>
       </c>
@@ -10424,7 +10590,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>1</v>
       </c>
@@ -10439,7 +10605,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>7</v>
       </c>
@@ -10451,7 +10617,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>4</v>
       </c>
@@ -10463,7 +10629,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
         <v>85</v>
       </c>
@@ -10472,7 +10638,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D57" t="s">
         <v>86</v>
       </c>
@@ -10481,7 +10647,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>9</v>
       </c>
@@ -10502,7 +10668,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B59">
         <v>2</v>
       </c>
@@ -10517,7 +10683,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>16</v>
       </c>
@@ -10532,7 +10698,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>12</v>
       </c>
@@ -10544,7 +10710,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>3</v>
       </c>
@@ -10556,7 +10722,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D63" t="s">
         <v>85</v>
       </c>
@@ -10565,7 +10731,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
         <v>86</v>
       </c>
@@ -10574,7 +10740,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>10</v>
       </c>
@@ -10595,7 +10761,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>4</v>
       </c>
@@ -10610,7 +10776,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>6</v>
       </c>
@@ -10625,7 +10791,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>5</v>
       </c>
@@ -10637,7 +10803,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B69">
         <v>3</v>
       </c>
@@ -10649,7 +10815,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D70" t="s">
         <v>85</v>
       </c>
@@ -10658,7 +10824,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D71" t="s">
         <v>86</v>
       </c>
@@ -10667,7 +10833,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>11</v>
       </c>
@@ -10688,7 +10854,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B73">
         <v>9</v>
       </c>
@@ -10703,7 +10869,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B74">
         <v>12</v>
       </c>
@@ -10718,7 +10884,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B75">
         <v>6</v>
       </c>
@@ -10730,7 +10896,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B76">
         <v>2</v>
       </c>
@@ -10742,7 +10908,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D77" t="s">
         <v>85</v>
       </c>
@@ -10751,7 +10917,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D78" t="s">
         <v>86</v>
       </c>
@@ -10777,35 +10943,35 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="8" max="8" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.5" customWidth="1"/>
-    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.625" customWidth="1"/>
-    <col min="15" max="15" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.59765625" customWidth="1"/>
+    <col min="15" max="15" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.5" customWidth="1"/>
-    <col min="18" max="18" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.625" customWidth="1"/>
-    <col min="22" max="22" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.59765625" customWidth="1"/>
+    <col min="22" max="22" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3.5" customWidth="1"/>
-    <col min="25" max="25" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.625" customWidth="1"/>
+    <col min="27" max="27" width="6.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -10847,7 +11013,7 @@
         <v>-365.47826086956525</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10941,7 +11107,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>8</v>
       </c>
@@ -11023,7 +11189,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10</v>
       </c>
@@ -11105,7 +11271,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6</v>
       </c>
@@ -11175,7 +11341,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>9</v>
       </c>
@@ -11245,7 +11411,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -11303,7 +11469,7 @@
         <v>-93.478260869565219</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -11381,7 +11547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5</v>
       </c>
@@ -11447,7 +11613,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -11513,7 +11679,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3</v>
       </c>
@@ -11567,7 +11733,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -11621,7 +11787,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -11663,7 +11829,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -11741,7 +11907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>4</v>
       </c>
@@ -11807,7 +11973,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1</v>
       </c>
@@ -11873,7 +12039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>8</v>
       </c>
@@ -11927,7 +12093,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
@@ -11981,7 +12147,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -12023,7 +12189,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -12101,7 +12267,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>8</v>
       </c>
@@ -12167,7 +12333,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2</v>
       </c>
@@ -12233,7 +12399,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>5</v>
       </c>
@@ -12287,7 +12453,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>4</v>
       </c>
@@ -12341,7 +12507,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -12383,7 +12549,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -12461,7 +12627,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>6</v>
       </c>
@@ -12527,7 +12693,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>10</v>
       </c>
@@ -12593,7 +12759,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>9</v>
       </c>
@@ -12647,7 +12813,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>4</v>
       </c>
@@ -12701,7 +12867,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -12743,7 +12909,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>6</v>
       </c>
@@ -12821,7 +12987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>2</v>
       </c>
@@ -12887,7 +13053,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>10</v>
       </c>
@@ -12953,7 +13119,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>1</v>
       </c>
@@ -13007,7 +13173,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>4</v>
       </c>
@@ -13061,7 +13227,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -13103,7 +13269,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>7</v>
       </c>
@@ -13181,7 +13347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B45">
         <v>7</v>
       </c>
@@ -13247,7 +13413,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B46">
         <v>1</v>
       </c>
@@ -13313,7 +13479,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>6</v>
       </c>
@@ -13367,7 +13533,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>5</v>
       </c>
@@ -13421,7 +13587,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -13463,7 +13629,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>8</v>
       </c>
@@ -13541,7 +13707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>5</v>
       </c>
@@ -13607,7 +13773,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>4</v>
       </c>
@@ -13673,7 +13839,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>10</v>
       </c>
@@ -13727,7 +13893,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>11</v>
       </c>
@@ -13781,7 +13947,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -13823,7 +13989,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>9</v>
       </c>
@@ -13901,7 +14067,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B59">
         <v>6</v>
       </c>
@@ -13967,7 +14133,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>4</v>
       </c>
@@ -14033,7 +14199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>3</v>
       </c>
@@ -14087,7 +14253,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>9</v>
       </c>
@@ -14141,7 +14307,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -14183,7 +14349,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>10</v>
       </c>
@@ -14261,7 +14427,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>5</v>
       </c>
@@ -14327,7 +14493,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>4</v>
       </c>
@@ -14393,7 +14559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>7</v>
       </c>
@@ -14447,7 +14613,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B69">
         <v>3</v>
       </c>
@@ -14501,7 +14667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -14543,7 +14709,7 @@
         <v>16.521739130434781</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>11</v>
       </c>
@@ -14621,7 +14787,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B73">
         <v>2</v>
       </c>
@@ -14687,7 +14853,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B74">
         <v>7</v>
       </c>
@@ -14753,7 +14919,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B75">
         <v>1</v>
       </c>
@@ -14807,7 +14973,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B76">
         <v>6</v>
       </c>
@@ -14861,7 +15027,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -14903,7 +15069,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>12</v>
       </c>
@@ -14981,7 +15147,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B80">
         <v>6</v>
       </c>
@@ -15047,7 +15213,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B81">
         <v>3</v>
       </c>
@@ -15113,7 +15279,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B82">
         <v>12</v>
       </c>
@@ -15167,7 +15333,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B83">
         <v>9</v>
       </c>
@@ -15221,7 +15387,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
       <c r="D84" t="s">
         <v>6</v>
       </c>
@@ -15279,18 +15445,18 @@
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.625" customWidth="1"/>
-    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" customWidth="1"/>
+    <col min="3" max="3" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="6.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -15302,7 +15468,7 @@
         <v>-626.20000000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15330,7 +15496,7 @@
         <v>-89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -15355,7 +15521,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>11</v>
       </c>
@@ -15380,7 +15546,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6</v>
       </c>
@@ -15402,7 +15568,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -15424,7 +15590,7 @@
         <v>-97.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>6</v>
       </c>
@@ -15440,7 +15606,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -15464,7 +15630,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5</v>
       </c>
@@ -15485,7 +15651,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3</v>
       </c>
@@ -15506,7 +15672,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -15524,7 +15690,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>7</v>
       </c>
@@ -15542,7 +15708,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>6</v>
       </c>
@@ -15554,7 +15720,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -15578,7 +15744,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>6</v>
       </c>
@@ -15599,7 +15765,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>9</v>
       </c>
@@ -15620,7 +15786,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>5</v>
       </c>
@@ -15638,7 +15804,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>4</v>
       </c>
@@ -15656,7 +15822,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>6</v>
       </c>
@@ -15668,7 +15834,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -15692,7 +15858,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>10</v>
       </c>
@@ -15713,7 +15879,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>9</v>
       </c>
@@ -15734,7 +15900,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>7</v>
       </c>
@@ -15752,7 +15918,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>2</v>
       </c>
@@ -15770,7 +15936,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>6</v>
       </c>
@@ -15782,7 +15948,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -15800,7 +15966,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C31">
         <v>7</v>
       </c>
@@ -15815,7 +15981,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C32">
         <v>10</v>
       </c>
@@ -15830,7 +15996,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C33">
         <v>3</v>
       </c>
@@ -15845,7 +16011,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C34">
         <v>9</v>
       </c>
@@ -15860,7 +16026,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
         <v>6</v>
       </c>
@@ -15872,7 +16038,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>6</v>
       </c>
@@ -15890,7 +16056,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C38">
         <v>7</v>
       </c>
@@ -15905,7 +16071,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C39">
         <v>10</v>
       </c>
@@ -15920,7 +16086,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C40">
         <v>3</v>
       </c>
@@ -15935,7 +16101,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C41">
         <v>9</v>
       </c>
@@ -15950,7 +16116,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E42" t="s">
         <v>6</v>
       </c>
@@ -15962,7 +16128,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>7</v>
       </c>
@@ -15980,7 +16146,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C45">
         <v>11</v>
       </c>
@@ -15995,7 +16161,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C46">
         <v>4</v>
       </c>
@@ -16010,7 +16176,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C47">
         <v>9</v>
       </c>
@@ -16025,7 +16191,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C48">
         <v>6</v>
       </c>
@@ -16040,7 +16206,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E49" t="s">
         <v>6</v>
       </c>
@@ -16052,7 +16218,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>8</v>
       </c>
@@ -16070,7 +16236,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C52">
         <v>9</v>
       </c>
@@ -16085,7 +16251,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C53">
         <v>2</v>
       </c>
@@ -16100,7 +16266,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C54">
         <v>3</v>
       </c>
@@ -16115,7 +16281,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C55">
         <v>7</v>
       </c>
@@ -16130,7 +16296,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E56" t="s">
         <v>6</v>
       </c>
@@ -16142,7 +16308,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>9</v>
       </c>
@@ -16160,7 +16326,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C59">
         <v>11</v>
       </c>
@@ -16175,7 +16341,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C60">
         <v>8</v>
       </c>
@@ -16190,7 +16356,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C61">
         <v>2</v>
       </c>
@@ -16205,7 +16371,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C62">
         <v>6</v>
       </c>
@@ -16220,7 +16386,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E63" t="s">
         <v>6</v>
       </c>
@@ -16232,7 +16398,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>10</v>
       </c>
@@ -16250,7 +16416,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C66">
         <v>4</v>
       </c>
@@ -16265,7 +16431,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C67">
         <v>2</v>
       </c>
@@ -16280,7 +16446,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C68">
         <v>5</v>
       </c>
@@ -16295,7 +16461,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C69">
         <v>7</v>
       </c>
@@ -16310,7 +16476,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E70" t="s">
         <v>6</v>
       </c>
@@ -16322,7 +16488,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>11</v>
       </c>
@@ -16340,7 +16506,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C73">
         <v>10</v>
       </c>
@@ -16355,7 +16521,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C74">
         <v>8</v>
       </c>
@@ -16370,7 +16536,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C75">
         <v>12</v>
       </c>
@@ -16385,7 +16551,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C76">
         <v>2</v>
       </c>
@@ -16400,7 +16566,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E77" t="s">
         <v>6</v>
       </c>
@@ -16430,15 +16596,15 @@
       <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.69921875" customWidth="1"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.59765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -17417,21 +17583,21 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.75" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.69921875" customWidth="1"/>
     <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.59765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -18376,917 +18542,2165 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C86"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.796875" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="F1">
-        <f>SUM(F2:F300)/7</f>
-        <v>-99.763528138528144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E1">
+        <f>SUM(E2:E300)/7</f>
+        <v>-150</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <f>SUM(J2:J300)/7</f>
+        <v>-150</v>
+      </c>
+      <c r="N1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>80</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>E2*10/55-10</f>
-        <v>-10</v>
-      </c>
-      <c r="H2">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
+        <f>D2*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="F2" s="2">
+        <f>E2+E9+E16+E23+E30+E37+E44+E51+E58+E65+E72+E79+E86+E93+E100</f>
+        <v>-150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>I2*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="K2" s="2">
+        <f>J2+J9+J16+J23+J30+J37+J44+J51+J58+J65+J72+J79+J86+J93+J100</f>
+        <v>-150</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
         <v>81</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f>E3*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+        <f>D3*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F8" si="0">E3+E10+E17+E24+E31+E38+E45+E52+E59+E66+E73+E80+E87+E94+E101</f>
+        <v>-150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>I3*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K8" si="1">J3+J10+J17+J24+J31+J38+J45+J52+J59+J66+J73+J80+J87+J94+J101</f>
+        <v>-150</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
         <v>82</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f>E4*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+        <f>D4*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>-150</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>I4*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
+        <v>-150</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
         <v>83</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f>E5*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
+        <f>D5*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>-150</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>I5*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>-150</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
         <v>84</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>E6*10/48-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
+        <f>D6*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>-150</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>I6*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>-150</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
         <v>85</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>E7*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
+        <f>D7*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>-150</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>I7*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>-150</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
         <v>86</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>E8*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <f>D8*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>-150</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>I8*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>-150</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>80</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9">
-        <v>73</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9" si="0">E9*10/55-10</f>
-        <v>3.2727272727272734</v>
+        <f t="shared" ref="E9" si="2">D9*10/55-10</f>
+        <v>-10</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9" si="3">I9*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
         <v>81</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F12" si="1">E10*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
+        <f t="shared" ref="E10:E12" si="4">D10*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J12" si="5">I10*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
         <v>82</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
         <v>83</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
         <v>84</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ref="F13" si="2">E13*10/48-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
+        <f t="shared" ref="E13" si="6">D13*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13" si="7">I13*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
         <v>85</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ref="F14" si="3">E14*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
+        <f t="shared" ref="E14" si="8">D14*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14" si="9">I14*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
         <v>86</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ref="F15" si="4">E15*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E15" si="10">D15*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15" si="11">I15*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
         <v>80</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ref="F16" si="5">E16*10/55-10</f>
+        <f t="shared" ref="E16" si="12">D16*10/55-10</f>
         <v>-10</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16" si="13">I16*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
         <v>81</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F19" si="6">E17*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
+        <f t="shared" ref="E17:E19" si="14">D17*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J19" si="15">I17*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="N17" s="4">
+        <f>(50+151+50+382)/60 - 12</f>
+        <v>-1.4499999999999993</v>
+      </c>
+      <c r="P17" s="4">
+        <f>172/60 - 4</f>
+        <v>-1.1333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
         <v>82</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
+        <f t="shared" si="14"/>
+        <v>-10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="15"/>
+        <v>-10</v>
+      </c>
+      <c r="N18" s="6">
+        <f>(50+151+50+382+77)/120-12</f>
+        <v>-6.083333333333333</v>
+      </c>
+      <c r="P18" s="6">
+        <f>(172+488)/120-4</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
         <v>83</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
+        <f t="shared" si="14"/>
+        <v>-10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="15"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
         <v>84</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
       <c r="E20">
-        <v>91</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ref="F20" si="7">E20*10/48-10</f>
-        <v>8.9583333333333321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
+        <f t="shared" ref="E20" si="16">D20*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20" si="17">I20*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
         <v>85</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ref="F21" si="8">E21*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
+        <f t="shared" ref="E21" si="18">D21*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21" si="19">I21*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
         <v>86</v>
       </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ref="F22" si="9">E22*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E22" si="20">D22*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22" si="21">I22*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>80</v>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
       <c r="E23">
-        <v>61</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ref="F23" si="10">E23*10/55-10</f>
-        <v>1.0909090909090917</v>
+        <f t="shared" ref="E23" si="22">D23*10/55-10</f>
+        <v>-10</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23" si="23">I23*10/55-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
         <v>81</v>
       </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ref="F24:F26" si="11">E24*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
+        <f t="shared" ref="E24:E26" si="24">D24*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:J26" si="25">I24*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
         <v>82</v>
       </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="11"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
+        <f t="shared" si="24"/>
+        <v>-10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="25"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
         <v>83</v>
       </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="11"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
+        <f t="shared" si="24"/>
+        <v>-10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="25"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
         <v>84</v>
       </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ref="F27" si="12">E27*10/48-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
+        <f t="shared" ref="E27" si="26">D27*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27" si="27">I27*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
         <v>85</v>
       </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ref="F28" si="13">E28*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
+        <f t="shared" ref="E28" si="28">D28*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28" si="29">I28*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
         <v>86</v>
       </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
       <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ref="F29" si="14">E29*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E29" si="30">D29*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29" si="31">I29*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s">
         <v>80</v>
       </c>
       <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ref="F30" si="15">E30*10/55-10</f>
+        <f t="shared" ref="E30" si="32">D30*10/55-10</f>
         <v>-10</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30" si="33">I30*10/55-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
         <v>81</v>
       </c>
       <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ref="F31:F33" si="16">E31*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
+        <f t="shared" ref="E31:E33" si="34">D31*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31:J33" si="35">I31*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
         <v>82</v>
       </c>
       <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="16"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
+        <f t="shared" si="34"/>
+        <v>-10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="35"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
         <v>83</v>
       </c>
       <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="16"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
+        <f t="shared" si="34"/>
+        <v>-10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="35"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
         <v>84</v>
       </c>
       <c r="E34">
-        <v>136</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ref="F34" si="17">E34*10/48-10</f>
-        <v>18.333333333333332</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
+        <f t="shared" ref="E34" si="36">D34*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34" si="37">I34*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
         <v>85</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ref="F35" si="18">E35*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
+        <f t="shared" ref="E35" si="38">D35*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35" si="39">I35*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
         <v>86</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ref="F36" si="19">E36*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E36" si="40">D36*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36" si="41">I36*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>6</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37" t="s">
         <v>80</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ref="F37" si="20">E37*10/55-10</f>
+        <f t="shared" ref="E37" si="42">D37*10/55-10</f>
         <v>-10</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ref="J37" si="43">I37*10/55-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
         <v>81</v>
       </c>
       <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ref="F38:F40" si="21">E38*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
+        <f t="shared" ref="E38:E40" si="44">D38*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38:J40" si="45">I38*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
         <v>82</v>
       </c>
       <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="21"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
+        <f t="shared" si="44"/>
+        <v>-10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="45"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
         <v>83</v>
       </c>
       <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="21"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
+        <f t="shared" si="44"/>
+        <v>-10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="45"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
         <v>84</v>
       </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <f t="shared" ref="F41" si="22">E41*10/48-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
+        <f t="shared" ref="E41" si="46">D41*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41" si="47">I41*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
         <v>85</v>
       </c>
       <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f t="shared" ref="F42" si="23">E42*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
+        <f t="shared" ref="E42" si="48">D42*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ref="J42" si="49">I42*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
         <v>86</v>
       </c>
       <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <f t="shared" ref="F43" si="24">E43*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E43" si="50">D43*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43" si="51">I43*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>7</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C44" t="s">
         <v>80</v>
       </c>
-      <c r="F44">
-        <f t="shared" ref="F44" si="25">E44*10/55-10</f>
+      <c r="E44">
+        <f t="shared" ref="E44" si="52">D44*10/55-10</f>
         <v>-10</v>
       </c>
       <c r="H44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ref="J44" si="53">I44*10/55-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
         <v>81</v>
       </c>
-      <c r="F45">
-        <f t="shared" ref="F45:F47" si="26">E45*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
+      <c r="E45">
+        <f t="shared" ref="E45:E47" si="54">D45*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45:J47" si="55">I45*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
         <v>82</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="26"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
+      <c r="E46">
+        <f t="shared" si="54"/>
+        <v>-10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="55"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
         <v>83</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="26"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D48" t="s">
+      <c r="E47">
+        <f t="shared" si="54"/>
+        <v>-10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="55"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C48" t="s">
         <v>84</v>
       </c>
-      <c r="F48">
-        <f t="shared" ref="F48" si="27">E48*10/48-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
+      <c r="E48">
+        <f t="shared" ref="E48" si="56">D48*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ref="J48" si="57">I48*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
         <v>85</v>
       </c>
-      <c r="F49">
-        <f t="shared" ref="F49" si="28">E49*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
+      <c r="E49">
+        <f t="shared" ref="E49" si="58">D49*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H49" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49" si="59">I49*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
         <v>86</v>
       </c>
-      <c r="F50">
-        <f t="shared" ref="F50" si="29">E50*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <f t="shared" ref="E50" si="60">D50*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>86</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ref="J50" si="61">I50*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>8</v>
       </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s">
         <v>80</v>
       </c>
-      <c r="F51">
-        <f t="shared" ref="F51" si="30">E51*10/55-10</f>
+      <c r="E51">
+        <f t="shared" ref="E51" si="62">D51*10/55-10</f>
         <v>-10</v>
       </c>
       <c r="H51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ref="J51" si="63">I51*10/55-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
         <v>81</v>
       </c>
-      <c r="F52">
-        <f t="shared" ref="F52:F54" si="31">E52*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
+      <c r="E52">
+        <f t="shared" ref="E52:E54" si="64">D52*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>81</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:J54" si="65">I52*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
         <v>82</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="31"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D54" t="s">
+      <c r="E53">
+        <f t="shared" si="64"/>
+        <v>-10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="65"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
         <v>83</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="31"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
+      <c r="E54">
+        <f t="shared" si="64"/>
+        <v>-10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>83</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="65"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
         <v>84</v>
       </c>
-      <c r="F55">
-        <f t="shared" ref="F55" si="32">E55*10/48-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
+      <c r="E55">
+        <f t="shared" ref="E55" si="66">D55*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>84</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ref="J55" si="67">I55*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
         <v>85</v>
       </c>
-      <c r="F56">
-        <f t="shared" ref="F56" si="33">E56*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
+      <c r="E56">
+        <f t="shared" ref="E56" si="68">D56*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H56" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ref="J56" si="69">I56*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
         <v>86</v>
       </c>
-      <c r="F57">
-        <f t="shared" ref="F57" si="34">E57*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <f t="shared" ref="E57" si="70">D57*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H57" t="s">
+        <v>86</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ref="J57" si="71">I57*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>9</v>
       </c>
-      <c r="D58" t="s">
+      <c r="C58" t="s">
         <v>80</v>
       </c>
-      <c r="F58">
-        <f t="shared" ref="F58" si="35">E58*10/55-10</f>
+      <c r="E58">
+        <f t="shared" ref="E58" si="72">D58*10/55-10</f>
         <v>-10</v>
       </c>
       <c r="H58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
+        <v>80</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ref="J58" si="73">I58*10/55-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C59" t="s">
         <v>81</v>
       </c>
-      <c r="F59">
-        <f t="shared" ref="F59:F61" si="36">E59*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
+      <c r="E59">
+        <f t="shared" ref="E59:E61" si="74">D59*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>81</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ref="J59:J61" si="75">I59*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C60" t="s">
         <v>82</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="36"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
+      <c r="E60">
+        <f t="shared" si="74"/>
+        <v>-10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>82</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="75"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
         <v>83</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="36"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D62" t="s">
+      <c r="E61">
+        <f t="shared" si="74"/>
+        <v>-10</v>
+      </c>
+      <c r="H61" t="s">
+        <v>83</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="75"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C62" t="s">
         <v>84</v>
       </c>
-      <c r="F62">
-        <f t="shared" ref="F62" si="37">E62*10/48-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D63" t="s">
+      <c r="E62">
+        <f t="shared" ref="E62" si="76">D62*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ref="J62" si="77">I62*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C63" t="s">
         <v>85</v>
       </c>
-      <c r="F63">
-        <f t="shared" ref="F63" si="38">E63*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D64" t="s">
+      <c r="E63">
+        <f t="shared" ref="E63" si="78">D63*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H63" t="s">
+        <v>85</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ref="J63" si="79">I63*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C64" t="s">
         <v>86</v>
       </c>
-      <c r="F64">
-        <f t="shared" ref="F64" si="39">E64*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <f t="shared" ref="E64" si="80">D64*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H64" t="s">
+        <v>86</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ref="J64" si="81">I64*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>10</v>
       </c>
-      <c r="D65" t="s">
+      <c r="C65" t="s">
         <v>80</v>
       </c>
-      <c r="F65">
-        <f t="shared" ref="F65" si="40">E65*10/55-10</f>
+      <c r="E65">
+        <f t="shared" ref="E65" si="82">D65*10/55-10</f>
         <v>-10</v>
       </c>
       <c r="H65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ref="J65" si="83">I65*10/55-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C66" t="s">
         <v>81</v>
       </c>
-      <c r="F66">
-        <f t="shared" ref="F66:F68" si="41">E66*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D67" t="s">
+      <c r="E66">
+        <f t="shared" ref="E66:E68" si="84">D66*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H66" t="s">
+        <v>81</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:J68" si="85">I66*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C67" t="s">
         <v>82</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="41"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D68" t="s">
+      <c r="E67">
+        <f t="shared" si="84"/>
+        <v>-10</v>
+      </c>
+      <c r="H67" t="s">
+        <v>82</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="85"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C68" t="s">
         <v>83</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="41"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D69" t="s">
+      <c r="E68">
+        <f t="shared" si="84"/>
+        <v>-10</v>
+      </c>
+      <c r="H68" t="s">
+        <v>83</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="85"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C69" t="s">
         <v>84</v>
       </c>
-      <c r="F69">
-        <f t="shared" ref="F69" si="42">E69*10/48-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D70" t="s">
+      <c r="E69">
+        <f t="shared" ref="E69" si="86">D69*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H69" t="s">
+        <v>84</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ref="J69" si="87">I69*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C70" t="s">
         <v>85</v>
       </c>
-      <c r="F70">
-        <f t="shared" ref="F70" si="43">E70*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D71" t="s">
+      <c r="E70">
+        <f t="shared" ref="E70" si="88">D70*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H70" t="s">
+        <v>85</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ref="J70" si="89">I70*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
         <v>86</v>
       </c>
-      <c r="F71">
-        <f t="shared" ref="F71" si="44">E71*10-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <f t="shared" ref="E71" si="90">D71*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H71" t="s">
+        <v>86</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ref="J71" si="91">I71*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>11</v>
       </c>
-      <c r="D72" t="s">
+      <c r="C72" t="s">
         <v>80</v>
       </c>
-      <c r="F72">
-        <f t="shared" ref="F72" si="45">E72*10/55-10</f>
+      <c r="E72">
+        <f t="shared" ref="E72" si="92">D72*10/55-10</f>
         <v>-10</v>
       </c>
       <c r="H72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D73" t="s">
+        <v>80</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72" si="93">I72*10/55-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C73" t="s">
         <v>81</v>
       </c>
-      <c r="F73">
-        <f t="shared" ref="F73:F75" si="46">E73*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D74" t="s">
+      <c r="E73">
+        <f t="shared" ref="E73:E75" si="94">D73*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H73" t="s">
+        <v>81</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ref="J73:J75" si="95">I73*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
         <v>82</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="46"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D75" t="s">
+      <c r="E74">
+        <f t="shared" si="94"/>
+        <v>-10</v>
+      </c>
+      <c r="H74" t="s">
+        <v>82</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="95"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C75" t="s">
         <v>83</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="46"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D76" t="s">
+      <c r="E75">
+        <f t="shared" si="94"/>
+        <v>-10</v>
+      </c>
+      <c r="H75" t="s">
+        <v>83</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="95"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C76" t="s">
         <v>84</v>
       </c>
-      <c r="F76">
-        <f t="shared" ref="F76" si="47">E76*10/48-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D77" t="s">
+      <c r="E76">
+        <f t="shared" ref="E76" si="96">D76*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H76" t="s">
+        <v>84</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ref="J76" si="97">I76*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C77" t="s">
         <v>85</v>
       </c>
-      <c r="F77">
-        <f t="shared" ref="F77" si="48">E77*10/6-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D78" t="s">
+      <c r="E77">
+        <f t="shared" ref="E77" si="98">D77*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H77" t="s">
+        <v>85</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ref="J77" si="99">I77*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C78" t="s">
         <v>86</v>
       </c>
-      <c r="F78">
-        <f t="shared" ref="F78" si="49">E78*10-10</f>
+      <c r="E78">
+        <f t="shared" ref="E78" si="100">D78*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H78" t="s">
+        <v>86</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ref="J78" si="101">I78*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ref="E79" si="102">D79*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H79" t="s">
+        <v>80</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ref="J79" si="103">I79*10/55-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ref="E80:E82" si="104">D80*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H80" t="s">
+        <v>81</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ref="J80:J82" si="105">I80*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="104"/>
+        <v>-10</v>
+      </c>
+      <c r="H81" t="s">
+        <v>82</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="105"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="104"/>
+        <v>-10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>83</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="105"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C83" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ref="E83" si="106">D83*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H83" t="s">
+        <v>84</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ref="J83" si="107">I83*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ref="E84" si="108">D84*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H84" t="s">
+        <v>85</v>
+      </c>
+      <c r="J84">
+        <f t="shared" ref="J84" si="109">I84*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ref="E85" si="110">D85*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H85" t="s">
+        <v>86</v>
+      </c>
+      <c r="J85">
+        <f t="shared" ref="J85" si="111">I85*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ref="E86" si="112">D86*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H86" t="s">
+        <v>80</v>
+      </c>
+      <c r="J86">
+        <f t="shared" ref="J86" si="113">I86*10/55-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C87" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ref="E87:E89" si="114">D87*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H87" t="s">
+        <v>81</v>
+      </c>
+      <c r="J87">
+        <f t="shared" ref="J87:J89" si="115">I87*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="114"/>
+        <v>-10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>82</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="115"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C89" t="s">
+        <v>83</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="114"/>
+        <v>-10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>83</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="115"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C90" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ref="E90" si="116">D90*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H90" t="s">
+        <v>84</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ref="J90" si="117">I90*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C91" t="s">
+        <v>85</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ref="E91" si="118">D91*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H91" t="s">
+        <v>85</v>
+      </c>
+      <c r="J91">
+        <f t="shared" ref="J91" si="119">I91*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ref="E92" si="120">D92*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>86</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ref="J92" si="121">I92*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>80</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ref="E93" si="122">D93*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H93" t="s">
+        <v>80</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ref="J93" si="123">I93*10/55-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C94" t="s">
+        <v>81</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ref="E94:E96" si="124">D94*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H94" t="s">
+        <v>81</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ref="J94:J96" si="125">I94*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C95" t="s">
+        <v>82</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="124"/>
+        <v>-10</v>
+      </c>
+      <c r="H95" t="s">
+        <v>82</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="125"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C96" t="s">
+        <v>83</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="124"/>
+        <v>-10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>83</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="125"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C97" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ref="E97" si="126">D97*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H97" t="s">
+        <v>84</v>
+      </c>
+      <c r="J97">
+        <f t="shared" ref="J97" si="127">I97*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C98" t="s">
+        <v>85</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ref="E98" si="128">D98*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H98" t="s">
+        <v>85</v>
+      </c>
+      <c r="J98">
+        <f t="shared" ref="J98" si="129">I98*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C99" t="s">
+        <v>86</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ref="E99" si="130">D99*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>86</v>
+      </c>
+      <c r="J99">
+        <f t="shared" ref="J99" si="131">I99*10-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>80</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ref="E100" si="132">D100*10/55-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H100" t="s">
+        <v>80</v>
+      </c>
+      <c r="J100">
+        <f t="shared" ref="J100" si="133">I100*10/55-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C101" t="s">
+        <v>81</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ref="E101:E103" si="134">D101*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>81</v>
+      </c>
+      <c r="J101">
+        <f t="shared" ref="J101:J103" si="135">I101*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C102" t="s">
+        <v>82</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="134"/>
+        <v>-10</v>
+      </c>
+      <c r="H102" t="s">
+        <v>82</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="135"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C103" t="s">
+        <v>83</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="134"/>
+        <v>-10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>83</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="135"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ref="E104" si="136">D104*10/48-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H104" t="s">
+        <v>84</v>
+      </c>
+      <c r="J104">
+        <f t="shared" ref="J104" si="137">I104*10/48-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C105" t="s">
+        <v>85</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ref="E105" si="138">D105*10/6-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>85</v>
+      </c>
+      <c r="J105">
+        <f t="shared" ref="J105" si="139">I105*10/6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C106" t="s">
+        <v>86</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ref="E106" si="140">D106*10-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H106" t="s">
+        <v>86</v>
+      </c>
+      <c r="J106">
+        <f t="shared" ref="J106" si="141">I106*10-10</f>
         <v>-10</v>
       </c>
     </row>

--- a/result/201612.xlsx
+++ b/result/201612.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="120" windowWidth="11652" windowHeight="6036" activeTab="8"/>
+    <workbookView xWindow="12780" yWindow="120" windowWidth="11655" windowHeight="6030" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="149">
   <si>
     <t>seoul</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,6 +466,52 @@
   <si>
     <t>⑦⑩⑪ 116.9</t>
   </si>
+  <si>
+    <t>⑨⑧①50</t>
+  </si>
+  <si>
+    <t>⑤①④255</t>
+  </si>
+  <si>
+    <t>⑦⑤②151</t>
+  </si>
+  <si>
+    <t>③①⑥1527</t>
+  </si>
+  <si>
+    <t>⑤①②407</t>
+  </si>
+  <si>
+    <t>⑦⑤⑥50</t>
+  </si>
+  <si>
+    <t>⑦⑥④382</t>
+  </si>
+  <si>
+    <t>④⑨⑩77</t>
+  </si>
+  <si>
+    <t>③②⑫264</t>
+  </si>
+  <si>
+    <t>②④⑨36</t>
+  </si>
+  <si>
+    <t>⑪④⑦326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑦⑩⑪116</t>
+  </si>
+  <si>
+    <t>⑤⑩②457</t>
+  </si>
+  <si>
+    <t>⑪④⑦900</t>
+  </si>
+  <si>
+    <t>④⑫②502</t>
+  </si>
 </sst>
 </file>
 
@@ -869,23 +915,23 @@
       <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
-    <col min="9" max="9" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.59765625" customWidth="1"/>
+    <col min="14" max="14" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +953,7 @@
         <v>-51.341666666666669</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -947,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>4</v>
       </c>
@@ -981,7 +1027,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>12</v>
       </c>
@@ -1015,7 +1061,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>7</v>
       </c>
@@ -1043,7 +1089,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>9</v>
       </c>
@@ -1071,7 +1117,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -1093,7 +1139,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1133,7 +1179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1167,7 +1213,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1201,7 +1247,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -1229,7 +1275,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>4</v>
       </c>
@@ -1257,7 +1303,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1325,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1319,7 +1365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>6</v>
       </c>
@@ -1353,7 +1399,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>7</v>
       </c>
@@ -1387,7 +1433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>4</v>
       </c>
@@ -1415,7 +1461,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>3</v>
       </c>
@@ -1443,7 +1489,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -1465,7 +1511,7 @@
         <v>27.458333333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1505,7 +1551,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>7</v>
       </c>
@@ -1539,7 +1585,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
@@ -1573,7 +1619,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>8</v>
       </c>
@@ -1601,7 +1647,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>10</v>
       </c>
@@ -1629,7 +1675,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -1651,7 +1697,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1691,7 +1737,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>2</v>
       </c>
@@ -1725,7 +1771,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>3</v>
       </c>
@@ -1759,7 +1805,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>5</v>
       </c>
@@ -1787,7 +1833,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>7</v>
       </c>
@@ -1815,7 +1861,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="17.45" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -1837,7 +1883,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>6</v>
       </c>
@@ -1877,7 +1923,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>10</v>
       </c>
@@ -1911,7 +1957,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>4</v>
       </c>
@@ -1945,7 +1991,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>5</v>
       </c>
@@ -1973,7 +2019,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
@@ -2001,7 +2047,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -2023,7 +2069,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -2063,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>9</v>
       </c>
@@ -2097,7 +2143,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>4</v>
       </c>
@@ -2131,7 +2177,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>3</v>
       </c>
@@ -2159,7 +2205,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>5</v>
       </c>
@@ -2187,7 +2233,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -2209,7 +2255,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -2249,7 +2295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>3</v>
       </c>
@@ -2283,7 +2329,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>4</v>
       </c>
@@ -2317,7 +2363,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>6</v>
       </c>
@@ -2345,7 +2391,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>2</v>
       </c>
@@ -2373,7 +2419,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -2395,7 +2441,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -2435,7 +2481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>1</v>
       </c>
@@ -2469,7 +2515,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>6</v>
       </c>
@@ -2503,7 +2549,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>2</v>
       </c>
@@ -2531,7 +2577,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>8</v>
       </c>
@@ -2559,7 +2605,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -2581,7 +2627,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -2621,7 +2667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>6</v>
       </c>
@@ -2655,7 +2701,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>1</v>
       </c>
@@ -2689,7 +2735,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>2</v>
       </c>
@@ -2717,7 +2763,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>3</v>
       </c>
@@ -2745,7 +2791,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -2767,7 +2813,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -2807,7 +2853,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>4</v>
       </c>
@@ -2841,7 +2887,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>5</v>
       </c>
@@ -2875,7 +2921,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>2</v>
       </c>
@@ -2903,7 +2949,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>10</v>
       </c>
@@ -2931,7 +2977,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -2953,7 +2999,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -2993,7 +3039,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>10</v>
       </c>
@@ -3027,7 +3073,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>12</v>
       </c>
@@ -3061,7 +3107,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>8</v>
       </c>
@@ -3089,7 +3135,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>9</v>
       </c>
@@ -3117,7 +3163,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>6</v>
       </c>
@@ -3154,9 +3200,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3389,7 +3435,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -3624,7 +3670,7 @@
         <v>8.1868774099999998E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -3857,7 +3903,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -4090,7 +4136,7 @@
         <v>6.97797544E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -4257,7 +4303,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -4424,7 +4470,7 @@
         <v>1.0077630000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4591,7 +4637,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4758,7 +4804,7 @@
         <v>1.2683150000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4784,7 +4830,7 @@
         <v>2.578358E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4810,7 +4856,7 @@
         <v>2.4524730000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4836,7 +4882,7 @@
         <v>2.324551E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -4862,7 +4908,7 @@
         <v>2.1682460000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4888,7 +4934,7 @@
         <v>2.1170000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4914,7 +4960,7 @@
         <v>2.051478E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -4940,7 +4986,7 @@
         <v>2.0362120000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:79" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -4966,7 +5012,7 @@
         <v>1.999681E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -4992,7 +5038,7 @@
         <v>1.9878549999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -5018,7 +5064,7 @@
         <v>1.9186249999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5044,7 +5090,7 @@
         <v>1.8936060000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -5070,7 +5116,7 @@
         <v>1.7936569999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -5096,7 +5142,7 @@
         <v>1.7330729999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -5122,7 +5168,7 @@
         <v>1.6771109999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -5148,7 +5194,7 @@
         <v>1.674032E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -5174,7 +5220,7 @@
         <v>1.65118E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -5200,7 +5246,7 @@
         <v>1.5644729999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5226,7 +5272,7 @@
         <v>1.561885E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -5252,7 +5298,7 @@
         <v>1.4981919999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -5278,7 +5324,7 @@
         <v>1.4952729999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -5304,7 +5350,7 @@
         <v>1.4784759999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -5330,7 +5376,7 @@
         <v>1.3836060000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -5356,7 +5402,7 @@
         <v>1.2981680000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -5382,7 +5428,7 @@
         <v>1.2683150000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -5408,7 +5454,7 @@
         <v>1.2127860000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -5434,7 +5480,7 @@
         <v>1.203102E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -5460,7 +5506,7 @@
         <v>1.1617219999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -5486,7 +5532,7 @@
         <v>1.149357E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -5512,7 +5558,7 @@
         <v>1.1233450000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -5538,7 +5584,7 @@
         <v>1.0139280000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -5564,7 +5610,7 @@
         <v>8.3946999999999997E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -5590,7 +5636,7 @@
         <v>7.6792900000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -5616,7 +5662,7 @@
         <v>7.2900100000000004E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -5642,7 +5688,7 @@
         <v>7.2343800000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -5668,7 +5714,7 @@
         <v>7.0489200000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -5694,7 +5740,7 @@
         <v>6.1700899999999996E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -5720,7 +5766,7 @@
         <v>3.8722700000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -5746,7 +5792,7 @@
         <v>2.7707500000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -5772,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -5786,7 +5832,7 @@
         <v>7.1658660500000001E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -5800,7 +5846,7 @@
         <v>7.0618411000000005E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -5814,7 +5860,7 @@
         <v>6.97797544E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -5828,7 +5874,7 @@
         <v>6.4660643300000001E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -5842,7 +5888,7 @@
         <v>6.3447579700000003E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -5856,7 +5902,7 @@
         <v>6.3279700900000001E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -5870,7 +5916,7 @@
         <v>5.0427244100000003E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -5884,7 +5930,7 @@
         <v>4.7029672699999999E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -5898,7 +5944,7 @@
         <v>4.5831357499999997E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -5912,7 +5958,7 @@
         <v>4.3175141600000001E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -5926,7 +5972,7 @@
         <v>4.2904706499999997E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -5940,7 +5986,7 @@
         <v>3.9796584000000001E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -5954,7 +6000,7 @@
         <v>3.6751423600000001E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -5968,7 +6014,7 @@
         <v>3.6250719300000002E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -5982,7 +6028,7 @@
         <v>3.3601848399999998E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -5996,7 +6042,7 @@
         <v>2.6450110999999999E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -6010,7 +6056,7 @@
         <v>2.33614909E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -6024,7 +6070,7 @@
         <v>2.05345528E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -6038,7 +6084,7 @@
         <v>8.0184127700000005E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -6052,7 +6098,7 @@
         <v>6.9162027199999997E-6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -6066,7 +6112,7 @@
         <v>6.3911871800000004E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -6098,17 +6144,17 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6120,7 +6166,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6141,7 +6187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>6</v>
       </c>
@@ -6159,7 +6205,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -6177,7 +6223,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -6195,7 +6241,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>8</v>
       </c>
@@ -6213,7 +6259,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -6225,7 +6271,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6246,7 +6292,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>13</v>
       </c>
@@ -6264,7 +6310,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>11</v>
       </c>
@@ -6282,7 +6328,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -6300,7 +6346,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>3</v>
       </c>
@@ -6318,7 +6364,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -6330,7 +6376,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -6351,7 +6397,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>7</v>
       </c>
@@ -6369,7 +6415,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>13</v>
       </c>
@@ -6387,7 +6433,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>4</v>
       </c>
@@ -6405,7 +6451,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>9</v>
       </c>
@@ -6423,7 +6469,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -6435,7 +6481,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -6456,7 +6502,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
@@ -6474,7 +6520,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>12</v>
       </c>
@@ -6492,7 +6538,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>7</v>
       </c>
@@ -6510,7 +6556,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>11</v>
       </c>
@@ -6528,7 +6574,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -6540,7 +6586,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -6561,7 +6607,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>1</v>
       </c>
@@ -6579,7 +6625,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>12</v>
       </c>
@@ -6597,7 +6643,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>2</v>
       </c>
@@ -6615,7 +6661,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>5</v>
       </c>
@@ -6633,7 +6679,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -6645,7 +6691,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>6</v>
       </c>
@@ -6666,7 +6712,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>7</v>
       </c>
@@ -6684,7 +6730,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>6</v>
       </c>
@@ -6702,7 +6748,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>3</v>
       </c>
@@ -6720,7 +6766,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>2</v>
       </c>
@@ -6738,7 +6784,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -6750,7 +6796,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -6771,7 +6817,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>1</v>
       </c>
@@ -6789,7 +6835,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>6</v>
       </c>
@@ -6807,7 +6853,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>3</v>
       </c>
@@ -6825,7 +6871,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>5</v>
       </c>
@@ -6843,7 +6889,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -6855,7 +6901,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -6876,7 +6922,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>4</v>
       </c>
@@ -6894,7 +6940,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>9</v>
       </c>
@@ -6912,7 +6958,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>7</v>
       </c>
@@ -6930,7 +6976,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>1</v>
       </c>
@@ -6948,7 +6994,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -6960,7 +7006,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -6981,7 +7027,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>7</v>
       </c>
@@ -6999,7 +7045,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>10</v>
       </c>
@@ -7017,7 +7063,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>9</v>
       </c>
@@ -7035,7 +7081,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>6</v>
       </c>
@@ -7053,7 +7099,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -7065,7 +7111,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -7086,7 +7132,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>9</v>
       </c>
@@ -7104,7 +7150,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>10</v>
       </c>
@@ -7122,7 +7168,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>3</v>
       </c>
@@ -7140,7 +7186,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>8</v>
       </c>
@@ -7158,7 +7204,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -7170,7 +7216,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -7191,7 +7237,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>7</v>
       </c>
@@ -7209,7 +7255,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>6</v>
       </c>
@@ -7227,7 +7273,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>1</v>
       </c>
@@ -7245,7 +7291,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>11</v>
       </c>
@@ -7263,7 +7309,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -7275,7 +7321,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -7296,7 +7342,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>8</v>
       </c>
@@ -7314,7 +7360,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>5</v>
       </c>
@@ -7332,7 +7378,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>9</v>
       </c>
@@ -7350,7 +7396,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>1</v>
       </c>
@@ -7368,7 +7414,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>6</v>
       </c>
@@ -7396,23 +7442,23 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
-    <col min="9" max="9" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.59765625" customWidth="1"/>
+    <col min="14" max="14" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7424,7 +7470,7 @@
         <v>-53.116883116883123</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7445,7 +7491,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>5</v>
       </c>
@@ -7460,7 +7506,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>11</v>
       </c>
@@ -7475,7 +7521,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>83</v>
       </c>
@@ -7487,7 +7533,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>84</v>
       </c>
@@ -7499,7 +7545,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>85</v>
       </c>
@@ -7511,7 +7557,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>86</v>
       </c>
@@ -7523,7 +7569,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7544,7 +7590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>2</v>
       </c>
@@ -7559,7 +7605,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>4</v>
       </c>
@@ -7574,7 +7620,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>83</v>
       </c>
@@ -7586,7 +7632,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>84</v>
       </c>
@@ -7598,7 +7644,7 @@
         <v>-2.708333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>85</v>
       </c>
@@ -7610,7 +7656,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>86</v>
       </c>
@@ -7622,7 +7668,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7643,7 +7689,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>7</v>
       </c>
@@ -7658,7 +7704,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>6</v>
       </c>
@@ -7673,7 +7719,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>83</v>
       </c>
@@ -7685,7 +7731,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>84</v>
       </c>
@@ -7697,7 +7743,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>85</v>
       </c>
@@ -7709,7 +7755,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>86</v>
       </c>
@@ -7721,7 +7767,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -7742,7 +7788,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>11</v>
       </c>
@@ -7757,7 +7803,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>8</v>
       </c>
@@ -7772,7 +7818,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>83</v>
       </c>
@@ -7784,7 +7830,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>84</v>
       </c>
@@ -7796,7 +7842,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>85</v>
       </c>
@@ -7808,7 +7854,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>86</v>
       </c>
@@ -7820,7 +7866,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -7841,7 +7887,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>2</v>
       </c>
@@ -7856,7 +7902,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>1</v>
       </c>
@@ -7871,7 +7917,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>83</v>
       </c>
@@ -7883,7 +7929,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>84</v>
       </c>
@@ -7895,7 +7941,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>85</v>
       </c>
@@ -7907,7 +7953,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>86</v>
       </c>
@@ -7919,7 +7965,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -7940,7 +7986,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>6</v>
       </c>
@@ -7955,7 +8001,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>7</v>
       </c>
@@ -7970,7 +8016,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>83</v>
       </c>
@@ -7982,7 +8028,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>84</v>
       </c>
@@ -7994,7 +8040,7 @@
         <v>68.333333333333329</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>85</v>
       </c>
@@ -8006,7 +8052,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>86</v>
       </c>
@@ -8018,7 +8064,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -8039,7 +8085,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>10</v>
       </c>
@@ -8054,7 +8100,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>4</v>
       </c>
@@ -8069,7 +8115,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>83</v>
       </c>
@@ -8081,7 +8127,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>84</v>
       </c>
@@ -8093,7 +8139,7 @@
         <v>58.958333333333329</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>85</v>
       </c>
@@ -8105,7 +8151,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>86</v>
       </c>
@@ -8117,7 +8163,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -8138,7 +8184,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>3</v>
       </c>
@@ -8153,7 +8199,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>2</v>
       </c>
@@ -8168,7 +8214,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>83</v>
       </c>
@@ -8180,7 +8226,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>84</v>
       </c>
@@ -8192,7 +8238,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>85</v>
       </c>
@@ -8204,7 +8250,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>86</v>
       </c>
@@ -8216,7 +8262,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -8237,7 +8283,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>3</v>
       </c>
@@ -8252,7 +8298,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>9</v>
       </c>
@@ -8267,7 +8313,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>83</v>
       </c>
@@ -8279,7 +8325,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>84</v>
       </c>
@@ -8291,7 +8337,7 @@
         <v>77.708333333333329</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>85</v>
       </c>
@@ -8303,7 +8349,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>86</v>
       </c>
@@ -8315,7 +8361,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -8336,7 +8382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>5</v>
       </c>
@@ -8351,7 +8397,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>7</v>
       </c>
@@ -8366,7 +8412,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>83</v>
       </c>
@@ -8378,7 +8424,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>84</v>
       </c>
@@ -8390,7 +8436,7 @@
         <v>-2.291666666666667</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>85</v>
       </c>
@@ -8402,7 +8448,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>86</v>
       </c>
@@ -8414,7 +8460,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -8435,7 +8481,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C73">
         <v>4</v>
       </c>
@@ -8450,7 +8496,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C74">
         <v>7</v>
       </c>
@@ -8465,7 +8511,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>83</v>
       </c>
@@ -8477,7 +8523,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>84</v>
       </c>
@@ -8489,7 +8535,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>85</v>
       </c>
@@ -8501,7 +8547,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>86</v>
       </c>
@@ -8513,7 +8559,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -8534,7 +8580,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C80">
         <v>9</v>
       </c>
@@ -8549,7 +8595,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="3:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C81">
         <v>12</v>
       </c>
@@ -8564,7 +8610,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="3:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="D82" t="s">
         <v>83</v>
       </c>
@@ -8576,7 +8622,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="3:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="D83" t="s">
         <v>84</v>
       </c>
@@ -8588,7 +8634,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="3:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="D84" t="s">
         <v>85</v>
       </c>
@@ -8600,7 +8646,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="3:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="D85" t="s">
         <v>86</v>
       </c>
@@ -8628,17 +8674,17 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8650,7 +8696,7 @@
         <v>-458</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8671,7 +8717,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>11</v>
       </c>
@@ -8689,7 +8735,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10</v>
       </c>
@@ -8707,7 +8753,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -8722,7 +8768,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -8737,7 +8783,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -8749,7 +8795,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8770,7 +8816,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -8788,7 +8834,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -8806,7 +8852,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>5</v>
       </c>
@@ -8821,7 +8867,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>6</v>
       </c>
@@ -8836,7 +8882,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -8848,7 +8894,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8869,7 +8915,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1</v>
       </c>
@@ -8887,7 +8933,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>7</v>
       </c>
@@ -8905,7 +8951,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>6</v>
       </c>
@@ -8920,7 +8966,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
@@ -8935,7 +8981,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -8947,7 +8993,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -8968,7 +9014,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>3</v>
       </c>
@@ -8986,7 +9032,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>11</v>
       </c>
@@ -9004,7 +9050,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>2</v>
       </c>
@@ -9019,7 +9065,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>4</v>
       </c>
@@ -9034,7 +9080,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -9046,7 +9092,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -9067,7 +9113,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>7</v>
       </c>
@@ -9085,7 +9131,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>8</v>
       </c>
@@ -9103,7 +9149,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>10</v>
       </c>
@@ -9118,7 +9164,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>3</v>
       </c>
@@ -9133,7 +9179,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -9145,7 +9191,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>6</v>
       </c>
@@ -9166,7 +9212,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>7</v>
       </c>
@@ -9184,7 +9230,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>5</v>
       </c>
@@ -9202,7 +9248,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>9</v>
       </c>
@@ -9217,7 +9263,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
@@ -9232,7 +9278,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -9244,7 +9290,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -9265,7 +9311,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>10</v>
       </c>
@@ -9283,7 +9329,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>4</v>
       </c>
@@ -9301,7 +9347,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>5</v>
       </c>
@@ -9316,7 +9362,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>7</v>
       </c>
@@ -9331,7 +9377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -9343,7 +9389,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -9364,7 +9410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>2</v>
       </c>
@@ -9382,7 +9428,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>1</v>
       </c>
@@ -9400,7 +9446,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>7</v>
       </c>
@@ -9415,7 +9461,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>4</v>
       </c>
@@ -9430,7 +9476,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -9442,7 +9488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -9463,7 +9509,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>2</v>
       </c>
@@ -9481,7 +9527,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>16</v>
       </c>
@@ -9499,7 +9545,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>12</v>
       </c>
@@ -9514,7 +9560,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>3</v>
       </c>
@@ -9529,7 +9575,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -9541,7 +9587,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -9562,7 +9608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>4</v>
       </c>
@@ -9580,7 +9626,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>6</v>
       </c>
@@ -9598,7 +9644,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>5</v>
       </c>
@@ -9613,7 +9659,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>3</v>
       </c>
@@ -9628,7 +9674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -9640,7 +9686,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -9661,7 +9707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>9</v>
       </c>
@@ -9679,7 +9725,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>12</v>
       </c>
@@ -9697,7 +9743,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>6</v>
       </c>
@@ -9712,7 +9758,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>2</v>
       </c>
@@ -9727,7 +9773,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -9755,17 +9801,17 @@
       <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9777,7 +9823,7 @@
         <v>-99.763528138528144</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9801,7 +9847,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>11</v>
       </c>
@@ -9819,7 +9865,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10</v>
       </c>
@@ -9837,7 +9883,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -9852,7 +9898,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -9867,7 +9913,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>85</v>
       </c>
@@ -9879,7 +9925,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>86</v>
       </c>
@@ -9891,7 +9937,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -9915,7 +9961,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -9933,7 +9979,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -9951,7 +9997,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>5</v>
       </c>
@@ -9966,7 +10012,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>6</v>
       </c>
@@ -9981,7 +10027,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>85</v>
       </c>
@@ -9993,7 +10039,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>86</v>
       </c>
@@ -10005,7 +10051,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -10029,7 +10075,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1</v>
       </c>
@@ -10047,7 +10093,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>7</v>
       </c>
@@ -10065,7 +10111,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>6</v>
       </c>
@@ -10080,7 +10126,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
@@ -10095,7 +10141,7 @@
         <v>8.9583333333333321</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>85</v>
       </c>
@@ -10107,7 +10153,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>86</v>
       </c>
@@ -10119,7 +10165,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -10143,7 +10189,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>3</v>
       </c>
@@ -10161,7 +10207,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>11</v>
       </c>
@@ -10179,7 +10225,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>2</v>
       </c>
@@ -10194,7 +10240,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>4</v>
       </c>
@@ -10209,7 +10255,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>85</v>
       </c>
@@ -10221,7 +10267,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>86</v>
       </c>
@@ -10233,7 +10279,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -10257,7 +10303,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>7</v>
       </c>
@@ -10275,7 +10321,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>8</v>
       </c>
@@ -10293,7 +10339,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>10</v>
       </c>
@@ -10308,7 +10354,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>3</v>
       </c>
@@ -10323,7 +10369,7 @@
         <v>18.333333333333332</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>85</v>
       </c>
@@ -10335,7 +10381,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>86</v>
       </c>
@@ -10347,7 +10393,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -10371,7 +10417,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>7</v>
       </c>
@@ -10389,7 +10435,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>5</v>
       </c>
@@ -10407,7 +10453,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>9</v>
       </c>
@@ -10422,7 +10468,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
@@ -10437,7 +10483,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>85</v>
       </c>
@@ -10449,7 +10495,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>86</v>
       </c>
@@ -10461,7 +10507,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -10482,7 +10528,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>10</v>
       </c>
@@ -10497,7 +10543,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>4</v>
       </c>
@@ -10512,7 +10558,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>5</v>
       </c>
@@ -10524,7 +10570,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>7</v>
       </c>
@@ -10536,7 +10582,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>85</v>
       </c>
@@ -10545,7 +10591,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>86</v>
       </c>
@@ -10554,7 +10600,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -10575,7 +10621,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>2</v>
       </c>
@@ -10590,7 +10636,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>1</v>
       </c>
@@ -10605,7 +10651,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>7</v>
       </c>
@@ -10617,7 +10663,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>4</v>
       </c>
@@ -10629,7 +10675,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>85</v>
       </c>
@@ -10638,7 +10684,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>86</v>
       </c>
@@ -10647,7 +10693,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -10668,7 +10714,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>2</v>
       </c>
@@ -10683,7 +10729,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>16</v>
       </c>
@@ -10698,7 +10744,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>12</v>
       </c>
@@ -10710,7 +10756,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>3</v>
       </c>
@@ -10722,7 +10768,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>85</v>
       </c>
@@ -10731,7 +10777,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>86</v>
       </c>
@@ -10740,7 +10786,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -10761,7 +10807,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>4</v>
       </c>
@@ -10776,7 +10822,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>6</v>
       </c>
@@ -10791,7 +10837,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>5</v>
       </c>
@@ -10803,7 +10849,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>3</v>
       </c>
@@ -10815,7 +10861,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>85</v>
       </c>
@@ -10824,7 +10870,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>86</v>
       </c>
@@ -10833,7 +10879,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -10854,7 +10900,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>9</v>
       </c>
@@ -10869,7 +10915,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>12</v>
       </c>
@@ -10884,7 +10930,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>6</v>
       </c>
@@ -10896,7 +10942,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>2</v>
       </c>
@@ -10908,7 +10954,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>85</v>
       </c>
@@ -10917,7 +10963,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>86</v>
       </c>
@@ -10943,35 +10989,35 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
-    <col min="8" max="8" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.5" customWidth="1"/>
-    <col min="11" max="11" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.59765625" customWidth="1"/>
-    <col min="15" max="15" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1"/>
+    <col min="15" max="15" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.5" customWidth="1"/>
-    <col min="18" max="18" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.59765625" customWidth="1"/>
-    <col min="22" max="22" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.625" customWidth="1"/>
+    <col min="22" max="22" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.75" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3.5" customWidth="1"/>
-    <col min="25" max="25" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.25" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.59765625" customWidth="1"/>
+    <col min="27" max="27" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11013,7 +11059,7 @@
         <v>-365.47826086956525</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11107,7 +11153,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>8</v>
       </c>
@@ -11189,7 +11235,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10</v>
       </c>
@@ -11271,7 +11317,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6</v>
       </c>
@@ -11341,7 +11387,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>9</v>
       </c>
@@ -11411,7 +11457,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -11469,7 +11515,7 @@
         <v>-93.478260869565219</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -11547,7 +11593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5</v>
       </c>
@@ -11613,7 +11659,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -11679,7 +11725,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3</v>
       </c>
@@ -11733,7 +11779,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -11787,7 +11833,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -11829,7 +11875,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -11907,7 +11953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>4</v>
       </c>
@@ -11973,7 +12019,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1</v>
       </c>
@@ -12039,7 +12085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>8</v>
       </c>
@@ -12093,7 +12139,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
@@ -12147,7 +12193,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>6</v>
       </c>
@@ -12189,7 +12235,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -12267,7 +12313,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>8</v>
       </c>
@@ -12333,7 +12379,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2</v>
       </c>
@@ -12399,7 +12445,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>5</v>
       </c>
@@ -12453,7 +12499,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>4</v>
       </c>
@@ -12507,7 +12553,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -12549,7 +12595,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -12627,7 +12673,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>6</v>
       </c>
@@ -12693,7 +12739,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>10</v>
       </c>
@@ -12759,7 +12805,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>9</v>
       </c>
@@ -12813,7 +12859,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>4</v>
       </c>
@@ -12867,7 +12913,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" ht="17.45" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -12909,7 +12955,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>6</v>
       </c>
@@ -12987,7 +13033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>2</v>
       </c>
@@ -13053,7 +13099,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>10</v>
       </c>
@@ -13119,7 +13165,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>1</v>
       </c>
@@ -13173,7 +13219,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>4</v>
       </c>
@@ -13227,7 +13273,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>6</v>
       </c>
@@ -13269,7 +13315,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -13347,7 +13393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>7</v>
       </c>
@@ -13413,7 +13459,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>1</v>
       </c>
@@ -13479,7 +13525,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>6</v>
       </c>
@@ -13533,7 +13579,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>5</v>
       </c>
@@ -13587,7 +13633,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -13629,7 +13675,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -13707,7 +13753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>5</v>
       </c>
@@ -13773,7 +13819,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>4</v>
       </c>
@@ -13839,7 +13885,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>10</v>
       </c>
@@ -13893,7 +13939,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>11</v>
       </c>
@@ -13947,7 +13993,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -13989,7 +14035,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -14067,7 +14113,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>6</v>
       </c>
@@ -14133,7 +14179,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>4</v>
       </c>
@@ -14199,7 +14245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>3</v>
       </c>
@@ -14253,7 +14299,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>9</v>
       </c>
@@ -14307,7 +14353,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>6</v>
       </c>
@@ -14349,7 +14395,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -14427,7 +14473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>5</v>
       </c>
@@ -14493,7 +14539,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>4</v>
       </c>
@@ -14559,7 +14605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>7</v>
       </c>
@@ -14613,7 +14659,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>3</v>
       </c>
@@ -14667,7 +14713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>6</v>
       </c>
@@ -14709,7 +14755,7 @@
         <v>16.521739130434781</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -14787,7 +14833,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>2</v>
       </c>
@@ -14853,7 +14899,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>7</v>
       </c>
@@ -14919,7 +14965,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>1</v>
       </c>
@@ -14973,7 +15019,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>6</v>
       </c>
@@ -15027,7 +15073,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>6</v>
       </c>
@@ -15069,7 +15115,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -15147,7 +15193,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>6</v>
       </c>
@@ -15213,7 +15259,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>3</v>
       </c>
@@ -15279,7 +15325,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>12</v>
       </c>
@@ -15333,7 +15379,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>9</v>
       </c>
@@ -15387,7 +15433,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:27" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>6</v>
       </c>
@@ -15445,18 +15491,18 @@
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" customWidth="1"/>
-    <col min="3" max="3" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -15468,7 +15514,7 @@
         <v>-626.20000000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15496,7 +15542,7 @@
         <v>-89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -15521,7 +15567,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>11</v>
       </c>
@@ -15546,7 +15592,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6</v>
       </c>
@@ -15568,7 +15614,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -15590,7 +15636,7 @@
         <v>-97.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>6</v>
       </c>
@@ -15606,7 +15652,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -15630,7 +15676,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5</v>
       </c>
@@ -15651,7 +15697,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3</v>
       </c>
@@ -15672,7 +15718,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -15690,7 +15736,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>7</v>
       </c>
@@ -15708,7 +15754,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>6</v>
       </c>
@@ -15720,7 +15766,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -15744,7 +15790,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>6</v>
       </c>
@@ -15765,7 +15811,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>9</v>
       </c>
@@ -15786,7 +15832,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>5</v>
       </c>
@@ -15804,7 +15850,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>4</v>
       </c>
@@ -15822,7 +15868,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>6</v>
       </c>
@@ -15834,7 +15880,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -15858,7 +15904,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>10</v>
       </c>
@@ -15879,7 +15925,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>9</v>
       </c>
@@ -15900,7 +15946,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>7</v>
       </c>
@@ -15918,7 +15964,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>2</v>
       </c>
@@ -15936,7 +15982,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>6</v>
       </c>
@@ -15948,7 +15994,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -15966,7 +16012,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C31">
         <v>7</v>
       </c>
@@ -15981,7 +16027,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C32">
         <v>10</v>
       </c>
@@ -15996,7 +16042,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C33">
         <v>3</v>
       </c>
@@ -16011,7 +16057,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C34">
         <v>9</v>
       </c>
@@ -16026,7 +16072,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="17.45" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
         <v>6</v>
       </c>
@@ -16038,7 +16084,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>6</v>
       </c>
@@ -16056,7 +16102,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C38">
         <v>7</v>
       </c>
@@ -16071,7 +16117,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>10</v>
       </c>
@@ -16086,7 +16132,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>3</v>
       </c>
@@ -16101,7 +16147,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>9</v>
       </c>
@@ -16116,7 +16162,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>6</v>
       </c>
@@ -16128,7 +16174,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -16146,7 +16192,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>11</v>
       </c>
@@ -16161,7 +16207,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>4</v>
       </c>
@@ -16176,7 +16222,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>9</v>
       </c>
@@ -16191,7 +16237,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>6</v>
       </c>
@@ -16206,7 +16252,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>6</v>
       </c>
@@ -16218,7 +16264,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -16236,7 +16282,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>9</v>
       </c>
@@ -16251,7 +16297,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>2</v>
       </c>
@@ -16266,7 +16312,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>3</v>
       </c>
@@ -16281,7 +16327,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>7</v>
       </c>
@@ -16296,7 +16342,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>6</v>
       </c>
@@ -16308,7 +16354,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -16326,7 +16372,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>11</v>
       </c>
@@ -16341,7 +16387,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>8</v>
       </c>
@@ -16356,7 +16402,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>2</v>
       </c>
@@ -16371,7 +16417,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>6</v>
       </c>
@@ -16386,7 +16432,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
         <v>6</v>
       </c>
@@ -16398,7 +16444,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -16416,7 +16462,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>4</v>
       </c>
@@ -16431,7 +16477,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>2</v>
       </c>
@@ -16446,7 +16492,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>5</v>
       </c>
@@ -16461,7 +16507,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>7</v>
       </c>
@@ -16476,7 +16522,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E70" t="s">
         <v>6</v>
       </c>
@@ -16488,7 +16534,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -16506,7 +16552,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C73">
         <v>10</v>
       </c>
@@ -16521,7 +16567,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C74">
         <v>8</v>
       </c>
@@ -16536,7 +16582,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C75">
         <v>12</v>
       </c>
@@ -16551,7 +16597,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C76">
         <v>2</v>
       </c>
@@ -16566,7 +16612,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E77" t="s">
         <v>6</v>
       </c>
@@ -16596,15 +16642,15 @@
       <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.69921875" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -17589,15 +17635,15 @@
       <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.69921875" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.75" customWidth="1"/>
     <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.59765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -18544,27 +18590,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.796875" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.59765625" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
     <col min="7" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.59765625" customWidth="1"/>
+    <col min="10" max="10" width="6.625" customWidth="1"/>
     <col min="14" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="11.796875" customWidth="1"/>
+    <col min="16" max="16" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="17.45" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -18580,7 +18626,7 @@
       </c>
       <c r="J1">
         <f>SUM(J2:J300)/7</f>
-        <v>-150</v>
+        <v>83.39069264069262</v>
       </c>
       <c r="N1" t="s">
         <v>101</v>
@@ -18589,7 +18635,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18619,7 +18665,10 @@
       </c>
       <c r="K2" s="2">
         <f>J2+J9+J16+J23+J30+J37+J44+J51+J58+J65+J72+J79+J86+J93+J100</f>
-        <v>-150</v>
+        <v>-84.181818181818187</v>
+      </c>
+      <c r="L2" t="s">
+        <v>134</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -18637,7 +18686,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>81</v>
       </c>
@@ -18682,7 +18731,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>82</v>
       </c>
@@ -18709,7 +18758,7 @@
       </c>
       <c r="K4" s="2">
         <f t="shared" si="1"/>
-        <v>-150</v>
+        <v>1350</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -18727,7 +18776,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>83</v>
       </c>
@@ -18772,7 +18821,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -18799,7 +18848,7 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-150</v>
+        <v>-82.083333333333329</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -18811,7 +18860,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>85</v>
       </c>
@@ -18850,7 +18899,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>86</v>
       </c>
@@ -18889,7 +18938,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -18913,6 +18962,9 @@
         <f t="shared" ref="J9" si="3">I9*10/55-10</f>
         <v>-10</v>
       </c>
+      <c r="L9" t="s">
+        <v>135</v>
+      </c>
       <c r="M9">
         <v>8</v>
       </c>
@@ -18923,7 +18975,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>81</v>
       </c>
@@ -18954,7 +19006,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>82</v>
       </c>
@@ -18985,7 +19037,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>83</v>
       </c>
@@ -19016,7 +19068,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>84</v>
       </c>
@@ -19047,7 +19099,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>85</v>
       </c>
@@ -19074,8 +19126,11 @@
       <c r="N14" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>86</v>
       </c>
@@ -19102,8 +19157,11 @@
       <c r="N15" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3</v>
       </c>
@@ -19127,14 +19185,20 @@
         <f t="shared" ref="J16" si="13">I16*10/55-10</f>
         <v>-10</v>
       </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
       <c r="M16">
         <v>15</v>
       </c>
       <c r="N16" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="O16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>81</v>
       </c>
@@ -19156,15 +19220,15 @@
         <v>-10</v>
       </c>
       <c r="N17" s="4">
-        <f>(50+151+50+382)/60 - 12</f>
-        <v>-1.4499999999999993</v>
+        <f>(50+151+50+382)/60 - 15</f>
+        <v>-4.4499999999999993</v>
       </c>
       <c r="P17" s="4">
         <f>172/60 - 4</f>
         <v>-1.1333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>82</v>
       </c>
@@ -19186,15 +19250,15 @@
         <v>-10</v>
       </c>
       <c r="N18" s="6">
-        <f>(50+151+50+382+77)/120-12</f>
-        <v>-6.083333333333333</v>
+        <f>(50+151+50+382+77)/120-15</f>
+        <v>-9.0833333333333321</v>
       </c>
       <c r="P18" s="6">
         <f>(172+488)/120-4</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>83</v>
       </c>
@@ -19216,7 +19280,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>84</v>
       </c>
@@ -19238,7 +19302,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>85</v>
       </c>
@@ -19260,7 +19324,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>86</v>
       </c>
@@ -19282,7 +19346,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>4</v>
       </c>
@@ -19306,8 +19370,11 @@
         <f t="shared" ref="J23" si="23">I23*10/55-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="L23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>81</v>
       </c>
@@ -19329,7 +19396,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>82</v>
       </c>
@@ -19351,7 +19418,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>83</v>
       </c>
@@ -19373,7 +19440,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>84</v>
       </c>
@@ -19395,7 +19462,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>85</v>
       </c>
@@ -19417,7 +19484,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>86</v>
       </c>
@@ -19439,7 +19506,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
@@ -19453,12 +19520,18 @@
       <c r="H30" t="s">
         <v>80</v>
       </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
       <c r="J30">
         <f t="shared" ref="J30" si="33">I30*10/55-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="L30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>81</v>
       </c>
@@ -19469,12 +19542,15 @@
       <c r="H31" t="s">
         <v>81</v>
       </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
       <c r="J31">
         <f t="shared" ref="J31:J33" si="35">I31*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>82</v>
       </c>
@@ -19485,12 +19561,15 @@
       <c r="H32" t="s">
         <v>82</v>
       </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
       <c r="J32">
         <f t="shared" si="35"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
         <v>83</v>
       </c>
@@ -19501,12 +19580,15 @@
       <c r="H33" t="s">
         <v>83</v>
       </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
       <c r="J33">
         <f t="shared" si="35"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>84</v>
       </c>
@@ -19517,12 +19599,15 @@
       <c r="H34" t="s">
         <v>84</v>
       </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
       <c r="J34">
         <f t="shared" ref="J34" si="37">I34*10/48-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>85</v>
       </c>
@@ -19533,12 +19618,15 @@
       <c r="H35" t="s">
         <v>85</v>
       </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
       <c r="J35">
         <f t="shared" ref="J35" si="39">I35*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
         <v>86</v>
       </c>
@@ -19549,12 +19637,15 @@
       <c r="H36" t="s">
         <v>86</v>
       </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
       <c r="J36">
         <f t="shared" ref="J36" si="41">I36*10-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>6</v>
       </c>
@@ -19568,12 +19659,18 @@
       <c r="H37" t="s">
         <v>80</v>
       </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
       <c r="J37">
         <f t="shared" ref="J37" si="43">I37*10/55-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>81</v>
       </c>
@@ -19584,12 +19681,15 @@
       <c r="H38" t="s">
         <v>81</v>
       </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
       <c r="J38">
         <f t="shared" ref="J38:J40" si="45">I38*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>82</v>
       </c>
@@ -19600,12 +19700,15 @@
       <c r="H39" t="s">
         <v>82</v>
       </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
       <c r="J39">
         <f t="shared" si="45"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" ht="17.45" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
         <v>83</v>
       </c>
@@ -19616,12 +19719,15 @@
       <c r="H40" t="s">
         <v>83</v>
       </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
       <c r="J40">
         <f t="shared" si="45"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -19632,12 +19738,15 @@
       <c r="H41" t="s">
         <v>84</v>
       </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
       <c r="J41">
         <f t="shared" ref="J41" si="47">I41*10/48-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>85</v>
       </c>
@@ -19648,12 +19757,15 @@
       <c r="H42" t="s">
         <v>85</v>
       </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
       <c r="J42">
         <f t="shared" ref="J42" si="49">I42*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>86</v>
       </c>
@@ -19664,12 +19776,15 @@
       <c r="H43" t="s">
         <v>86</v>
       </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
       <c r="J43">
         <f t="shared" ref="J43" si="51">I43*10-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -19683,12 +19798,18 @@
       <c r="H44" t="s">
         <v>80</v>
       </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
       <c r="J44">
         <f t="shared" ref="J44" si="53">I44*10/55-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>81</v>
       </c>
@@ -19699,12 +19820,15 @@
       <c r="H45" t="s">
         <v>81</v>
       </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
       <c r="J45">
         <f t="shared" ref="J45:J47" si="55">I45*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>82</v>
       </c>
@@ -19715,12 +19839,15 @@
       <c r="H46" t="s">
         <v>82</v>
       </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
       <c r="J46">
         <f t="shared" si="55"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>83</v>
       </c>
@@ -19731,12 +19858,15 @@
       <c r="H47" t="s">
         <v>83</v>
       </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
       <c r="J47">
         <f t="shared" si="55"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -19747,12 +19877,15 @@
       <c r="H48" t="s">
         <v>84</v>
       </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
       <c r="J48">
         <f t="shared" ref="J48" si="57">I48*10/48-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>85</v>
       </c>
@@ -19763,12 +19896,15 @@
       <c r="H49" t="s">
         <v>85</v>
       </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
       <c r="J49">
         <f t="shared" ref="J49" si="59">I49*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>86</v>
       </c>
@@ -19779,12 +19915,15 @@
       <c r="H50" t="s">
         <v>86</v>
       </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
       <c r="J50">
         <f t="shared" ref="J50" si="61">I50*10-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -19798,12 +19937,18 @@
       <c r="H51" t="s">
         <v>80</v>
       </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
       <c r="J51">
         <f t="shared" ref="J51" si="63">I51*10/55-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>81</v>
       </c>
@@ -19814,12 +19959,15 @@
       <c r="H52" t="s">
         <v>81</v>
       </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
       <c r="J52">
         <f t="shared" ref="J52:J54" si="65">I52*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>82</v>
       </c>
@@ -19830,12 +19978,15 @@
       <c r="H53" t="s">
         <v>82</v>
       </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
       <c r="J53">
         <f t="shared" si="65"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>83</v>
       </c>
@@ -19846,12 +19997,15 @@
       <c r="H54" t="s">
         <v>83</v>
       </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
       <c r="J54">
         <f t="shared" si="65"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>84</v>
       </c>
@@ -19862,12 +20016,15 @@
       <c r="H55" t="s">
         <v>84</v>
       </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
       <c r="J55">
         <f t="shared" ref="J55" si="67">I55*10/48-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>85</v>
       </c>
@@ -19878,12 +20035,15 @@
       <c r="H56" t="s">
         <v>85</v>
       </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
       <c r="J56">
         <f t="shared" ref="J56" si="69">I56*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>86</v>
       </c>
@@ -19894,12 +20054,15 @@
       <c r="H57" t="s">
         <v>86</v>
       </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
       <c r="J57">
         <f t="shared" ref="J57" si="71">I57*10-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9</v>
       </c>
@@ -19913,12 +20076,18 @@
       <c r="H58" t="s">
         <v>80</v>
       </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
       <c r="J58">
         <f t="shared" ref="J58" si="73">I58*10/55-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>81</v>
       </c>
@@ -19929,12 +20098,15 @@
       <c r="H59" t="s">
         <v>81</v>
       </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
       <c r="J59">
         <f t="shared" ref="J59:J61" si="75">I59*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>82</v>
       </c>
@@ -19945,12 +20117,15 @@
       <c r="H60" t="s">
         <v>82</v>
       </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
       <c r="J60">
         <f t="shared" si="75"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>83</v>
       </c>
@@ -19961,12 +20136,15 @@
       <c r="H61" t="s">
         <v>83</v>
       </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
       <c r="J61">
         <f t="shared" si="75"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>84</v>
       </c>
@@ -19977,12 +20155,15 @@
       <c r="H62" t="s">
         <v>84</v>
       </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
       <c r="J62">
         <f t="shared" ref="J62" si="77">I62*10/48-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>85</v>
       </c>
@@ -19993,12 +20174,15 @@
       <c r="H63" t="s">
         <v>85</v>
       </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
       <c r="J63">
         <f t="shared" ref="J63" si="79">I63*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>86</v>
       </c>
@@ -20009,12 +20193,15 @@
       <c r="H64" t="s">
         <v>86</v>
       </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
       <c r="J64">
         <f t="shared" ref="J64" si="81">I64*10-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>10</v>
       </c>
@@ -20028,12 +20215,18 @@
       <c r="H65" t="s">
         <v>80</v>
       </c>
+      <c r="I65">
+        <v>36</v>
+      </c>
       <c r="J65">
         <f t="shared" ref="J65" si="83">I65*10/55-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+        <v>-3.4545454545454541</v>
+      </c>
+      <c r="L65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>81</v>
       </c>
@@ -20044,12 +20237,15 @@
       <c r="H66" t="s">
         <v>81</v>
       </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
       <c r="J66">
         <f t="shared" ref="J66:J68" si="85">I66*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>82</v>
       </c>
@@ -20060,12 +20256,15 @@
       <c r="H67" t="s">
         <v>82</v>
       </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
       <c r="J67">
         <f t="shared" si="85"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>83</v>
       </c>
@@ -20076,12 +20275,15 @@
       <c r="H68" t="s">
         <v>83</v>
       </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
       <c r="J68">
         <f t="shared" si="85"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>84</v>
       </c>
@@ -20092,12 +20294,15 @@
       <c r="H69" t="s">
         <v>84</v>
       </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
       <c r="J69">
         <f t="shared" ref="J69" si="87">I69*10/48-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>85</v>
       </c>
@@ -20108,12 +20313,15 @@
       <c r="H70" t="s">
         <v>85</v>
       </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
       <c r="J70">
         <f t="shared" ref="J70" si="89">I70*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>86</v>
       </c>
@@ -20124,12 +20332,15 @@
       <c r="H71" t="s">
         <v>86</v>
       </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
       <c r="J71">
         <f t="shared" ref="J71" si="91">I71*10-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -20143,12 +20354,18 @@
       <c r="H72" t="s">
         <v>80</v>
       </c>
+      <c r="I72">
+        <v>326</v>
+      </c>
       <c r="J72">
         <f t="shared" ref="J72" si="93">I72*10/55-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+        <v>49.272727272727273</v>
+      </c>
+      <c r="L72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>81</v>
       </c>
@@ -20159,12 +20376,15 @@
       <c r="H73" t="s">
         <v>81</v>
       </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
       <c r="J73">
         <f t="shared" ref="J73:J75" si="95">I73*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>82</v>
       </c>
@@ -20175,12 +20395,15 @@
       <c r="H74" t="s">
         <v>82</v>
       </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
       <c r="J74">
         <f t="shared" si="95"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>83</v>
       </c>
@@ -20191,12 +20414,15 @@
       <c r="H75" t="s">
         <v>83</v>
       </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
       <c r="J75">
         <f t="shared" si="95"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>84</v>
       </c>
@@ -20207,12 +20433,15 @@
       <c r="H76" t="s">
         <v>84</v>
       </c>
+      <c r="I76">
+        <v>326</v>
+      </c>
       <c r="J76">
         <f t="shared" ref="J76" si="97">I76*10/48-10</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+        <v>57.916666666666671</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>85</v>
       </c>
@@ -20223,12 +20452,15 @@
       <c r="H77" t="s">
         <v>85</v>
       </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
       <c r="J77">
         <f t="shared" ref="J77" si="99">I77*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>86</v>
       </c>
@@ -20239,12 +20471,15 @@
       <c r="H78" t="s">
         <v>86</v>
       </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
       <c r="J78">
         <f t="shared" ref="J78" si="101">I78*10-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -20258,12 +20493,18 @@
       <c r="H79" t="s">
         <v>80</v>
       </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
       <c r="J79">
         <f t="shared" ref="J79" si="103">I79*10/55-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>81</v>
       </c>
@@ -20274,12 +20515,15 @@
       <c r="H80" t="s">
         <v>81</v>
       </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
       <c r="J80">
         <f t="shared" ref="J80:J82" si="105">I80*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>82</v>
       </c>
@@ -20290,12 +20534,15 @@
       <c r="H81" t="s">
         <v>82</v>
       </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
       <c r="J81">
         <f t="shared" si="105"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>83</v>
       </c>
@@ -20306,12 +20553,15 @@
       <c r="H82" t="s">
         <v>83</v>
       </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
       <c r="J82">
         <f t="shared" si="105"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>84</v>
       </c>
@@ -20322,12 +20572,15 @@
       <c r="H83" t="s">
         <v>84</v>
       </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
       <c r="J83">
         <f t="shared" ref="J83" si="107">I83*10/48-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>85</v>
       </c>
@@ -20338,12 +20591,15 @@
       <c r="H84" t="s">
         <v>85</v>
       </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
       <c r="J84">
         <f t="shared" ref="J84" si="109">I84*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>86</v>
       </c>
@@ -20354,12 +20610,15 @@
       <c r="H85" t="s">
         <v>86</v>
       </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
       <c r="J85">
         <f t="shared" ref="J85" si="111">I85*10-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>13</v>
       </c>
@@ -20373,12 +20632,18 @@
       <c r="H86" t="s">
         <v>80</v>
       </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
       <c r="J86">
         <f t="shared" ref="J86" si="113">I86*10/55-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>81</v>
       </c>
@@ -20389,12 +20654,15 @@
       <c r="H87" t="s">
         <v>81</v>
       </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
       <c r="J87">
         <f t="shared" ref="J87:J89" si="115">I87*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>82</v>
       </c>
@@ -20405,12 +20673,15 @@
       <c r="H88" t="s">
         <v>82</v>
       </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
       <c r="J88">
         <f t="shared" si="115"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>83</v>
       </c>
@@ -20421,12 +20692,15 @@
       <c r="H89" t="s">
         <v>83</v>
       </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
       <c r="J89">
         <f t="shared" si="115"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -20437,12 +20711,15 @@
       <c r="H90" t="s">
         <v>84</v>
       </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
       <c r="J90">
         <f t="shared" ref="J90" si="117">I90*10/48-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>85</v>
       </c>
@@ -20453,12 +20730,15 @@
       <c r="H91" t="s">
         <v>85</v>
       </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
       <c r="J91">
         <f t="shared" ref="J91" si="119">I91*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>86</v>
       </c>
@@ -20469,12 +20749,15 @@
       <c r="H92" t="s">
         <v>86</v>
       </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
       <c r="J92">
         <f t="shared" ref="J92" si="121">I92*10-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>14</v>
       </c>
@@ -20488,12 +20771,18 @@
       <c r="H93" t="s">
         <v>80</v>
       </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
       <c r="J93">
         <f t="shared" ref="J93" si="123">I93*10/55-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>81</v>
       </c>
@@ -20504,12 +20793,15 @@
       <c r="H94" t="s">
         <v>81</v>
       </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
       <c r="J94">
         <f t="shared" ref="J94:J96" si="125">I94*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>82</v>
       </c>
@@ -20520,12 +20812,15 @@
       <c r="H95" t="s">
         <v>82</v>
       </c>
+      <c r="I95">
+        <v>900</v>
+      </c>
       <c r="J95">
         <f t="shared" si="125"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>83</v>
       </c>
@@ -20536,12 +20831,15 @@
       <c r="H96" t="s">
         <v>83</v>
       </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
       <c r="J96">
         <f t="shared" si="125"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>84</v>
       </c>
@@ -20552,12 +20850,15 @@
       <c r="H97" t="s">
         <v>84</v>
       </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
       <c r="J97">
         <f t="shared" ref="J97" si="127">I97*10/48-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>85</v>
       </c>
@@ -20568,12 +20869,15 @@
       <c r="H98" t="s">
         <v>85</v>
       </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
       <c r="J98">
         <f t="shared" ref="J98" si="129">I98*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>86</v>
       </c>
@@ -20584,12 +20888,15 @@
       <c r="H99" t="s">
         <v>86</v>
       </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
       <c r="J99">
         <f t="shared" ref="J99" si="131">I99*10-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>15</v>
       </c>
@@ -20603,12 +20910,18 @@
       <c r="H100" t="s">
         <v>80</v>
       </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
       <c r="J100">
         <f t="shared" ref="J100" si="133">I100*10/55-10</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="L100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>81</v>
       </c>
@@ -20619,12 +20932,15 @@
       <c r="H101" t="s">
         <v>81</v>
       </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
       <c r="J101">
         <f t="shared" ref="J101:J103" si="135">I101*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>82</v>
       </c>
@@ -20635,12 +20951,15 @@
       <c r="H102" t="s">
         <v>82</v>
       </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
       <c r="J102">
         <f t="shared" si="135"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>83</v>
       </c>
@@ -20651,12 +20970,15 @@
       <c r="H103" t="s">
         <v>83</v>
       </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
       <c r="J103">
         <f t="shared" si="135"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>84</v>
       </c>
@@ -20667,12 +20989,15 @@
       <c r="H104" t="s">
         <v>84</v>
       </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
       <c r="J104">
         <f t="shared" ref="J104" si="137">I104*10/48-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>85</v>
       </c>
@@ -20683,12 +21008,15 @@
       <c r="H105" t="s">
         <v>85</v>
       </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
       <c r="J105">
         <f t="shared" ref="J105" si="139">I105*10/6-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>86</v>
       </c>
@@ -20698,6 +21026,9 @@
       </c>
       <c r="H106" t="s">
         <v>86</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
       </c>
       <c r="J106">
         <f t="shared" ref="J106" si="141">I106*10-10</f>
